--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R424"/>
+  <dimension ref="A1:R430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24768,13 +24768,13 @@
         <v>160</v>
       </c>
       <c r="K339" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L339" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M339" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24840,13 +24840,13 @@
         <v>340</v>
       </c>
       <c r="K340" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L340" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M340" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24912,13 +24912,13 @@
         <v>250</v>
       </c>
       <c r="K341" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L341" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M341" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24984,13 +24984,13 @@
         <v>250</v>
       </c>
       <c r="K342" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L342" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M342" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K343" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L343" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M343" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K344" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L344" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M344" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25200,13 +25200,13 @@
         <v>160</v>
       </c>
       <c r="K345" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L345" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M345" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K346" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L346" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M346" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K347" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L347" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M347" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K348" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L348" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M348" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25488,13 +25488,13 @@
         <v>340</v>
       </c>
       <c r="K349" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L349" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M349" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44238</v>
+        <v>44281</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K351" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L351" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M351" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44238</v>
+        <v>44281</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25704,13 +25704,13 @@
         <v>250</v>
       </c>
       <c r="K352" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L352" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M352" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44238</v>
+        <v>44281</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K353" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L353" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M353" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44238</v>
+        <v>44281</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25848,13 +25848,13 @@
         <v>160</v>
       </c>
       <c r="K354" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L354" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M354" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44238</v>
+        <v>44281</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25920,13 +25920,13 @@
         <v>340</v>
       </c>
       <c r="K355" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L355" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M355" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44238</v>
+        <v>44281</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K356" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L356" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M356" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,7 +26061,7 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="K357" t="n">
         <v>800</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K358" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L358" t="n">
         <v>700</v>
       </c>
       <c r="M358" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,7 +26205,7 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K359" t="n">
         <v>1000</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,7 +26277,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K360" t="n">
         <v>800</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K361" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L361" t="n">
         <v>700</v>
       </c>
       <c r="M361" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="K362" t="n">
         <v>1000</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J363" t="n">
         <v>250</v>
       </c>
       <c r="K363" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="L363" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="M363" t="n">
-        <v>1150</v>
+        <v>800</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>1150</v>
+        <v>800</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K364" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L364" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M364" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26628,25 +26628,25 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K365" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L365" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M365" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J366" t="n">
         <v>250</v>
       </c>
       <c r="K366" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L366" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="M366" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K367" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L367" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M367" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26844,25 +26844,25 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K368" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L368" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M368" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K369" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L369" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M369" t="n">
-        <v>850</v>
+        <v>1150</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>850</v>
+        <v>1150</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K370" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L370" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M370" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27060,25 +27060,25 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>1100</v>
+        <v>340</v>
       </c>
       <c r="K371" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L371" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M371" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27132,25 +27132,25 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1700</v>
+        <v>250</v>
       </c>
       <c r="K372" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L372" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M372" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27204,25 +27204,25 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K373" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L373" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M373" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27276,25 +27276,25 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>2500</v>
+        <v>160</v>
       </c>
       <c r="K374" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L374" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M374" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27353,20 +27353,20 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>1800</v>
+        <v>520</v>
       </c>
       <c r="K375" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L375" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M375" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44258</v>
+        <v>44196</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27420,25 +27420,25 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K376" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L376" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M376" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27497,11 +27497,11 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K377" t="n">
         <v>1000</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,16 +27564,16 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>250</v>
+        <v>1700</v>
       </c>
       <c r="K378" t="n">
         <v>800</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27641,11 +27641,11 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="K379" t="n">
         <v>1000</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27708,25 +27708,25 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="K380" t="n">
         <v>800</v>
       </c>
       <c r="L380" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M380" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27780,25 +27780,25 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K381" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L381" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M381" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="K382" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L382" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M382" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27879,11 +27879,11 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27929,20 +27929,20 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="K383" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L383" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M383" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -27996,25 +27996,25 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K384" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L384" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M384" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,7 +28077,7 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K385" t="n">
         <v>1000</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K386" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L386" t="n">
         <v>900</v>
       </c>
       <c r="M386" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,7 +28221,7 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K387" t="n">
         <v>800</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,7 +28293,7 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K388" t="n">
         <v>700</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K389" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L389" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M389" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,7 +28437,7 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K390" t="n">
         <v>500</v>
@@ -28455,7 +28455,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P390" t="n">
@@ -28500,25 +28500,25 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K391" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L391" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M391" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28577,20 +28577,20 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K392" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L392" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M392" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28649,20 +28649,20 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K393" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L393" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M393" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28716,25 +28716,25 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>430</v>
+        <v>1900</v>
       </c>
       <c r="K394" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L394" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M394" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28743,11 +28743,11 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K395" t="n">
         <v>600</v>
       </c>
       <c r="L395" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M395" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28869,7 +28869,7 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="K396" t="n">
         <v>500</v>
@@ -28887,7 +28887,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P396" t="n">
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28937,20 +28937,20 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>610</v>
+        <v>1200</v>
       </c>
       <c r="K397" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L397" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M397" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28959,11 +28959,11 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29009,20 +29009,20 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K398" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L398" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M398" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29031,11 +29031,11 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29081,20 +29081,20 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K399" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L399" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M399" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29148,25 +29148,25 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>1800</v>
+        <v>430</v>
       </c>
       <c r="K400" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L400" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M400" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29220,25 +29220,25 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K401" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L401" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M401" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>430</v>
+        <v>610</v>
       </c>
       <c r="K403" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L403" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M403" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="K404" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L404" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M404" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29508,25 +29508,25 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>520</v>
+        <v>1600</v>
       </c>
       <c r="K405" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L405" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M405" t="n">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29535,11 +29535,11 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>610</v>
+        <v>1800</v>
       </c>
       <c r="K406" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L406" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M406" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K407" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L407" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M407" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
         <v>340</v>
       </c>
       <c r="K408" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L408" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="M408" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>610</v>
+        <v>430</v>
       </c>
       <c r="K409" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L409" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M409" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29873,20 +29873,20 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K410" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L410" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M410" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>4670</v>
+        <v>520</v>
       </c>
       <c r="K411" t="n">
         <v>1000</v>
       </c>
       <c r="L411" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="M411" t="n">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,17 +30021,17 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>6460</v>
+        <v>610</v>
       </c>
       <c r="K412" t="n">
+        <v>800</v>
+      </c>
+      <c r="L412" t="n">
+        <v>900</v>
+      </c>
+      <c r="M412" t="n">
         <v>850</v>
       </c>
-      <c r="L412" t="n">
-        <v>1200</v>
-      </c>
-      <c r="M412" t="n">
-        <v>891</v>
-      </c>
       <c r="N412" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>891</v>
+        <v>850</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,17 +30093,17 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>5606</v>
+        <v>340</v>
       </c>
       <c r="K413" t="n">
+        <v>600</v>
+      </c>
+      <c r="L413" t="n">
+        <v>700</v>
+      </c>
+      <c r="M413" t="n">
         <v>650</v>
       </c>
-      <c r="L413" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M413" t="n">
-        <v>679</v>
-      </c>
       <c r="N413" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>679</v>
+        <v>650</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30156,25 +30156,25 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>6100</v>
+        <v>340</v>
       </c>
       <c r="K414" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L414" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="M414" t="n">
-        <v>464</v>
+        <v>1050</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>464</v>
+        <v>1050</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>8360</v>
+        <v>610</v>
       </c>
       <c r="K415" t="n">
+        <v>800</v>
+      </c>
+      <c r="L415" t="n">
         <v>900</v>
       </c>
-      <c r="L415" t="n">
-        <v>1300</v>
-      </c>
       <c r="M415" t="n">
-        <v>960</v>
+        <v>850</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>960</v>
+        <v>850</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>10840</v>
+        <v>250</v>
       </c>
       <c r="K416" t="n">
+        <v>600</v>
+      </c>
+      <c r="L416" t="n">
         <v>700</v>
       </c>
-      <c r="L416" t="n">
-        <v>1100</v>
-      </c>
       <c r="M416" t="n">
-        <v>735</v>
+        <v>650</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>735</v>
+        <v>650</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30372,25 +30372,25 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>9650</v>
+        <v>4670</v>
       </c>
       <c r="K417" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L417" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="M417" t="n">
-        <v>460</v>
+        <v>1055</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>460</v>
+        <v>1055</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30444,25 +30444,25 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>6500</v>
+        <v>6460</v>
       </c>
       <c r="K418" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="L418" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="M418" t="n">
-        <v>324</v>
+        <v>891</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>324</v>
+        <v>891</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>160</v>
+        <v>5606</v>
       </c>
       <c r="K419" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L419" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M419" t="n">
-        <v>800</v>
+        <v>679</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>800</v>
+        <v>679</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>340</v>
+        <v>6100</v>
       </c>
       <c r="K420" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L420" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M420" t="n">
-        <v>700</v>
+        <v>464</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>700</v>
+        <v>464</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,25 +30660,25 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>160</v>
+        <v>8360</v>
       </c>
       <c r="K421" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L421" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="M421" t="n">
-        <v>500</v>
+        <v>960</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>500</v>
+        <v>960</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>250</v>
+        <v>10840</v>
       </c>
       <c r="K422" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L422" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M422" t="n">
-        <v>800</v>
+        <v>735</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>800</v>
+        <v>735</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>340</v>
+        <v>9650</v>
       </c>
       <c r="K423" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L423" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M423" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,58 +30861,490 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E424" t="n">
+        <v>13</v>
+      </c>
+      <c r="F424" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J424" t="n">
+        <v>6500</v>
+      </c>
+      <c r="K424" t="n">
+        <v>300</v>
+      </c>
+      <c r="L424" t="n">
+        <v>350</v>
+      </c>
+      <c r="M424" t="n">
+        <v>324</v>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P424" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>1</v>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>9</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D425" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E424" t="n">
-        <v>13</v>
-      </c>
-      <c r="F424" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H424" t="inlineStr">
+      <c r="E425" t="n">
+        <v>13</v>
+      </c>
+      <c r="F425" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J425" t="n">
+        <v>160</v>
+      </c>
+      <c r="K425" t="n">
+        <v>800</v>
+      </c>
+      <c r="L425" t="n">
+        <v>800</v>
+      </c>
+      <c r="M425" t="n">
+        <v>800</v>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P425" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>1</v>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>9</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D426" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E426" t="n">
+        <v>13</v>
+      </c>
+      <c r="F426" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J426" t="n">
+        <v>340</v>
+      </c>
+      <c r="K426" t="n">
+        <v>700</v>
+      </c>
+      <c r="L426" t="n">
+        <v>700</v>
+      </c>
+      <c r="M426" t="n">
+        <v>700</v>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P426" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>1</v>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>9</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D427" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E427" t="n">
+        <v>13</v>
+      </c>
+      <c r="F427" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J427" t="n">
+        <v>160</v>
+      </c>
+      <c r="K427" t="n">
+        <v>500</v>
+      </c>
+      <c r="L427" t="n">
+        <v>500</v>
+      </c>
+      <c r="M427" t="n">
+        <v>500</v>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P427" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>1</v>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>9</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D428" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E428" t="n">
+        <v>13</v>
+      </c>
+      <c r="F428" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I424" t="inlineStr">
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J428" t="n">
+        <v>250</v>
+      </c>
+      <c r="K428" t="n">
+        <v>800</v>
+      </c>
+      <c r="L428" t="n">
+        <v>800</v>
+      </c>
+      <c r="M428" t="n">
+        <v>800</v>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P428" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>1</v>
+      </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>9</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D429" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E429" t="n">
+        <v>13</v>
+      </c>
+      <c r="F429" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J429" t="n">
+        <v>340</v>
+      </c>
+      <c r="K429" t="n">
+        <v>700</v>
+      </c>
+      <c r="L429" t="n">
+        <v>700</v>
+      </c>
+      <c r="M429" t="n">
+        <v>700</v>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P429" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>1</v>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>9</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D430" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E430" t="n">
+        <v>13</v>
+      </c>
+      <c r="F430" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J424" t="n">
+      <c r="J430" t="n">
         <v>160</v>
       </c>
-      <c r="K424" t="n">
+      <c r="K430" t="n">
         <v>500</v>
       </c>
-      <c r="L424" t="n">
+      <c r="L430" t="n">
         <v>500</v>
       </c>
-      <c r="M424" t="n">
+      <c r="M430" t="n">
         <v>500</v>
       </c>
-      <c r="N424" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O424" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P424" t="n">
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P430" t="n">
         <v>500</v>
       </c>
-      <c r="Q424" t="n">
-        <v>1</v>
-      </c>
-      <c r="R424" t="inlineStr">
+      <c r="Q430" t="n">
+        <v>1</v>
+      </c>
+      <c r="R430" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R491"/>
+  <dimension ref="A1:R498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44210</v>
+        <v>44572</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K296" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L296" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M296" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44210</v>
+        <v>44572</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K297" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L297" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M297" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44210</v>
+        <v>44572</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="K298" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L298" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M298" t="n">
-        <v>600</v>
+        <v>335</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>600</v>
+        <v>335</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44210</v>
+        <v>44572</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1500</v>
+        <v>340</v>
       </c>
       <c r="K299" t="n">
         <v>1000</v>
       </c>
       <c r="L299" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M299" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44210</v>
+        <v>44572</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>2600</v>
+        <v>430</v>
       </c>
       <c r="K300" t="n">
         <v>800</v>
       </c>
       <c r="L300" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M300" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44210</v>
+        <v>44572</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="K301" t="n">
         <v>600</v>
       </c>
       <c r="L301" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M301" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44271</v>
+        <v>44572</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22092,25 +22092,25 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K302" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L302" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M302" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44271</v>
+        <v>44210</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K303" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L303" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M303" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44271</v>
+        <v>44210</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K304" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L304" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M304" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44271</v>
+        <v>44210</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22308,25 +22308,25 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="K305" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L305" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M305" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44271</v>
+        <v>44210</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>340</v>
+        <v>1500</v>
       </c>
       <c r="K306" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L306" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M306" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44271</v>
+        <v>44210</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>160</v>
+        <v>2600</v>
       </c>
       <c r="K307" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L307" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M307" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44271</v>
+        <v>44210</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>160</v>
+        <v>1400</v>
       </c>
       <c r="K308" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L308" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M308" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K309" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L309" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M309" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
+        <v>340</v>
+      </c>
+      <c r="K310" t="n">
         <v>700</v>
       </c>
-      <c r="K310" t="n">
-        <v>900</v>
-      </c>
       <c r="L310" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M310" t="n">
-        <v>957</v>
+        <v>700</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>957</v>
+        <v>700</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K311" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L311" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M311" t="n">
-        <v>743</v>
+        <v>500</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22767,11 +22767,11 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>743</v>
+        <v>500</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22812,25 +22812,25 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K312" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L312" t="n">
         <v>800</v>
       </c>
       <c r="M312" t="n">
-        <v>755</v>
+        <v>800</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>755</v>
+        <v>800</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22884,25 +22884,25 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
+        <v>340</v>
+      </c>
+      <c r="K313" t="n">
         <v>700</v>
       </c>
-      <c r="K313" t="n">
-        <v>500</v>
-      </c>
       <c r="L313" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M313" t="n">
-        <v>557</v>
+        <v>700</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>557</v>
+        <v>700</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K314" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L314" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M314" t="n">
-        <v>957</v>
+        <v>500</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>957</v>
+        <v>500</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="K315" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L315" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M315" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23100,25 +23100,25 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K316" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L316" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M316" t="n">
-        <v>742</v>
+        <v>1000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>742</v>
+        <v>1000</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23172,25 +23172,25 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="K317" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L317" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M317" t="n">
-        <v>752</v>
+        <v>957</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>752</v>
+        <v>957</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23244,25 +23244,25 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K318" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L318" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M318" t="n">
-        <v>544</v>
+        <v>743</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>544</v>
+        <v>743</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23316,25 +23316,25 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L319" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M319" t="n">
-        <v>533</v>
+        <v>755</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>533</v>
+        <v>755</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K320" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L320" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M320" t="n">
-        <v>800</v>
+        <v>557</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>800</v>
+        <v>557</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23460,25 +23460,25 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="K321" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L321" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M321" t="n">
-        <v>700</v>
+        <v>957</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>700</v>
+        <v>957</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23532,25 +23532,25 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="K322" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L322" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M322" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23604,25 +23604,25 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="K323" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L323" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M323" t="n">
-        <v>1000</v>
+        <v>742</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>1000</v>
+        <v>742</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>430</v>
+        <v>2100</v>
       </c>
       <c r="K324" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L324" t="n">
         <v>800</v>
       </c>
       <c r="M324" t="n">
-        <v>800</v>
+        <v>752</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>800</v>
+        <v>752</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>520</v>
+        <v>900</v>
       </c>
       <c r="K325" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L325" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M325" t="n">
-        <v>700</v>
+        <v>544</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>700</v>
+        <v>544</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="K326" t="n">
         <v>500</v>
       </c>
       <c r="L326" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M326" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23892,25 +23892,25 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K327" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L327" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M327" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K328" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L328" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M328" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="K329" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L329" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M329" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44553</v>
+        <v>44250</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K330" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L330" t="n">
         <v>1000</v>
       </c>
       <c r="M330" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44553</v>
+        <v>44250</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24180,25 +24180,25 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K331" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L331" t="n">
         <v>800</v>
       </c>
       <c r="M331" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44553</v>
+        <v>44250</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24252,25 +24252,25 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K332" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L332" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M332" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44553</v>
+        <v>44250</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K333" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="L333" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M333" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44553</v>
+        <v>44250</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K334" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="L334" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M334" t="n">
-        <v>775</v>
+        <v>1000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>775</v>
+        <v>1000</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K335" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="L335" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M335" t="n">
-        <v>675</v>
+        <v>1000</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>675</v>
+        <v>1000</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K336" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L336" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M336" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44285</v>
+        <v>44553</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24624,13 +24624,13 @@
         <v>160</v>
       </c>
       <c r="K337" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L337" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M337" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44285</v>
+        <v>44553</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24696,13 +24696,13 @@
         <v>340</v>
       </c>
       <c r="K338" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L338" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M338" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44285</v>
+        <v>44553</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K339" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L339" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M339" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44285</v>
+        <v>44553</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24828,25 +24828,25 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K340" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="L340" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M340" t="n">
-        <v>300</v>
+        <v>875</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>300</v>
+        <v>875</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44285</v>
+        <v>44553</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24905,20 +24905,20 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K341" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="L341" t="n">
         <v>800</v>
       </c>
       <c r="M341" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44285</v>
+        <v>44553</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
         <v>340</v>
       </c>
       <c r="K342" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L342" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M342" t="n">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44285</v>
+        <v>44167</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="K343" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L343" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M343" t="n">
-        <v>400</v>
+        <v>944</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>400</v>
+        <v>944</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25116,25 +25116,25 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K344" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L344" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M344" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44231</v>
+        <v>44285</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K345" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L345" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M345" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25215,11 +25215,11 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44231</v>
+        <v>44285</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>1900</v>
+        <v>160</v>
       </c>
       <c r="K346" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L346" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M346" t="n">
-        <v>676</v>
+        <v>400</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25287,11 +25287,11 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>676</v>
+        <v>400</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44231</v>
+        <v>44285</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25332,25 +25332,25 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>700</v>
+        <v>70</v>
       </c>
       <c r="K347" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L347" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M347" t="n">
-        <v>957</v>
+        <v>300</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25359,11 +25359,11 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>957</v>
+        <v>300</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44231</v>
+        <v>44285</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K348" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L348" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M348" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44231</v>
+        <v>44285</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>3100</v>
+        <v>340</v>
       </c>
       <c r="K349" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L349" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M349" t="n">
-        <v>679</v>
+        <v>600</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25503,11 +25503,11 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>679</v>
+        <v>600</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44231</v>
+        <v>44285</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25553,20 +25553,20 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>3500</v>
+        <v>160</v>
       </c>
       <c r="K350" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L350" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M350" t="n">
-        <v>671</v>
+        <v>400</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>671</v>
+        <v>400</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44231</v>
+        <v>44285</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25625,20 +25625,20 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>1800</v>
+        <v>70</v>
       </c>
       <c r="K351" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L351" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M351" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25647,11 +25647,11 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P351" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K352" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L352" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M352" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25719,11 +25719,11 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>340</v>
+        <v>1900</v>
       </c>
       <c r="K353" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="L353" t="n">
         <v>700</v>
       </c>
       <c r="M353" t="n">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25791,11 +25791,11 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25836,25 +25836,25 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K354" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L354" t="n">
         <v>1000</v>
       </c>
       <c r="M354" t="n">
-        <v>1000</v>
+        <v>957</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25863,11 +25863,11 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>1000</v>
+        <v>957</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K355" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L355" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M355" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>430</v>
+        <v>3100</v>
       </c>
       <c r="K356" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="L356" t="n">
         <v>700</v>
       </c>
       <c r="M356" t="n">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26007,11 +26007,11 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="K357" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="L357" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M357" t="n">
-        <v>1000</v>
+        <v>671</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>1000</v>
+        <v>671</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26124,25 +26124,25 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>340</v>
+        <v>1800</v>
       </c>
       <c r="K358" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L358" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M358" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26201,20 +26201,20 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K359" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L359" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M359" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26268,25 +26268,25 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K360" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L360" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M360" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26349,7 +26349,7 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K361" t="n">
         <v>1000</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K362" t="n">
         <v>800</v>
@@ -26439,7 +26439,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P362" t="n">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K363" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L363" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M363" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26511,11 +26511,11 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26556,25 +26556,25 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K364" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L364" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M364" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26583,11 +26583,11 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26637,7 +26637,7 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K365" t="n">
         <v>800</v>
@@ -26655,7 +26655,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P365" t="n">
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26700,25 +26700,25 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="K366" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L366" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M366" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26727,11 +26727,11 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26777,20 +26777,20 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K367" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L367" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M367" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44279</v>
+        <v>44251</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26844,25 +26844,25 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K368" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L368" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M368" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K369" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L369" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M369" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K370" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L370" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M370" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27015,11 +27015,11 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27060,25 +27060,25 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J371" t="n">
         <v>160</v>
       </c>
       <c r="K371" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L371" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M371" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27087,11 +27087,11 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27137,20 +27137,20 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K372" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L372" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M372" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27159,11 +27159,11 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K373" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L373" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M373" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44208</v>
+        <v>44286</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K374" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L374" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M374" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27348,16 +27348,16 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K375" t="n">
         <v>800</v>
@@ -27375,7 +27375,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P375" t="n">
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44264</v>
+        <v>44279</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K376" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L376" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M376" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44264</v>
+        <v>44279</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27497,20 +27497,20 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K377" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L377" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M377" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44264</v>
+        <v>44279</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,25 +27564,25 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K378" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L378" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M378" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44264</v>
+        <v>44279</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27636,25 +27636,25 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K379" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L379" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M379" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44264</v>
+        <v>44279</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27713,20 +27713,20 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K380" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L380" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M380" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="K381" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L381" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M381" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27807,11 +27807,11 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K382" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L382" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M382" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27879,11 +27879,11 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27924,25 +27924,25 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K383" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L383" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M383" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>1900</v>
+        <v>340</v>
       </c>
       <c r="K384" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L384" t="n">
         <v>700</v>
       </c>
       <c r="M384" t="n">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28023,11 +28023,11 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28077,7 +28077,7 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="K385" t="n">
         <v>500</v>
@@ -28095,7 +28095,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P385" t="n">
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28140,25 +28140,25 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K386" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L386" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M386" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28167,11 +28167,11 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,7 +28221,7 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="K387" t="n">
         <v>800</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>3800</v>
+        <v>430</v>
       </c>
       <c r="K388" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L388" t="n">
         <v>700</v>
       </c>
       <c r="M388" t="n">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28311,11 +28311,11 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>4500</v>
+        <v>250</v>
       </c>
       <c r="K389" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L389" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M389" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28433,20 +28433,20 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>2100</v>
+        <v>160</v>
       </c>
       <c r="K390" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L390" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M390" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28455,11 +28455,11 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P390" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28500,25 +28500,25 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="K391" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L391" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M391" t="n">
-        <v>500</v>
+        <v>676</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28527,11 +28527,11 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>500</v>
+        <v>676</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28572,25 +28572,25 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J392" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K392" t="n">
         <v>500</v>
       </c>
-      <c r="K392" t="n">
-        <v>1000</v>
-      </c>
       <c r="L392" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M392" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28649,20 +28649,20 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K393" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L393" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M393" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28671,11 +28671,11 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K394" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L394" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M394" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>340</v>
+        <v>3800</v>
       </c>
       <c r="K395" t="n">
+        <v>650</v>
+      </c>
+      <c r="L395" t="n">
         <v>700</v>
       </c>
-      <c r="L395" t="n">
-        <v>800</v>
-      </c>
       <c r="M395" t="n">
-        <v>750</v>
+        <v>676</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28815,11 +28815,11 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>750</v>
+        <v>676</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28860,25 +28860,25 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>250</v>
+        <v>4500</v>
       </c>
       <c r="K396" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L396" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M396" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28937,20 +28937,20 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>250</v>
+        <v>2100</v>
       </c>
       <c r="K397" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="L397" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M397" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28959,11 +28959,11 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29009,20 +29009,20 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>430</v>
+        <v>2300</v>
       </c>
       <c r="K398" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L398" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M398" t="n">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29081,20 +29081,20 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K399" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="L399" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M399" t="n">
-        <v>675</v>
+        <v>1000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>675</v>
+        <v>1000</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44278</v>
+        <v>44232</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29148,25 +29148,25 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K400" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L400" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M400" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29225,20 +29225,20 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K401" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L401" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M401" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29297,20 +29297,20 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K402" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L402" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M402" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29364,25 +29364,25 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J403" t="n">
         <v>250</v>
       </c>
       <c r="K403" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L403" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M403" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K404" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L404" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M404" t="n">
-        <v>600</v>
+        <v>875</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>600</v>
+        <v>875</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29513,20 +29513,20 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K405" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L405" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M405" t="n">
-        <v>400</v>
+        <v>775</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>400</v>
+        <v>775</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44281</v>
+        <v>44551</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29580,25 +29580,25 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K406" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="L406" t="n">
         <v>700</v>
       </c>
       <c r="M406" t="n">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K407" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L407" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M407" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K408" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L408" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M408" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29796,25 +29796,25 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K409" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L409" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M409" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29873,20 +29873,20 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K410" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L410" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M410" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K411" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L411" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M411" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44238</v>
+        <v>44278</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30012,25 +30012,25 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K412" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L412" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M412" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44238</v>
+        <v>44281</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K413" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L413" t="n">
         <v>700</v>
       </c>
       <c r="M413" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44238</v>
+        <v>44281</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K414" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L414" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M414" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44238</v>
+        <v>44281</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30228,25 +30228,25 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
         <v>160</v>
       </c>
       <c r="K415" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L415" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M415" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44238</v>
+        <v>44281</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K416" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L416" t="n">
         <v>700</v>
       </c>
       <c r="M416" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44238</v>
+        <v>44281</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="K417" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L417" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M417" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44257</v>
+        <v>44281</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30444,25 +30444,25 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K418" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L418" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M418" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="K419" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L419" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M419" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K420" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L420" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M420" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,25 +30660,25 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K421" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L421" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M421" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K422" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L422" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M422" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K423" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L423" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M423" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30876,25 +30876,25 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="K424" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L424" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M424" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30953,20 +30953,20 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K425" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L425" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M425" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31032,13 +31032,13 @@
         <v>340</v>
       </c>
       <c r="K426" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="L426" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="M426" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31092,25 +31092,25 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K427" t="n">
         <v>1000</v>
       </c>
       <c r="L427" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M427" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31164,25 +31164,25 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K428" t="n">
         <v>800</v>
       </c>
       <c r="L428" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M428" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31236,16 +31236,16 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K429" t="n">
         <v>700</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K430" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L430" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M430" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31380,25 +31380,25 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K431" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L431" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M431" t="n">
-        <v>700</v>
+        <v>1150</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>700</v>
+        <v>1150</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K432" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L432" t="n">
         <v>1000</v>
       </c>
       <c r="M432" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>1700</v>
+        <v>340</v>
       </c>
       <c r="K433" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L433" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M433" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31601,20 +31601,20 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K434" t="n">
         <v>1000</v>
       </c>
       <c r="L434" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M434" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>2500</v>
+        <v>340</v>
       </c>
       <c r="K435" t="n">
         <v>800</v>
       </c>
       <c r="L435" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M435" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>1800</v>
+        <v>160</v>
       </c>
       <c r="K436" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L436" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M436" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44258</v>
+        <v>44196</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31812,25 +31812,25 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K437" t="n">
         <v>800</v>
       </c>
       <c r="L437" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M437" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44258</v>
+        <v>44196</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31884,25 +31884,25 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K438" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L438" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M438" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="K439" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L439" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M439" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32028,25 +32028,25 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>160</v>
+        <v>1700</v>
       </c>
       <c r="K440" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L440" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M440" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K441" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L441" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M441" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32127,11 +32127,11 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32172,16 +32172,16 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="K442" t="n">
         <v>800</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32244,25 +32244,25 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K443" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L443" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M443" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32271,11 +32271,11 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K444" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L444" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M444" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J445" t="n">
+        <v>160</v>
+      </c>
+      <c r="K445" t="n">
         <v>1000</v>
       </c>
-      <c r="K445" t="n">
-        <v>500</v>
-      </c>
       <c r="L445" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M445" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32460,25 +32460,25 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K446" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L446" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M446" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K447" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L447" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M447" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32559,11 +32559,11 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
+        <v>400</v>
+      </c>
+      <c r="K448" t="n">
+        <v>800</v>
+      </c>
+      <c r="L448" t="n">
         <v>900</v>
       </c>
-      <c r="K448" t="n">
-        <v>800</v>
-      </c>
-      <c r="L448" t="n">
-        <v>800</v>
-      </c>
       <c r="M448" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32631,11 +32631,11 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32676,25 +32676,25 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="K449" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L449" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M449" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K450" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L450" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M450" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,11 +32775,11 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32820,25 +32820,25 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J451" t="n">
         <v>1200</v>
       </c>
       <c r="K451" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L451" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M451" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32847,11 +32847,11 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,7 +32901,7 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K452" t="n">
         <v>500</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32991,7 +32991,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P453" t="n">
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J454" t="n">
         <v>600</v>
       </c>
       <c r="K454" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L454" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M454" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33063,11 +33063,11 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,7 +33117,7 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>430</v>
+        <v>900</v>
       </c>
       <c r="K455" t="n">
         <v>800</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K456" t="n">
         <v>700</v>
-      </c>
-      <c r="K456" t="n">
-        <v>600</v>
       </c>
       <c r="L456" t="n">
         <v>700</v>
       </c>
       <c r="M456" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33207,11 +33207,11 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33252,25 +33252,25 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K457" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L457" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M457" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>610</v>
+        <v>1200</v>
       </c>
       <c r="K458" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L458" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M458" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K459" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L459" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M459" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K460" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L460" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M460" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K461" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L461" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M461" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33612,25 +33612,25 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K462" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L462" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M462" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33639,11 +33639,11 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33684,25 +33684,25 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K463" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L463" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M463" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33756,25 +33756,25 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K464" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L464" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M464" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>520</v>
+        <v>610</v>
       </c>
       <c r="K465" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L465" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M465" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44568</v>
+        <v>44239</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K466" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L466" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M466" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44568</v>
+        <v>44239</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K467" t="n">
+        <v>600</v>
+      </c>
+      <c r="L467" t="n">
         <v>700</v>
       </c>
-      <c r="L467" t="n">
-        <v>800</v>
-      </c>
       <c r="M467" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -33999,11 +33999,11 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44568</v>
+        <v>44239</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34044,16 +34044,16 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>106</v>
+        <v>1800</v>
       </c>
       <c r="K468" t="n">
         <v>600</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44568</v>
+        <v>44239</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J469" t="n">
         <v>250</v>
       </c>
       <c r="K469" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L469" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M469" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44568</v>
+        <v>44239</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J470" t="n">
         <v>340</v>
       </c>
       <c r="K470" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L470" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M470" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44568</v>
+        <v>44239</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K471" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L471" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M471" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,12 +34332,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J472" t="n">
@@ -34347,10 +34347,10 @@
         <v>1000</v>
       </c>
       <c r="L472" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M472" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>610</v>
+        <v>160</v>
       </c>
       <c r="K473" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L473" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M473" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K474" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L474" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M474" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34548,25 +34548,25 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K475" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L475" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M475" t="n">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34625,11 +34625,11 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K476" t="n">
         <v>800</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,11 +34697,11 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K477" t="n">
         <v>600</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44540</v>
+        <v>44568</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34764,25 +34764,25 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>4670</v>
+        <v>160</v>
       </c>
       <c r="K478" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L478" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="M478" t="n">
-        <v>1055</v>
+        <v>450</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>1055</v>
+        <v>450</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>6460</v>
+        <v>520</v>
       </c>
       <c r="K479" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="L479" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M479" t="n">
-        <v>891</v>
+        <v>1050</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>891</v>
+        <v>1050</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>5606</v>
+        <v>610</v>
       </c>
       <c r="K480" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L480" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M480" t="n">
-        <v>679</v>
+        <v>850</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>679</v>
+        <v>850</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>6100</v>
+        <v>340</v>
       </c>
       <c r="K481" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L481" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M481" t="n">
-        <v>464</v>
+        <v>650</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>464</v>
+        <v>650</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>8360</v>
+        <v>340</v>
       </c>
       <c r="K482" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L482" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="M482" t="n">
-        <v>960</v>
+        <v>1050</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>960</v>
+        <v>1050</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>10840</v>
+        <v>610</v>
       </c>
       <c r="K483" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L483" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M483" t="n">
-        <v>735</v>
+        <v>850</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>735</v>
+        <v>850</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>9650</v>
+        <v>250</v>
       </c>
       <c r="K484" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L484" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M484" t="n">
-        <v>460</v>
+        <v>650</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>460</v>
+        <v>650</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35268,25 +35268,25 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>6500</v>
+        <v>4670</v>
       </c>
       <c r="K485" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L485" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="M485" t="n">
-        <v>324</v>
+        <v>1055</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>324</v>
+        <v>1055</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>160</v>
+        <v>6460</v>
       </c>
       <c r="K486" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L486" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M486" t="n">
-        <v>800</v>
+        <v>891</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>800</v>
+        <v>891</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>340</v>
+        <v>5606</v>
       </c>
       <c r="K487" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="L487" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M487" t="n">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>160</v>
+        <v>6100</v>
       </c>
       <c r="K488" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L488" t="n">
         <v>500</v>
       </c>
       <c r="M488" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>250</v>
+        <v>8360</v>
       </c>
       <c r="K489" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L489" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M489" t="n">
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>340</v>
+        <v>10840</v>
       </c>
       <c r="K490" t="n">
         <v>700</v>
       </c>
       <c r="L490" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="M490" t="n">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35685,58 +35685,562 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E491" t="n">
+        <v>13</v>
+      </c>
+      <c r="F491" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J491" t="n">
+        <v>9650</v>
+      </c>
+      <c r="K491" t="n">
+        <v>400</v>
+      </c>
+      <c r="L491" t="n">
+        <v>900</v>
+      </c>
+      <c r="M491" t="n">
+        <v>460</v>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P491" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>1</v>
+      </c>
+      <c r="R491" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>9</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D492" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E492" t="n">
+        <v>13</v>
+      </c>
+      <c r="F492" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J492" t="n">
+        <v>6500</v>
+      </c>
+      <c r="K492" t="n">
+        <v>300</v>
+      </c>
+      <c r="L492" t="n">
+        <v>350</v>
+      </c>
+      <c r="M492" t="n">
+        <v>324</v>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P492" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>1</v>
+      </c>
+      <c r="R492" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>9</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D493" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E491" t="n">
-        <v>13</v>
-      </c>
-      <c r="F491" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H491" t="inlineStr">
+      <c r="E493" t="n">
+        <v>13</v>
+      </c>
+      <c r="F493" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J493" t="n">
+        <v>160</v>
+      </c>
+      <c r="K493" t="n">
+        <v>800</v>
+      </c>
+      <c r="L493" t="n">
+        <v>800</v>
+      </c>
+      <c r="M493" t="n">
+        <v>800</v>
+      </c>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P493" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>1</v>
+      </c>
+      <c r="R493" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>9</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D494" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E494" t="n">
+        <v>13</v>
+      </c>
+      <c r="F494" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J494" t="n">
+        <v>340</v>
+      </c>
+      <c r="K494" t="n">
+        <v>700</v>
+      </c>
+      <c r="L494" t="n">
+        <v>700</v>
+      </c>
+      <c r="M494" t="n">
+        <v>700</v>
+      </c>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P494" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q494" t="n">
+        <v>1</v>
+      </c>
+      <c r="R494" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>9</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D495" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E495" t="n">
+        <v>13</v>
+      </c>
+      <c r="F495" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J495" t="n">
+        <v>160</v>
+      </c>
+      <c r="K495" t="n">
+        <v>500</v>
+      </c>
+      <c r="L495" t="n">
+        <v>500</v>
+      </c>
+      <c r="M495" t="n">
+        <v>500</v>
+      </c>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P495" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q495" t="n">
+        <v>1</v>
+      </c>
+      <c r="R495" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>9</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D496" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E496" t="n">
+        <v>13</v>
+      </c>
+      <c r="F496" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I491" t="inlineStr">
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J496" t="n">
+        <v>250</v>
+      </c>
+      <c r="K496" t="n">
+        <v>800</v>
+      </c>
+      <c r="L496" t="n">
+        <v>800</v>
+      </c>
+      <c r="M496" t="n">
+        <v>800</v>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P496" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>1</v>
+      </c>
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>9</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D497" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E497" t="n">
+        <v>13</v>
+      </c>
+      <c r="F497" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J497" t="n">
+        <v>340</v>
+      </c>
+      <c r="K497" t="n">
+        <v>700</v>
+      </c>
+      <c r="L497" t="n">
+        <v>700</v>
+      </c>
+      <c r="M497" t="n">
+        <v>700</v>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P497" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>1</v>
+      </c>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>9</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D498" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E498" t="n">
+        <v>13</v>
+      </c>
+      <c r="F498" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J491" t="n">
+      <c r="J498" t="n">
         <v>160</v>
       </c>
-      <c r="K491" t="n">
+      <c r="K498" t="n">
         <v>500</v>
       </c>
-      <c r="L491" t="n">
+      <c r="L498" t="n">
         <v>500</v>
       </c>
-      <c r="M491" t="n">
+      <c r="M498" t="n">
         <v>500</v>
       </c>
-      <c r="N491" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O491" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P491" t="n">
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P498" t="n">
         <v>500</v>
       </c>
-      <c r="Q491" t="n">
-        <v>1</v>
-      </c>
-      <c r="R491" t="inlineStr">
+      <c r="Q498" t="n">
+        <v>1</v>
+      </c>
+      <c r="R498" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R504"/>
+  <dimension ref="A1:R512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24324,25 +24324,25 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K333" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L333" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M333" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24396,25 +24396,25 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="K334" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L334" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M334" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44544</v>
+        <v>44574</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K335" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L335" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="M335" t="n">
-        <v>1250</v>
+        <v>450</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>1250</v>
+        <v>450</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44544</v>
+        <v>44574</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J336" t="n">
+        <v>61</v>
+      </c>
+      <c r="K336" t="n">
         <v>250</v>
       </c>
-      <c r="K336" t="n">
-        <v>800</v>
-      </c>
       <c r="L336" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M336" t="n">
-        <v>850</v>
+        <v>275</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>850</v>
+        <v>275</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44544</v>
+        <v>44574</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24612,25 +24612,25 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K337" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L337" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M337" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44544</v>
+        <v>44574</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K338" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L338" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="M338" t="n">
-        <v>1250</v>
+        <v>650</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>1250</v>
+        <v>650</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44544</v>
+        <v>44574</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K339" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L339" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M339" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44544</v>
+        <v>44574</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="K340" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L340" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M340" t="n">
-        <v>650</v>
+        <v>275</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>650</v>
+        <v>275</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44218</v>
+        <v>44168</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24900,16 +24900,16 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K341" t="n">
         <v>1000</v>
@@ -24927,7 +24927,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P341" t="n">
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44218</v>
+        <v>44168</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24972,25 +24972,25 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="K342" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L342" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M342" t="n">
-        <v>957</v>
+        <v>800</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>957</v>
+        <v>800</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44218</v>
+        <v>44544</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K343" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="L343" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M343" t="n">
-        <v>743</v>
+        <v>1250</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25071,11 +25071,11 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>743</v>
+        <v>1250</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44218</v>
+        <v>44544</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K344" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L344" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M344" t="n">
-        <v>755</v>
+        <v>850</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>755</v>
+        <v>850</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44218</v>
+        <v>44544</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
+        <v>106</v>
+      </c>
+      <c r="K345" t="n">
+        <v>600</v>
+      </c>
+      <c r="L345" t="n">
         <v>700</v>
       </c>
-      <c r="K345" t="n">
-        <v>500</v>
-      </c>
-      <c r="L345" t="n">
-        <v>600</v>
-      </c>
       <c r="M345" t="n">
-        <v>557</v>
+        <v>650</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>557</v>
+        <v>650</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44218</v>
+        <v>44544</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K346" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L346" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M346" t="n">
-        <v>957</v>
+        <v>1250</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25287,11 +25287,11 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>957</v>
+        <v>1250</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44218</v>
+        <v>44544</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="K347" t="n">
+        <v>800</v>
+      </c>
+      <c r="L347" t="n">
         <v>900</v>
       </c>
-      <c r="L347" t="n">
-        <v>1000</v>
-      </c>
       <c r="M347" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44218</v>
+        <v>44544</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1200</v>
+        <v>124</v>
       </c>
       <c r="K348" t="n">
+        <v>600</v>
+      </c>
+      <c r="L348" t="n">
         <v>700</v>
       </c>
-      <c r="L348" t="n">
-        <v>800</v>
-      </c>
       <c r="M348" t="n">
-        <v>742</v>
+        <v>650</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25431,11 +25431,11 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>742</v>
+        <v>650</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25476,25 +25476,25 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="K349" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L349" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M349" t="n">
-        <v>752</v>
+        <v>1000</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25503,11 +25503,11 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>752</v>
+        <v>1000</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25548,25 +25548,25 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J350" t="n">
+        <v>700</v>
+      </c>
+      <c r="K350" t="n">
         <v>900</v>
       </c>
-      <c r="K350" t="n">
-        <v>500</v>
-      </c>
       <c r="L350" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M350" t="n">
-        <v>544</v>
+        <v>957</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25575,11 +25575,11 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>544</v>
+        <v>957</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25620,25 +25620,25 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K351" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L351" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M351" t="n">
-        <v>533</v>
+        <v>743</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25647,11 +25647,11 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P351" t="n">
-        <v>533</v>
+        <v>743</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>340</v>
+        <v>1100</v>
       </c>
       <c r="K352" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L352" t="n">
         <v>800</v>
       </c>
       <c r="M352" t="n">
-        <v>800</v>
+        <v>755</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>800</v>
+        <v>755</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="K353" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L353" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M353" t="n">
-        <v>1000</v>
+        <v>557</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>1000</v>
+        <v>557</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="K354" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L354" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M354" t="n">
-        <v>800</v>
+        <v>957</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25863,11 +25863,11 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>800</v>
+        <v>957</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="K355" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L355" t="n">
         <v>1000</v>
       </c>
       <c r="M355" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25980,25 +25980,25 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K356" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L356" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M356" t="n">
-        <v>1000</v>
+        <v>742</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26007,11 +26007,11 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>1000</v>
+        <v>742</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K357" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L357" t="n">
         <v>800</v>
       </c>
       <c r="M357" t="n">
-        <v>800</v>
+        <v>752</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>800</v>
+        <v>752</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K358" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L358" t="n">
         <v>600</v>
       </c>
       <c r="M358" t="n">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26201,20 +26201,20 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K359" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L359" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M359" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26268,16 +26268,16 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>2600</v>
+        <v>340</v>
       </c>
       <c r="K360" t="n">
         <v>800</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26340,25 +26340,25 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>1400</v>
+        <v>280</v>
       </c>
       <c r="K361" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L361" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M361" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44230</v>
+        <v>44251</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K362" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L362" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M362" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44230</v>
+        <v>44251</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26484,25 +26484,25 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>1400</v>
+        <v>260</v>
       </c>
       <c r="K363" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L363" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M363" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26511,11 +26511,11 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="K364" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L364" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M364" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K365" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L365" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M365" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="K366" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L366" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M366" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,7 +26781,7 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K367" t="n">
         <v>1000</v>
@@ -26799,7 +26799,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P367" t="n">
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26849,20 +26849,20 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="K368" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L368" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M368" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K369" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L369" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M369" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26988,25 +26988,25 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K370" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L370" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M370" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27060,25 +27060,25 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K371" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L371" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M371" t="n">
-        <v>538</v>
+        <v>700</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>538</v>
+        <v>700</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27132,25 +27132,25 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K372" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L372" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M372" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44265</v>
+        <v>44230</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="K373" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L373" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M373" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44265</v>
+        <v>44230</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>340</v>
+        <v>2300</v>
       </c>
       <c r="K374" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L374" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M374" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44265</v>
+        <v>44230</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K375" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L375" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M375" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27375,11 +27375,11 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44265</v>
+        <v>44230</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K376" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L376" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M376" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27492,25 +27492,25 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>160</v>
+        <v>2100</v>
       </c>
       <c r="K377" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L377" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M377" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,7 +27573,7 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>340</v>
+        <v>2800</v>
       </c>
       <c r="K378" t="n">
         <v>700</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K379" t="n">
         <v>500</v>
       </c>
       <c r="L379" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M379" t="n">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27663,11 +27663,11 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27713,20 +27713,20 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K380" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L380" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M380" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44272</v>
+        <v>44265</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27780,25 +27780,25 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K381" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L381" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M381" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44272</v>
+        <v>44265</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27852,25 +27852,25 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K382" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L382" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M382" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44167</v>
+        <v>44265</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27929,20 +27929,20 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="K383" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L383" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M383" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -27996,25 +27996,25 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K384" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L384" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M384" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44280</v>
+        <v>44272</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K385" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L385" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M385" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44280</v>
+        <v>44272</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28145,20 +28145,20 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K386" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L386" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M386" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44280</v>
+        <v>44272</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28212,25 +28212,25 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J387" t="n">
         <v>160</v>
       </c>
       <c r="K387" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L387" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M387" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44280</v>
+        <v>44272</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K388" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L388" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M388" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44280</v>
+        <v>44272</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K389" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L389" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M389" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28428,25 +28428,25 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K390" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L390" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M390" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44196</v>
+        <v>44167</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="K391" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L391" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M391" t="n">
-        <v>700</v>
+        <v>944</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>700</v>
+        <v>944</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44196</v>
+        <v>44280</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28572,25 +28572,25 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K392" t="n">
         <v>800</v>
       </c>
       <c r="L392" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M392" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44196</v>
+        <v>44280</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28644,25 +28644,25 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J393" t="n">
         <v>340</v>
       </c>
       <c r="K393" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L393" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M393" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44239</v>
+        <v>44280</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28721,20 +28721,20 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K394" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L394" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M394" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44239</v>
+        <v>44280</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28788,25 +28788,25 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K395" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L395" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M395" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44239</v>
+        <v>44280</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28860,25 +28860,25 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J396" t="n">
         <v>340</v>
       </c>
       <c r="K396" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L396" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M396" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44239</v>
+        <v>44280</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28937,20 +28937,20 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K397" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L397" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M397" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28959,11 +28959,11 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29004,25 +29004,25 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K398" t="n">
         <v>800</v>
       </c>
       <c r="L398" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M398" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29076,25 +29076,25 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K399" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L399" t="n">
         <v>700</v>
       </c>
       <c r="M399" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>1800</v>
+        <v>520</v>
       </c>
       <c r="K400" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L400" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M400" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K401" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L401" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M401" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29292,25 +29292,25 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K402" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L402" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M402" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29364,25 +29364,25 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>430</v>
+        <v>700</v>
       </c>
       <c r="K403" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L403" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M403" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29391,11 +29391,11 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29436,25 +29436,25 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K404" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L404" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M404" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44208</v>
+        <v>44239</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="K405" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L405" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M405" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44208</v>
+        <v>44239</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29585,11 +29585,11 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K406" t="n">
         <v>800</v>
@@ -29607,7 +29607,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P406" t="n">
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29652,25 +29652,25 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K407" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L407" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M407" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>520</v>
+        <v>1800</v>
       </c>
       <c r="K408" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L408" t="n">
         <v>700</v>
       </c>
       <c r="M408" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29823,7 +29823,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P409" t="n">
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29868,25 +29868,25 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J410" t="n">
         <v>340</v>
       </c>
       <c r="K410" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L410" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M410" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J411" t="n">
         <v>430</v>
       </c>
       <c r="K411" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L411" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M411" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29967,11 +29967,11 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J412" t="n">
         <v>520</v>
       </c>
       <c r="K412" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L412" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M412" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44250</v>
+        <v>44208</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K413" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L413" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M413" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30111,11 +30111,11 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44250</v>
+        <v>44208</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K414" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L414" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M414" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30183,11 +30183,11 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K415" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L415" t="n">
         <v>800</v>
       </c>
       <c r="M415" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K416" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L416" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M416" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K417" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L417" t="n">
         <v>500</v>
       </c>
       <c r="M417" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30444,25 +30444,25 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K418" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L418" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M418" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J419" t="n">
         <v>430</v>
       </c>
       <c r="K419" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L419" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M419" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K420" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L420" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M420" t="n">
-        <v>425</v>
+        <v>700</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>425</v>
+        <v>700</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44552</v>
+        <v>44250</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30660,25 +30660,25 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K421" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L421" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M421" t="n">
-        <v>949</v>
+        <v>500</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>949</v>
+        <v>500</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44552</v>
+        <v>44250</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30732,25 +30732,25 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K422" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L422" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M422" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J423" t="n">
         <v>160</v>
       </c>
       <c r="K423" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L423" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M423" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30876,25 +30876,25 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K424" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L424" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M424" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30948,25 +30948,25 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K425" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L425" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M425" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31025,20 +31025,20 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J426" t="n">
         <v>250</v>
       </c>
       <c r="K426" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L426" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M426" t="n">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="K427" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L427" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M427" t="n">
-        <v>943</v>
+        <v>600</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31119,11 +31119,11 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>943</v>
+        <v>600</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="K428" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="L428" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M428" t="n">
-        <v>778</v>
+        <v>425</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31191,11 +31191,11 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>778</v>
+        <v>425</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K429" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L429" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M429" t="n">
-        <v>800</v>
+        <v>949</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31263,11 +31263,11 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>800</v>
+        <v>949</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K430" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L430" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M430" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31335,11 +31335,11 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31392,13 +31392,13 @@
         <v>160</v>
       </c>
       <c r="K431" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L431" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M431" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K432" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L432" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M432" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31536,13 +31536,13 @@
         <v>340</v>
       </c>
       <c r="K433" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L433" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M433" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31551,11 +31551,11 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31608,13 +31608,13 @@
         <v>250</v>
       </c>
       <c r="K434" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L434" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M434" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31623,11 +31623,11 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44294</v>
+        <v>44216</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31668,25 +31668,25 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K435" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L435" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M435" t="n">
-        <v>600</v>
+        <v>943</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>600</v>
+        <v>943</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44294</v>
+        <v>44216</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31740,25 +31740,25 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K436" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L436" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M436" t="n">
-        <v>400</v>
+        <v>778</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>400</v>
+        <v>778</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K437" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L437" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M437" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31839,11 +31839,11 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31884,25 +31884,25 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K438" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L438" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M438" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31911,11 +31911,11 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31956,25 +31956,25 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K439" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L439" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M439" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31983,11 +31983,11 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K440" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L440" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M440" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32055,11 +32055,11 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K441" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L441" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M441" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32127,11 +32127,11 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44558</v>
+        <v>44286</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32172,25 +32172,25 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
         <v>250</v>
       </c>
       <c r="K442" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L442" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M442" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32199,11 +32199,11 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44558</v>
+        <v>44294</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32259,10 +32259,10 @@
         <v>600</v>
       </c>
       <c r="L443" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M443" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44558</v>
+        <v>44294</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32331,10 +32331,10 @@
         <v>400</v>
       </c>
       <c r="L444" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M444" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44558</v>
+        <v>44294</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32388,25 +32388,25 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K445" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L445" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M445" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44558</v>
+        <v>44294</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K446" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L446" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M446" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44558</v>
+        <v>44294</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K447" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L447" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M447" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44554</v>
+        <v>44294</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32604,25 +32604,25 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K448" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="L448" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M448" t="n">
-        <v>775</v>
+        <v>400</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>775</v>
+        <v>400</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44554</v>
+        <v>44294</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32676,25 +32676,25 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K449" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L449" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M449" t="n">
-        <v>675</v>
+        <v>300</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>675</v>
+        <v>300</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J450" t="n">
         <v>250</v>
       </c>
       <c r="K450" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L450" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M450" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32820,25 +32820,25 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K451" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L451" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M451" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32892,25 +32892,25 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K452" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L452" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M452" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K453" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L453" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M453" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44278</v>
+        <v>44558</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33036,25 +33036,25 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K454" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L454" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M454" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44278</v>
+        <v>44558</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33108,25 +33108,25 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K455" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L455" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M455" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44278</v>
+        <v>44554</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K456" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L456" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M456" t="n">
-        <v>400</v>
+        <v>775</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>400</v>
+        <v>775</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44278</v>
+        <v>44554</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33252,25 +33252,25 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K457" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L457" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M457" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44278</v>
+        <v>44554</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33324,25 +33324,25 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K458" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L458" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M458" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44278</v>
+        <v>44554</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K459" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L459" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M459" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44194</v>
+        <v>44554</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33468,25 +33468,25 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
         <v>520</v>
       </c>
       <c r="K460" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L460" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="M460" t="n">
-        <v>1050</v>
+        <v>625</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>1050</v>
+        <v>625</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44194</v>
+        <v>44554</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33540,25 +33540,25 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>610</v>
+        <v>340</v>
       </c>
       <c r="K461" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L461" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M461" t="n">
-        <v>850</v>
+        <v>475</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>850</v>
+        <v>475</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K462" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L462" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M462" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33684,25 +33684,25 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J463" t="n">
         <v>340</v>
       </c>
       <c r="K463" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L463" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="M463" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33756,25 +33756,25 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K464" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L464" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M464" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J465" t="n">
         <v>250</v>
       </c>
       <c r="K465" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L465" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M465" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44236</v>
+        <v>44278</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33900,25 +33900,25 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J466" t="n">
         <v>340</v>
       </c>
       <c r="K466" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L466" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M466" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44236</v>
+        <v>44278</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33972,25 +33972,25 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K467" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L467" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M467" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -33999,11 +33999,11 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K468" t="n">
         <v>1000</v>
       </c>
       <c r="L468" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M468" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34071,11 +34071,11 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,25 +34116,25 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>430</v>
+        <v>610</v>
       </c>
       <c r="K469" t="n">
         <v>800</v>
       </c>
       <c r="L469" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M469" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34188,25 +34188,25 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K470" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L470" t="n">
         <v>700</v>
       </c>
       <c r="M470" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,7 +34265,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J471" t="n">
@@ -34275,10 +34275,10 @@
         <v>1000</v>
       </c>
       <c r="L471" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M471" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44532</v>
+        <v>44194</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="K472" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="L472" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="M472" t="n">
-        <v>1350</v>
+        <v>850</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>1350</v>
+        <v>850</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44532</v>
+        <v>44194</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K473" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="L473" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M473" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44532</v>
+        <v>44236</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,25 +34476,25 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K474" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="L474" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="M474" t="n">
-        <v>1350</v>
+        <v>800</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>1350</v>
+        <v>800</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44532</v>
+        <v>44236</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34548,25 +34548,25 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="K475" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="L475" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M475" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34575,11 +34575,11 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44266</v>
+        <v>44236</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J476" t="n">
         <v>250</v>
       </c>
       <c r="K476" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L476" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M476" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34647,11 +34647,11 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44266</v>
+        <v>44236</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34692,25 +34692,25 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K477" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L477" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M477" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44266</v>
+        <v>44236</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34764,25 +34764,25 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K478" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L478" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M478" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34791,11 +34791,11 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44266</v>
+        <v>44236</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,7 +34845,7 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K479" t="n">
         <v>1000</v>
@@ -34863,7 +34863,7 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P479" t="n">
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44266</v>
+        <v>44532</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34908,25 +34908,25 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K480" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="L480" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="M480" t="n">
-        <v>800</v>
+        <v>1350</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>800</v>
+        <v>1350</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44266</v>
+        <v>44532</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34980,25 +34980,25 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K481" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L481" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="M481" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44266</v>
+        <v>44532</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K482" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="L482" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="M482" t="n">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44266</v>
+        <v>44532</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K483" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L483" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M483" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K484" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L484" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="M484" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K485" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L485" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M485" t="n">
-        <v>1049</v>
+        <v>700</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>1049</v>
+        <v>700</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35340,25 +35340,25 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J486" t="n">
         <v>160</v>
       </c>
       <c r="K486" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L486" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="M486" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35412,25 +35412,25 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K487" t="n">
         <v>1000</v>
       </c>
       <c r="L487" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M487" t="n">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,7 +35565,7 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K489" t="n">
         <v>700</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,7 +35637,7 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K490" t="n">
         <v>500</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35772,25 +35772,25 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K492" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L492" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M492" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35844,25 +35844,25 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="K493" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L493" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="M493" t="n">
-        <v>700</v>
+        <v>1049</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>700</v>
+        <v>1049</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K494" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L494" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="M494" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K495" t="n">
         <v>1000</v>
       </c>
       <c r="L495" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M495" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,7 +36069,7 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K496" t="n">
         <v>800</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36144,13 +36144,13 @@
         <v>340</v>
       </c>
       <c r="K497" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L497" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M497" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K498" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L498" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M498" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36276,25 +36276,25 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J499" t="n">
         <v>160</v>
       </c>
       <c r="K499" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L499" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M499" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J500" t="n">
         <v>250</v>
       </c>
       <c r="K500" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L500" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M500" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K501" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L501" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M501" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44277</v>
+        <v>44264</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K502" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L502" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M502" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44525</v>
+        <v>44264</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36569,36 +36569,36 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K503" t="n">
-        <v>19000</v>
+        <v>1000</v>
       </c>
       <c r="L503" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="M503" t="n">
-        <v>19500</v>
+        <v>1000</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>1219</v>
+        <v>1000</v>
       </c>
       <c r="Q503" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36621,58 +36621,634 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E504" t="n">
+        <v>13</v>
+      </c>
+      <c r="F504" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J504" t="n">
+        <v>160</v>
+      </c>
+      <c r="K504" t="n">
+        <v>800</v>
+      </c>
+      <c r="L504" t="n">
+        <v>800</v>
+      </c>
+      <c r="M504" t="n">
+        <v>800</v>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P504" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q504" t="n">
+        <v>1</v>
+      </c>
+      <c r="R504" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>9</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D505" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E505" t="n">
+        <v>13</v>
+      </c>
+      <c r="F505" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J505" t="n">
+        <v>340</v>
+      </c>
+      <c r="K505" t="n">
+        <v>600</v>
+      </c>
+      <c r="L505" t="n">
+        <v>600</v>
+      </c>
+      <c r="M505" t="n">
+        <v>600</v>
+      </c>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P505" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q505" t="n">
+        <v>1</v>
+      </c>
+      <c r="R505" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>9</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D506" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E506" t="n">
+        <v>13</v>
+      </c>
+      <c r="F506" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J506" t="n">
+        <v>160</v>
+      </c>
+      <c r="K506" t="n">
+        <v>400</v>
+      </c>
+      <c r="L506" t="n">
+        <v>400</v>
+      </c>
+      <c r="M506" t="n">
+        <v>400</v>
+      </c>
+      <c r="N506" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P506" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>1</v>
+      </c>
+      <c r="R506" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>9</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D507" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E507" t="n">
+        <v>13</v>
+      </c>
+      <c r="F507" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J507" t="n">
+        <v>160</v>
+      </c>
+      <c r="K507" t="n">
+        <v>800</v>
+      </c>
+      <c r="L507" t="n">
+        <v>800</v>
+      </c>
+      <c r="M507" t="n">
+        <v>800</v>
+      </c>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P507" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>1</v>
+      </c>
+      <c r="R507" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>9</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D508" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E508" t="n">
+        <v>13</v>
+      </c>
+      <c r="F508" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J508" t="n">
+        <v>250</v>
+      </c>
+      <c r="K508" t="n">
+        <v>600</v>
+      </c>
+      <c r="L508" t="n">
+        <v>600</v>
+      </c>
+      <c r="M508" t="n">
+        <v>600</v>
+      </c>
+      <c r="N508" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P508" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q508" t="n">
+        <v>1</v>
+      </c>
+      <c r="R508" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>9</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D509" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E509" t="n">
+        <v>13</v>
+      </c>
+      <c r="F509" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J509" t="n">
+        <v>160</v>
+      </c>
+      <c r="K509" t="n">
+        <v>400</v>
+      </c>
+      <c r="L509" t="n">
+        <v>400</v>
+      </c>
+      <c r="M509" t="n">
+        <v>400</v>
+      </c>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P509" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q509" t="n">
+        <v>1</v>
+      </c>
+      <c r="R509" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>9</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D510" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E510" t="n">
+        <v>13</v>
+      </c>
+      <c r="F510" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J510" t="n">
+        <v>160</v>
+      </c>
+      <c r="K510" t="n">
+        <v>800</v>
+      </c>
+      <c r="L510" t="n">
+        <v>800</v>
+      </c>
+      <c r="M510" t="n">
+        <v>800</v>
+      </c>
+      <c r="N510" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P510" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q510" t="n">
+        <v>1</v>
+      </c>
+      <c r="R510" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>9</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D511" s="2" t="n">
         <v>44525</v>
       </c>
-      <c r="E504" t="n">
-        <v>13</v>
-      </c>
-      <c r="F504" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H504" t="inlineStr">
+      <c r="E511" t="n">
+        <v>13</v>
+      </c>
+      <c r="F511" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I504" t="inlineStr">
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J511" t="n">
+        <v>34</v>
+      </c>
+      <c r="K511" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L511" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M511" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N511" t="inlineStr">
+        <is>
+          <t>$/caja 16 unidades</t>
+        </is>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="P511" t="n">
+        <v>1219</v>
+      </c>
+      <c r="Q511" t="n">
+        <v>16</v>
+      </c>
+      <c r="R511" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>9</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D512" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E512" t="n">
+        <v>13</v>
+      </c>
+      <c r="F512" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J504" t="n">
+      <c r="J512" t="n">
         <v>16</v>
       </c>
-      <c r="K504" t="n">
+      <c r="K512" t="n">
         <v>17000</v>
       </c>
-      <c r="L504" t="n">
+      <c r="L512" t="n">
         <v>18000</v>
       </c>
-      <c r="M504" t="n">
+      <c r="M512" t="n">
         <v>17500</v>
       </c>
-      <c r="N504" t="inlineStr">
+      <c r="N512" t="inlineStr">
         <is>
           <t>$/caja 24 unidades</t>
         </is>
       </c>
-      <c r="O504" t="inlineStr">
+      <c r="O512" t="inlineStr">
         <is>
           <t>Provincia de Copiapó</t>
         </is>
       </c>
-      <c r="P504" t="n">
+      <c r="P512" t="n">
         <v>729</v>
       </c>
-      <c r="Q504" t="n">
+      <c r="Q512" t="n">
         <v>24</v>
       </c>
-      <c r="R504" t="inlineStr">
+      <c r="R512" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R520"/>
+  <dimension ref="A1:R524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K492" t="n">
         <v>800</v>
       </c>
       <c r="L492" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M492" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35856,13 +35856,13 @@
         <v>250</v>
       </c>
       <c r="K493" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L493" t="n">
         <v>700</v>
       </c>
       <c r="M493" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K494" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L494" t="n">
         <v>500</v>
       </c>
       <c r="M494" t="n">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35988,25 +35988,25 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K495" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L495" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M495" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36348,25 +36348,25 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K500" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L500" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="M500" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36420,25 +36420,25 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K501" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L501" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M501" t="n">
-        <v>1049</v>
+        <v>700</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>1049</v>
+        <v>700</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
         <v>160</v>
       </c>
       <c r="K502" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L502" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="M502" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K503" t="n">
         <v>1000</v>
       </c>
       <c r="L503" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M503" t="n">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K504" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L504" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M504" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K505" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L505" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="M505" t="n">
-        <v>700</v>
+        <v>1049</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>700</v>
+        <v>1049</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36780,25 +36780,25 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K506" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L506" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="M506" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36852,25 +36852,25 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K507" t="n">
         <v>1000</v>
       </c>
       <c r="L507" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M507" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,7 +37005,7 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K509" t="n">
         <v>700</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37221,7 +37221,7 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K512" t="n">
         <v>800</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K513" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L513" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M513" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K514" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L514" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M514" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J515" t="n">
         <v>160</v>
       </c>
       <c r="K515" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L515" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M515" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37500,25 +37500,25 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K516" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L516" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M516" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37572,25 +37572,25 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K517" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L517" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M517" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37644,25 +37644,25 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J518" t="n">
         <v>160</v>
       </c>
       <c r="K518" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L518" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M518" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44525</v>
+        <v>44279</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37721,36 +37721,36 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K519" t="n">
-        <v>19000</v>
+        <v>800</v>
       </c>
       <c r="L519" t="n">
-        <v>20000</v>
+        <v>800</v>
       </c>
       <c r="M519" t="n">
-        <v>19500</v>
+        <v>800</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>1219</v>
+        <v>800</v>
       </c>
       <c r="Q519" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R519" t="inlineStr">
         <is>
@@ -37773,58 +37773,346 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E520" t="n">
+        <v>13</v>
+      </c>
+      <c r="F520" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J520" t="n">
+        <v>250</v>
+      </c>
+      <c r="K520" t="n">
+        <v>600</v>
+      </c>
+      <c r="L520" t="n">
+        <v>600</v>
+      </c>
+      <c r="M520" t="n">
+        <v>600</v>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P520" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>1</v>
+      </c>
+      <c r="R520" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>9</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D521" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E521" t="n">
+        <v>13</v>
+      </c>
+      <c r="F521" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J521" t="n">
+        <v>160</v>
+      </c>
+      <c r="K521" t="n">
+        <v>400</v>
+      </c>
+      <c r="L521" t="n">
+        <v>400</v>
+      </c>
+      <c r="M521" t="n">
+        <v>400</v>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P521" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>1</v>
+      </c>
+      <c r="R521" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>9</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D522" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E522" t="n">
+        <v>13</v>
+      </c>
+      <c r="F522" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J522" t="n">
+        <v>160</v>
+      </c>
+      <c r="K522" t="n">
+        <v>800</v>
+      </c>
+      <c r="L522" t="n">
+        <v>800</v>
+      </c>
+      <c r="M522" t="n">
+        <v>800</v>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P522" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>1</v>
+      </c>
+      <c r="R522" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>9</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D523" s="2" t="n">
         <v>44525</v>
       </c>
-      <c r="E520" t="n">
-        <v>13</v>
-      </c>
-      <c r="F520" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H520" t="inlineStr">
+      <c r="E523" t="n">
+        <v>13</v>
+      </c>
+      <c r="F523" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I520" t="inlineStr">
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J523" t="n">
+        <v>34</v>
+      </c>
+      <c r="K523" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L523" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M523" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>$/caja 16 unidades</t>
+        </is>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="P523" t="n">
+        <v>1219</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>16</v>
+      </c>
+      <c r="R523" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>9</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D524" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E524" t="n">
+        <v>13</v>
+      </c>
+      <c r="F524" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J520" t="n">
+      <c r="J524" t="n">
         <v>16</v>
       </c>
-      <c r="K520" t="n">
+      <c r="K524" t="n">
         <v>17000</v>
       </c>
-      <c r="L520" t="n">
+      <c r="L524" t="n">
         <v>18000</v>
       </c>
-      <c r="M520" t="n">
+      <c r="M524" t="n">
         <v>17500</v>
       </c>
-      <c r="N520" t="inlineStr">
+      <c r="N524" t="inlineStr">
         <is>
           <t>$/caja 24 unidades</t>
         </is>
       </c>
-      <c r="O520" t="inlineStr">
+      <c r="O524" t="inlineStr">
         <is>
           <t>Provincia de Copiapó</t>
         </is>
       </c>
-      <c r="P520" t="n">
+      <c r="P524" t="n">
         <v>729</v>
       </c>
-      <c r="Q520" t="n">
+      <c r="Q524" t="n">
         <v>24</v>
       </c>
-      <c r="R520" t="inlineStr">
+      <c r="R524" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R544"/>
+  <dimension ref="A1:R552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44544</v>
+        <v>44582</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K371" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L371" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="M371" t="n">
-        <v>1250</v>
+        <v>850</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>1250</v>
+        <v>850</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44544</v>
+        <v>44582</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K372" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L372" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M372" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44544</v>
+        <v>44582</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K373" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L373" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M373" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44544</v>
+        <v>44582</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27276,25 +27276,25 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K374" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="L374" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="M374" t="n">
-        <v>1250</v>
+        <v>300</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>1250</v>
+        <v>300</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44544</v>
+        <v>44582</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27353,11 +27353,11 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="K375" t="n">
         <v>800</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44544</v>
+        <v>44582</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27425,11 +27425,11 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>124</v>
+        <v>430</v>
       </c>
       <c r="K376" t="n">
         <v>600</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44218</v>
+        <v>44582</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27492,25 +27492,25 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J377" t="n">
+        <v>160</v>
+      </c>
+      <c r="K377" t="n">
         <v>400</v>
       </c>
-      <c r="K377" t="n">
-        <v>1000</v>
-      </c>
       <c r="L377" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M377" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44218</v>
+        <v>44582</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27564,25 +27564,25 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>700</v>
+        <v>97</v>
       </c>
       <c r="K378" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L378" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M378" t="n">
-        <v>957</v>
+        <v>300</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>957</v>
+        <v>300</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44218</v>
+        <v>44544</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27641,20 +27641,20 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K379" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="L379" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M379" t="n">
-        <v>743</v>
+        <v>1250</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27663,11 +27663,11 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>743</v>
+        <v>1250</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44218</v>
+        <v>44544</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K380" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L380" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M380" t="n">
-        <v>755</v>
+        <v>850</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>755</v>
+        <v>850</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44218</v>
+        <v>44544</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
+        <v>106</v>
+      </c>
+      <c r="K381" t="n">
+        <v>600</v>
+      </c>
+      <c r="L381" t="n">
         <v>700</v>
       </c>
-      <c r="K381" t="n">
-        <v>500</v>
-      </c>
-      <c r="L381" t="n">
-        <v>600</v>
-      </c>
       <c r="M381" t="n">
-        <v>557</v>
+        <v>650</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>557</v>
+        <v>650</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44218</v>
+        <v>44544</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K382" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L382" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M382" t="n">
-        <v>957</v>
+        <v>1250</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27879,11 +27879,11 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>957</v>
+        <v>1250</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44218</v>
+        <v>44544</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27929,20 +27929,20 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="K383" t="n">
+        <v>800</v>
+      </c>
+      <c r="L383" t="n">
         <v>900</v>
       </c>
-      <c r="L383" t="n">
-        <v>1000</v>
-      </c>
       <c r="M383" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44218</v>
+        <v>44544</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28001,20 +28001,20 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>1200</v>
+        <v>124</v>
       </c>
       <c r="K384" t="n">
+        <v>600</v>
+      </c>
+      <c r="L384" t="n">
         <v>700</v>
       </c>
-      <c r="L384" t="n">
-        <v>800</v>
-      </c>
       <c r="M384" t="n">
-        <v>742</v>
+        <v>650</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28023,11 +28023,11 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>742</v>
+        <v>650</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28068,25 +28068,25 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="K385" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L385" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M385" t="n">
-        <v>752</v>
+        <v>1000</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28095,11 +28095,11 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>752</v>
+        <v>1000</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28140,25 +28140,25 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J386" t="n">
+        <v>700</v>
+      </c>
+      <c r="K386" t="n">
         <v>900</v>
       </c>
-      <c r="K386" t="n">
-        <v>500</v>
-      </c>
       <c r="L386" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M386" t="n">
-        <v>544</v>
+        <v>957</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28167,11 +28167,11 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>544</v>
+        <v>957</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28212,25 +28212,25 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K387" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L387" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M387" t="n">
-        <v>533</v>
+        <v>743</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28239,11 +28239,11 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>533</v>
+        <v>743</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>340</v>
+        <v>1100</v>
       </c>
       <c r="K388" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L388" t="n">
         <v>800</v>
       </c>
       <c r="M388" t="n">
-        <v>800</v>
+        <v>755</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>800</v>
+        <v>755</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="K389" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L389" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M389" t="n">
-        <v>1000</v>
+        <v>557</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>1000</v>
+        <v>557</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="K390" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L390" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M390" t="n">
-        <v>800</v>
+        <v>957</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28455,11 +28455,11 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P390" t="n">
-        <v>800</v>
+        <v>957</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44251</v>
+        <v>44218</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28505,20 +28505,20 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="K391" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L391" t="n">
         <v>1000</v>
       </c>
       <c r="M391" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28572,25 +28572,25 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J392" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K392" t="n">
+        <v>700</v>
+      </c>
+      <c r="L392" t="n">
         <v>800</v>
       </c>
-      <c r="K392" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L392" t="n">
-        <v>1000</v>
-      </c>
       <c r="M392" t="n">
-        <v>1000</v>
+        <v>742</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28599,11 +28599,11 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>1000</v>
+        <v>742</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K393" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L393" t="n">
         <v>800</v>
       </c>
       <c r="M393" t="n">
-        <v>800</v>
+        <v>752</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>800</v>
+        <v>752</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K394" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L394" t="n">
         <v>600</v>
       </c>
       <c r="M394" t="n">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28743,11 +28743,11 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28793,20 +28793,20 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K395" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L395" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M395" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28860,16 +28860,16 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>2600</v>
+        <v>340</v>
       </c>
       <c r="K396" t="n">
         <v>800</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28932,25 +28932,25 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>1400</v>
+        <v>280</v>
       </c>
       <c r="K397" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L397" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M397" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44230</v>
+        <v>44251</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K398" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L398" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M398" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44230</v>
+        <v>44251</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29076,25 +29076,25 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>1400</v>
+        <v>260</v>
       </c>
       <c r="K399" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L399" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M399" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29153,20 +29153,20 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="K400" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L400" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M400" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29225,20 +29225,20 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K401" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L401" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M401" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="K402" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L402" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M402" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,7 +29373,7 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K403" t="n">
         <v>1000</v>
@@ -29391,7 +29391,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P403" t="n">
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="K404" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L404" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M404" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44230</v>
+        <v>44210</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29513,20 +29513,20 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K405" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L405" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M405" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29535,11 +29535,11 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29580,25 +29580,25 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K406" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L406" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M406" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29652,25 +29652,25 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K407" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L407" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M407" t="n">
-        <v>538</v>
+        <v>700</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>538</v>
+        <v>700</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29724,25 +29724,25 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K408" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L408" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M408" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44265</v>
+        <v>44230</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="K409" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L409" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M409" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44265</v>
+        <v>44230</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29873,20 +29873,20 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>340</v>
+        <v>2300</v>
       </c>
       <c r="K410" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L410" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M410" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44265</v>
+        <v>44230</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K411" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L411" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M411" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29967,11 +29967,11 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44265</v>
+        <v>44230</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K412" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L412" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M412" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30084,25 +30084,25 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>160</v>
+        <v>2100</v>
       </c>
       <c r="K413" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L413" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M413" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30111,11 +30111,11 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,7 +30165,7 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>340</v>
+        <v>2800</v>
       </c>
       <c r="K414" t="n">
         <v>700</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K415" t="n">
         <v>500</v>
       </c>
       <c r="L415" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M415" t="n">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30255,11 +30255,11 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K416" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L416" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M416" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44272</v>
+        <v>44265</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30372,25 +30372,25 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K417" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L417" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M417" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44272</v>
+        <v>44265</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30444,25 +30444,25 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K418" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L418" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M418" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44167</v>
+        <v>44265</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="K419" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L419" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M419" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30588,25 +30588,25 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K420" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L420" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M420" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44280</v>
+        <v>44272</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K421" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L421" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M421" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44280</v>
+        <v>44272</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K422" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L422" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M422" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44280</v>
+        <v>44272</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30804,25 +30804,25 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
         <v>160</v>
       </c>
       <c r="K423" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L423" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M423" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44280</v>
+        <v>44272</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K424" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L424" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M424" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44280</v>
+        <v>44272</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30953,20 +30953,20 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K425" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L425" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M425" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31020,25 +31020,25 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K426" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L426" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M426" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44196</v>
+        <v>44167</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="K427" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L427" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M427" t="n">
-        <v>700</v>
+        <v>944</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>700</v>
+        <v>944</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44196</v>
+        <v>44280</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31164,25 +31164,25 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K428" t="n">
         <v>800</v>
       </c>
       <c r="L428" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M428" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44196</v>
+        <v>44280</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31236,25 +31236,25 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J429" t="n">
         <v>340</v>
       </c>
       <c r="K429" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L429" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M429" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44239</v>
+        <v>44280</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K430" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L430" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M430" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44239</v>
+        <v>44280</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31380,25 +31380,25 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K431" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L431" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M431" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44239</v>
+        <v>44280</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31452,25 +31452,25 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J432" t="n">
         <v>340</v>
       </c>
       <c r="K432" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L432" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M432" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44239</v>
+        <v>44280</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K433" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L433" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M433" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31551,11 +31551,11 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31596,25 +31596,25 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K434" t="n">
         <v>800</v>
       </c>
       <c r="L434" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M434" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31668,25 +31668,25 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K435" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L435" t="n">
         <v>700</v>
       </c>
       <c r="M435" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>1800</v>
+        <v>520</v>
       </c>
       <c r="K436" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L436" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M436" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K437" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L437" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M437" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31839,11 +31839,11 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31884,25 +31884,25 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K438" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L438" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M438" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31956,25 +31956,25 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>430</v>
+        <v>700</v>
       </c>
       <c r="K439" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L439" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M439" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31983,11 +31983,11 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32028,25 +32028,25 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K440" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L440" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M440" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44208</v>
+        <v>44239</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="K441" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L441" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M441" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44208</v>
+        <v>44239</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32177,11 +32177,11 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K442" t="n">
         <v>800</v>
@@ -32199,7 +32199,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P442" t="n">
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32244,25 +32244,25 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K443" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L443" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M443" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32271,11 +32271,11 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>520</v>
+        <v>1800</v>
       </c>
       <c r="K444" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L444" t="n">
         <v>700</v>
       </c>
       <c r="M444" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32415,7 +32415,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P445" t="n">
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32460,25 +32460,25 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J446" t="n">
         <v>340</v>
       </c>
       <c r="K446" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L446" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M446" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J447" t="n">
         <v>430</v>
       </c>
       <c r="K447" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L447" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M447" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32559,11 +32559,11 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44250</v>
+        <v>44239</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J448" t="n">
         <v>520</v>
       </c>
       <c r="K448" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L448" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M448" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44250</v>
+        <v>44208</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K449" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L449" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M449" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44250</v>
+        <v>44208</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K450" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L450" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M450" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,11 +32775,11 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K451" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L451" t="n">
         <v>800</v>
       </c>
       <c r="M451" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K452" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L452" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M452" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K453" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L453" t="n">
         <v>500</v>
       </c>
       <c r="M453" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33036,25 +33036,25 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K454" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L454" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M454" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J455" t="n">
         <v>430</v>
       </c>
       <c r="K455" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L455" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M455" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K456" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L456" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M456" t="n">
-        <v>425</v>
+        <v>700</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>425</v>
+        <v>700</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44552</v>
+        <v>44250</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33252,25 +33252,25 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K457" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L457" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M457" t="n">
-        <v>949</v>
+        <v>500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>949</v>
+        <v>500</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44552</v>
+        <v>44250</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33324,25 +33324,25 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K458" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L458" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M458" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J459" t="n">
         <v>160</v>
       </c>
       <c r="K459" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L459" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M459" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33468,25 +33468,25 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K460" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L460" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M460" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33540,25 +33540,25 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K461" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L461" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M461" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J462" t="n">
         <v>250</v>
       </c>
       <c r="K462" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L462" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M462" t="n">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="K463" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L463" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M463" t="n">
-        <v>943</v>
+        <v>600</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>943</v>
+        <v>600</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44216</v>
+        <v>44560</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="K464" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="L464" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M464" t="n">
-        <v>778</v>
+        <v>425</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>778</v>
+        <v>425</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K465" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L465" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M465" t="n">
-        <v>800</v>
+        <v>949</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>800</v>
+        <v>949</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K466" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L466" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M466" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33984,13 +33984,13 @@
         <v>160</v>
       </c>
       <c r="K467" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L467" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M467" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -33999,11 +33999,11 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K468" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L468" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M468" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34071,11 +34071,11 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34128,13 +34128,13 @@
         <v>340</v>
       </c>
       <c r="K469" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L469" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M469" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34200,13 +34200,13 @@
         <v>250</v>
       </c>
       <c r="K470" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L470" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M470" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44294</v>
+        <v>44216</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34260,25 +34260,25 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K471" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L471" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M471" t="n">
-        <v>600</v>
+        <v>943</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>600</v>
+        <v>943</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44294</v>
+        <v>44216</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,25 +34332,25 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K472" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L472" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M472" t="n">
-        <v>400</v>
+        <v>778</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34359,11 +34359,11 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>400</v>
+        <v>778</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K473" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L473" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M473" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,25 +34476,25 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K474" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L474" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M474" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34548,25 +34548,25 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K475" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L475" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M475" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34575,11 +34575,11 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K476" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L476" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M476" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34647,11 +34647,11 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K477" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L477" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M477" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44558</v>
+        <v>44286</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34764,25 +34764,25 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
         <v>250</v>
       </c>
       <c r="K478" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L478" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M478" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34791,11 +34791,11 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44558</v>
+        <v>44294</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34851,10 +34851,10 @@
         <v>600</v>
       </c>
       <c r="L479" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M479" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44558</v>
+        <v>44294</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34923,10 +34923,10 @@
         <v>400</v>
       </c>
       <c r="L480" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M480" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44558</v>
+        <v>44294</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34980,25 +34980,25 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K481" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L481" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M481" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44558</v>
+        <v>44294</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K482" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L482" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M482" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44558</v>
+        <v>44294</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K483" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L483" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M483" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44554</v>
+        <v>44294</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35196,25 +35196,25 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K484" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="L484" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M484" t="n">
-        <v>775</v>
+        <v>400</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>775</v>
+        <v>400</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44554</v>
+        <v>44294</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,25 +35268,25 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K485" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L485" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M485" t="n">
-        <v>675</v>
+        <v>300</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>675</v>
+        <v>300</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J486" t="n">
         <v>250</v>
       </c>
       <c r="K486" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L486" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M486" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35412,25 +35412,25 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K487" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L487" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M487" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35484,25 +35484,25 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K488" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L488" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M488" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K489" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L489" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M489" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44278</v>
+        <v>44558</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35628,25 +35628,25 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K490" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L490" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M490" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44278</v>
+        <v>44558</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35700,25 +35700,25 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K491" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L491" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M491" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44278</v>
+        <v>44554</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K492" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L492" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M492" t="n">
-        <v>400</v>
+        <v>775</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>400</v>
+        <v>775</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44278</v>
+        <v>44554</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35844,25 +35844,25 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K493" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L493" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M493" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44278</v>
+        <v>44554</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35916,25 +35916,25 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K494" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L494" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M494" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44278</v>
+        <v>44554</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K495" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L495" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M495" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44194</v>
+        <v>44554</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36060,25 +36060,25 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J496" t="n">
         <v>520</v>
       </c>
       <c r="K496" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L496" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="M496" t="n">
-        <v>1050</v>
+        <v>625</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>1050</v>
+        <v>625</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44194</v>
+        <v>44554</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36132,25 +36132,25 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>610</v>
+        <v>340</v>
       </c>
       <c r="K497" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L497" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M497" t="n">
-        <v>850</v>
+        <v>475</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>850</v>
+        <v>475</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K498" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L498" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M498" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36276,25 +36276,25 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J499" t="n">
         <v>340</v>
       </c>
       <c r="K499" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L499" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="M499" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36348,25 +36348,25 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K500" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L500" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M500" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J501" t="n">
         <v>250</v>
       </c>
       <c r="K501" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L501" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M501" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44236</v>
+        <v>44278</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36492,25 +36492,25 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J502" t="n">
         <v>340</v>
       </c>
       <c r="K502" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L502" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M502" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36519,11 +36519,11 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44236</v>
+        <v>44278</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36564,25 +36564,25 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K503" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L503" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M503" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36591,11 +36591,11 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K504" t="n">
         <v>1000</v>
       </c>
       <c r="L504" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M504" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36663,11 +36663,11 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36708,25 +36708,25 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>430</v>
+        <v>610</v>
       </c>
       <c r="K505" t="n">
         <v>800</v>
       </c>
       <c r="L505" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M505" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36735,11 +36735,11 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36780,25 +36780,25 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K506" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L506" t="n">
         <v>700</v>
       </c>
       <c r="M506" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36807,11 +36807,11 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36857,7 +36857,7 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J507" t="n">
@@ -36867,10 +36867,10 @@
         <v>1000</v>
       </c>
       <c r="L507" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M507" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36879,11 +36879,11 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44532</v>
+        <v>44194</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="K508" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="L508" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="M508" t="n">
-        <v>1350</v>
+        <v>850</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>1350</v>
+        <v>850</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44532</v>
+        <v>44194</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K509" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="L509" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M509" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44532</v>
+        <v>44236</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37068,25 +37068,25 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K510" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="L510" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="M510" t="n">
-        <v>1350</v>
+        <v>800</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37095,11 +37095,11 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>1350</v>
+        <v>800</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44532</v>
+        <v>44236</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37140,25 +37140,25 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="K511" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="L511" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M511" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44578</v>
+        <v>44236</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37212,25 +37212,25 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K512" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L512" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M512" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37239,11 +37239,11 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44578</v>
+        <v>44236</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K513" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L513" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M513" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44578</v>
+        <v>44236</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>97</v>
+        <v>520</v>
       </c>
       <c r="K514" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L514" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M514" t="n">
-        <v>449</v>
+        <v>700</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>449</v>
+        <v>700</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44578</v>
+        <v>44236</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>52</v>
+        <v>340</v>
       </c>
       <c r="K515" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L515" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M515" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44266</v>
+        <v>44532</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K516" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="L516" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="M516" t="n">
-        <v>800</v>
+        <v>1350</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>800</v>
+        <v>1350</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44266</v>
+        <v>44532</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K517" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L517" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="M517" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44266</v>
+        <v>44532</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37644,25 +37644,25 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K518" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="L518" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="M518" t="n">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44266</v>
+        <v>44532</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37716,25 +37716,25 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K519" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L519" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M519" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K520" t="n">
         <v>800</v>
       </c>
       <c r="L520" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M520" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37872,13 +37872,13 @@
         <v>250</v>
       </c>
       <c r="K521" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L521" t="n">
         <v>700</v>
       </c>
       <c r="M521" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K522" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L522" t="n">
         <v>500</v>
       </c>
       <c r="M522" t="n">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K523" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L523" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M523" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K524" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L524" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="M524" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K525" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L525" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M525" t="n">
-        <v>1049</v>
+        <v>700</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>1049</v>
+        <v>700</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38220,25 +38220,25 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J526" t="n">
         <v>160</v>
       </c>
       <c r="K526" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L526" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="M526" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38292,25 +38292,25 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K527" t="n">
         <v>1000</v>
       </c>
       <c r="L527" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M527" t="n">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38364,7 +38364,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38436,7 +38436,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -38445,7 +38445,7 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K529" t="n">
         <v>700</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38517,7 +38517,7 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K530" t="n">
         <v>500</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38580,7 +38580,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38652,25 +38652,25 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K532" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L532" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M532" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38724,25 +38724,25 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="K533" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L533" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="M533" t="n">
-        <v>700</v>
+        <v>1049</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>700</v>
+        <v>1049</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K534" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L534" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="M534" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K535" t="n">
         <v>1000</v>
       </c>
       <c r="L535" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M535" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38949,7 +38949,7 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K536" t="n">
         <v>800</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39024,13 +39024,13 @@
         <v>340</v>
       </c>
       <c r="K537" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L537" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M537" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39093,16 +39093,16 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K538" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L538" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M538" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39156,25 +39156,25 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J539" t="n">
         <v>160</v>
       </c>
       <c r="K539" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L539" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M539" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J540" t="n">
         <v>250</v>
       </c>
       <c r="K540" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L540" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M540" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K541" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L541" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M541" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44277</v>
+        <v>44264</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K542" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L542" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M542" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44525</v>
+        <v>44264</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39449,36 +39449,36 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K543" t="n">
-        <v>19000</v>
+        <v>1000</v>
       </c>
       <c r="L543" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="M543" t="n">
-        <v>19500</v>
+        <v>1000</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>1219</v>
+        <v>1000</v>
       </c>
       <c r="Q543" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
@@ -39501,58 +39501,634 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E544" t="n">
+        <v>13</v>
+      </c>
+      <c r="F544" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J544" t="n">
+        <v>160</v>
+      </c>
+      <c r="K544" t="n">
+        <v>800</v>
+      </c>
+      <c r="L544" t="n">
+        <v>800</v>
+      </c>
+      <c r="M544" t="n">
+        <v>800</v>
+      </c>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P544" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>1</v>
+      </c>
+      <c r="R544" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>9</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D545" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E545" t="n">
+        <v>13</v>
+      </c>
+      <c r="F545" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J545" t="n">
+        <v>340</v>
+      </c>
+      <c r="K545" t="n">
+        <v>600</v>
+      </c>
+      <c r="L545" t="n">
+        <v>600</v>
+      </c>
+      <c r="M545" t="n">
+        <v>600</v>
+      </c>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P545" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>1</v>
+      </c>
+      <c r="R545" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>9</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D546" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E546" t="n">
+        <v>13</v>
+      </c>
+      <c r="F546" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J546" t="n">
+        <v>160</v>
+      </c>
+      <c r="K546" t="n">
+        <v>400</v>
+      </c>
+      <c r="L546" t="n">
+        <v>400</v>
+      </c>
+      <c r="M546" t="n">
+        <v>400</v>
+      </c>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O546" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P546" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>1</v>
+      </c>
+      <c r="R546" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>9</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D547" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E547" t="n">
+        <v>13</v>
+      </c>
+      <c r="F547" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J547" t="n">
+        <v>160</v>
+      </c>
+      <c r="K547" t="n">
+        <v>800</v>
+      </c>
+      <c r="L547" t="n">
+        <v>800</v>
+      </c>
+      <c r="M547" t="n">
+        <v>800</v>
+      </c>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O547" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P547" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>1</v>
+      </c>
+      <c r="R547" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>9</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D548" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E548" t="n">
+        <v>13</v>
+      </c>
+      <c r="F548" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J548" t="n">
+        <v>250</v>
+      </c>
+      <c r="K548" t="n">
+        <v>600</v>
+      </c>
+      <c r="L548" t="n">
+        <v>600</v>
+      </c>
+      <c r="M548" t="n">
+        <v>600</v>
+      </c>
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O548" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P548" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>1</v>
+      </c>
+      <c r="R548" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>9</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D549" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E549" t="n">
+        <v>13</v>
+      </c>
+      <c r="F549" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J549" t="n">
+        <v>160</v>
+      </c>
+      <c r="K549" t="n">
+        <v>400</v>
+      </c>
+      <c r="L549" t="n">
+        <v>400</v>
+      </c>
+      <c r="M549" t="n">
+        <v>400</v>
+      </c>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P549" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q549" t="n">
+        <v>1</v>
+      </c>
+      <c r="R549" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>9</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D550" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E550" t="n">
+        <v>13</v>
+      </c>
+      <c r="F550" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J550" t="n">
+        <v>160</v>
+      </c>
+      <c r="K550" t="n">
+        <v>800</v>
+      </c>
+      <c r="L550" t="n">
+        <v>800</v>
+      </c>
+      <c r="M550" t="n">
+        <v>800</v>
+      </c>
+      <c r="N550" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O550" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P550" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q550" t="n">
+        <v>1</v>
+      </c>
+      <c r="R550" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>9</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D551" s="2" t="n">
         <v>44525</v>
       </c>
-      <c r="E544" t="n">
-        <v>13</v>
-      </c>
-      <c r="F544" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H544" t="inlineStr">
+      <c r="E551" t="n">
+        <v>13</v>
+      </c>
+      <c r="F551" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I544" t="inlineStr">
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J551" t="n">
+        <v>34</v>
+      </c>
+      <c r="K551" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L551" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M551" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N551" t="inlineStr">
+        <is>
+          <t>$/caja 16 unidades</t>
+        </is>
+      </c>
+      <c r="O551" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="P551" t="n">
+        <v>1219</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>16</v>
+      </c>
+      <c r="R551" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>9</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D552" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E552" t="n">
+        <v>13</v>
+      </c>
+      <c r="F552" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J544" t="n">
+      <c r="J552" t="n">
         <v>16</v>
       </c>
-      <c r="K544" t="n">
+      <c r="K552" t="n">
         <v>17000</v>
       </c>
-      <c r="L544" t="n">
+      <c r="L552" t="n">
         <v>18000</v>
       </c>
-      <c r="M544" t="n">
+      <c r="M552" t="n">
         <v>17500</v>
       </c>
-      <c r="N544" t="inlineStr">
+      <c r="N552" t="inlineStr">
         <is>
           <t>$/caja 24 unidades</t>
         </is>
       </c>
-      <c r="O544" t="inlineStr">
+      <c r="O552" t="inlineStr">
         <is>
           <t>Provincia de Copiapó</t>
         </is>
       </c>
-      <c r="P544" t="n">
+      <c r="P552" t="n">
         <v>729</v>
       </c>
-      <c r="Q544" t="n">
+      <c r="Q552" t="n">
         <v>24</v>
       </c>
-      <c r="R544" t="inlineStr">
+      <c r="R552" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R552"/>
+  <dimension ref="A1:R556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38016,13 +38016,13 @@
         <v>160</v>
       </c>
       <c r="K523" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L523" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M523" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38076,7 +38076,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -38085,17 +38085,17 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K524" t="n">
         <v>600</v>
       </c>
       <c r="L524" t="n">
+        <v>700</v>
+      </c>
+      <c r="M524" t="n">
         <v>650</v>
       </c>
-      <c r="M524" t="n">
-        <v>625</v>
-      </c>
       <c r="N524" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K525" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L525" t="n">
         <v>500</v>
       </c>
       <c r="M525" t="n">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="K526" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L526" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="M526" t="n">
-        <v>825</v>
+        <v>300</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>825</v>
+        <v>300</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38292,25 +38292,25 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K527" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L527" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M527" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38364,25 +38364,25 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K528" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L528" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="M528" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K529" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L529" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M529" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38508,25 +38508,25 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K530" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L530" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M530" t="n">
-        <v>700</v>
+        <v>825</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>700</v>
+        <v>825</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38580,25 +38580,25 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K531" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L531" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M531" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K532" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L532" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M532" t="n">
-        <v>800</v>
+        <v>425</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>800</v>
+        <v>425</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38724,25 +38724,25 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K533" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L533" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M533" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38796,25 +38796,25 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K534" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L534" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M534" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44189</v>
+        <v>44272</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>1800</v>
+        <v>160</v>
       </c>
       <c r="K535" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L535" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M535" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44189</v>
+        <v>44272</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38940,25 +38940,25 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>2600</v>
+        <v>250</v>
       </c>
       <c r="K536" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L536" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M536" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44189</v>
+        <v>44272</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K537" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L537" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M537" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44189</v>
+        <v>44272</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>2500</v>
+        <v>160</v>
       </c>
       <c r="K538" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L538" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M538" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39156,25 +39156,25 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K539" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L539" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M539" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39228,25 +39228,25 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="K540" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L540" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M540" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44274</v>
+        <v>44189</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39300,7 +39300,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -39309,16 +39309,16 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="K541" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L541" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M541" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44274</v>
+        <v>44189</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39372,7 +39372,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>340</v>
+        <v>2500</v>
       </c>
       <c r="K542" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L542" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M542" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44274</v>
+        <v>44189</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39444,7 +39444,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K543" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L543" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M543" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44274</v>
+        <v>44189</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="K544" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L544" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M544" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39588,25 +39588,25 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K545" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L545" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M545" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39660,25 +39660,25 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K546" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L546" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M546" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K547" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L547" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M547" t="n">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39804,25 +39804,25 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K548" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L548" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M548" t="n">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39876,25 +39876,25 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K549" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L549" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M549" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K550" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L550" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M550" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40020,25 +40020,25 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K551" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L551" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M551" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40092,43 +40092,331 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
         <v>340</v>
       </c>
       <c r="K552" t="n">
+        <v>650</v>
+      </c>
+      <c r="L552" t="n">
+        <v>700</v>
+      </c>
+      <c r="M552" t="n">
+        <v>675</v>
+      </c>
+      <c r="N552" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O552" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P552" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q552" t="n">
+        <v>1</v>
+      </c>
+      <c r="R552" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>9</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D553" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E553" t="n">
+        <v>13</v>
+      </c>
+      <c r="F553" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J553" t="n">
+        <v>250</v>
+      </c>
+      <c r="K553" t="n">
         <v>450</v>
       </c>
-      <c r="L552" t="n">
+      <c r="L553" t="n">
         <v>500</v>
       </c>
-      <c r="M552" t="n">
+      <c r="M553" t="n">
         <v>475</v>
       </c>
-      <c r="N552" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O552" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P552" t="n">
+      <c r="N553" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O553" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P553" t="n">
         <v>475</v>
       </c>
-      <c r="Q552" t="n">
-        <v>1</v>
-      </c>
-      <c r="R552" t="inlineStr">
+      <c r="Q553" t="n">
+        <v>1</v>
+      </c>
+      <c r="R553" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>9</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D554" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E554" t="n">
+        <v>13</v>
+      </c>
+      <c r="F554" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J554" t="n">
+        <v>250</v>
+      </c>
+      <c r="K554" t="n">
+        <v>800</v>
+      </c>
+      <c r="L554" t="n">
+        <v>900</v>
+      </c>
+      <c r="M554" t="n">
+        <v>850</v>
+      </c>
+      <c r="N554" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O554" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P554" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q554" t="n">
+        <v>1</v>
+      </c>
+      <c r="R554" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>9</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D555" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E555" t="n">
+        <v>13</v>
+      </c>
+      <c r="F555" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J555" t="n">
+        <v>520</v>
+      </c>
+      <c r="K555" t="n">
+        <v>600</v>
+      </c>
+      <c r="L555" t="n">
+        <v>650</v>
+      </c>
+      <c r="M555" t="n">
+        <v>625</v>
+      </c>
+      <c r="N555" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O555" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P555" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q555" t="n">
+        <v>1</v>
+      </c>
+      <c r="R555" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>9</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D556" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E556" t="n">
+        <v>13</v>
+      </c>
+      <c r="F556" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J556" t="n">
+        <v>340</v>
+      </c>
+      <c r="K556" t="n">
+        <v>450</v>
+      </c>
+      <c r="L556" t="n">
+        <v>500</v>
+      </c>
+      <c r="M556" t="n">
+        <v>475</v>
+      </c>
+      <c r="N556" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O556" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P556" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q556" t="n">
+        <v>1</v>
+      </c>
+      <c r="R556" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R567"/>
+  <dimension ref="A1:R575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44266</v>
+        <v>44588</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K456" t="n">
         <v>800</v>
       </c>
       <c r="L456" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M456" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44266</v>
+        <v>44588</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33264,13 +33264,13 @@
         <v>250</v>
       </c>
       <c r="K457" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L457" t="n">
         <v>700</v>
       </c>
       <c r="M457" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44266</v>
+        <v>44588</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K458" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L458" t="n">
         <v>500</v>
       </c>
       <c r="M458" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44266</v>
+        <v>44588</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K459" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L459" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M459" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44266</v>
+        <v>44588</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33483,10 +33483,10 @@
         <v>800</v>
       </c>
       <c r="L460" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M460" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44266</v>
+        <v>44588</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K461" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L461" t="n">
         <v>700</v>
       </c>
       <c r="M461" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44266</v>
+        <v>44588</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33624,13 +33624,13 @@
         <v>160</v>
       </c>
       <c r="K462" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L462" t="n">
         <v>500</v>
       </c>
       <c r="M462" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44266</v>
+        <v>44588</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K463" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L463" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M463" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33756,16 +33756,16 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K464" t="n">
         <v>800</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44249</v>
+        <v>44266</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K465" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L465" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M465" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44249</v>
+        <v>44266</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K466" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L466" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M466" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44249</v>
+        <v>44266</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,7 +33981,7 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K467" t="n">
         <v>1000</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44249</v>
+        <v>44266</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K468" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L468" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M468" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44249</v>
+        <v>44266</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K469" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L469" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M469" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44249</v>
+        <v>44266</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K470" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L470" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M470" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44225</v>
+        <v>44266</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K471" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L471" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M471" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44225</v>
+        <v>44277</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>2500</v>
+        <v>160</v>
       </c>
       <c r="K472" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L472" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M472" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34359,11 +34359,11 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34404,25 +34404,25 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>1600</v>
+        <v>430</v>
       </c>
       <c r="K473" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L473" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M473" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,25 +34476,25 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K474" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L474" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M474" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44259</v>
+        <v>44249</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K475" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L475" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M475" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44259</v>
+        <v>44249</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34620,25 +34620,25 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K476" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L476" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M476" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44259</v>
+        <v>44249</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34692,25 +34692,25 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K477" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L477" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M477" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44259</v>
+        <v>44249</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J478" t="n">
         <v>340</v>
       </c>
       <c r="K478" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L478" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M478" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>430</v>
+        <v>700</v>
       </c>
       <c r="K479" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L479" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M479" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34863,11 +34863,11 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="K480" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L480" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M480" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34935,11 +34935,11 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44561</v>
+        <v>44225</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34980,25 +34980,25 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K481" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L481" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M481" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35007,11 +35007,11 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44561</v>
+        <v>44225</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35052,25 +35052,25 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K482" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L482" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M482" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35079,11 +35079,11 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P482" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K483" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L483" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M483" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35196,25 +35196,25 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K484" t="n">
         <v>700</v>
       </c>
       <c r="L484" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M484" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,25 +35268,25 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K485" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L485" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M485" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K486" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L486" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M486" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44250</v>
+        <v>44259</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35412,25 +35412,25 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K487" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L487" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M487" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44250</v>
+        <v>44259</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35484,25 +35484,25 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K488" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L488" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M488" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44250</v>
+        <v>44561</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K489" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L489" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M489" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44250</v>
+        <v>44561</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K490" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L490" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M490" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44250</v>
+        <v>44561</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35700,25 +35700,25 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K491" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L491" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M491" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44250</v>
+        <v>44561</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K492" t="n">
         <v>700</v>
       </c>
       <c r="L492" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M492" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44250</v>
+        <v>44561</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K493" t="n">
         <v>500</v>
       </c>
       <c r="L493" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M493" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44250</v>
+        <v>44561</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K494" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L494" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M494" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44285</v>
+        <v>44250</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,7 +35997,7 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K495" t="n">
         <v>800</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44285</v>
+        <v>44250</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K496" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L496" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M496" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44285</v>
+        <v>44250</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K497" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L497" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M497" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44285</v>
+        <v>44250</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K498" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L498" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M498" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44285</v>
+        <v>44250</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,7 +36285,7 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K499" t="n">
         <v>800</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44285</v>
+        <v>44250</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K500" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L500" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M500" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44285</v>
+        <v>44250</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36432,13 +36432,13 @@
         <v>160</v>
       </c>
       <c r="K501" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L501" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M501" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44285</v>
+        <v>44250</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K502" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L502" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M502" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44264</v>
+        <v>44285</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,7 +36573,7 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K503" t="n">
         <v>800</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44264</v>
+        <v>44285</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36648,13 +36648,13 @@
         <v>340</v>
       </c>
       <c r="K504" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L504" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M504" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44264</v>
+        <v>44285</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K505" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L505" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M505" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44264</v>
+        <v>44285</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K506" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L506" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M506" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44264</v>
+        <v>44285</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44264</v>
+        <v>44285</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K508" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L508" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M508" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44264</v>
+        <v>44285</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K509" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L509" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M509" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44264</v>
+        <v>44285</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K510" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L510" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M510" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44533</v>
+        <v>44264</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K511" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L511" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="M511" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44533</v>
+        <v>44264</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K512" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L512" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M512" t="n">
-        <v>1049</v>
+        <v>700</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1049</v>
+        <v>700</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44533</v>
+        <v>44264</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37284,25 +37284,25 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K513" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L513" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="M513" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44533</v>
+        <v>44264</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37356,25 +37356,25 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K514" t="n">
         <v>1000</v>
       </c>
       <c r="L514" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M514" t="n">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44167</v>
+        <v>44264</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="K515" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L515" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M515" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44176</v>
+        <v>44264</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K516" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="L516" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="M516" t="n">
-        <v>1150</v>
+        <v>700</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37527,11 +37527,11 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>1150</v>
+        <v>700</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44176</v>
+        <v>44264</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K517" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L517" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M517" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37599,11 +37599,11 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44176</v>
+        <v>44264</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37649,20 +37649,20 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K518" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L518" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M518" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37671,11 +37671,11 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37716,25 +37716,25 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K519" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L519" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M519" t="n">
-        <v>950</v>
+        <v>1250</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37743,11 +37743,11 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>950</v>
+        <v>1250</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44278</v>
+        <v>44533</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K520" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L520" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M520" t="n">
-        <v>800</v>
+        <v>1049</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>800</v>
+        <v>1049</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44278</v>
+        <v>44533</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K521" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L521" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="M521" t="n">
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44278</v>
+        <v>44533</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="K522" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L522" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="M522" t="n">
-        <v>400</v>
+        <v>1051</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>400</v>
+        <v>1051</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44278</v>
+        <v>44167</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="K523" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L523" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M523" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44278</v>
+        <v>44176</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38076,7 +38076,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K524" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L524" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M524" t="n">
-        <v>600</v>
+        <v>1150</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38103,11 +38103,11 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>600</v>
+        <v>1150</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44278</v>
+        <v>44176</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -38160,13 +38160,13 @@
         <v>160</v>
       </c>
       <c r="K525" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L525" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M525" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44260</v>
+        <v>44176</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38220,25 +38220,25 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K526" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L526" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M526" t="n">
-        <v>800</v>
+        <v>1150</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>800</v>
+        <v>1150</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44260</v>
+        <v>44176</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38292,25 +38292,25 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K527" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L527" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M527" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44260</v>
+        <v>44278</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J528" t="n">
         <v>160</v>
       </c>
       <c r="K528" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L528" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M528" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44260</v>
+        <v>44278</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K529" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L529" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M529" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44260</v>
+        <v>44278</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38508,25 +38508,25 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K530" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L530" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M530" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44260</v>
+        <v>44278</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K531" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L531" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M531" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44260</v>
+        <v>44278</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K532" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L532" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M532" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44260</v>
+        <v>44278</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K533" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L533" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M533" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44585</v>
+        <v>44260</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38796,7 +38796,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -38811,10 +38811,10 @@
         <v>800</v>
       </c>
       <c r="L534" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M534" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44585</v>
+        <v>44260</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38868,7 +38868,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K535" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L535" t="n">
         <v>700</v>
       </c>
       <c r="M535" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44585</v>
+        <v>44260</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38940,7 +38940,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -38949,16 +38949,16 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K536" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L536" t="n">
         <v>500</v>
       </c>
       <c r="M536" t="n">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44585</v>
+        <v>44260</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39012,25 +39012,25 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K537" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L537" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M537" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44560</v>
+        <v>44260</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39084,7 +39084,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -39093,16 +39093,16 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K538" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L538" t="n">
         <v>800</v>
       </c>
       <c r="M538" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44560</v>
+        <v>44260</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39156,7 +39156,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -39165,16 +39165,16 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K539" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L539" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M539" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44560</v>
+        <v>44260</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39228,7 +39228,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K540" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L540" t="n">
         <v>500</v>
       </c>
       <c r="M540" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44560</v>
+        <v>44260</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J541" t="n">
         <v>250</v>
       </c>
       <c r="K541" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L541" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M541" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K542" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L542" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M542" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K543" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L543" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M543" t="n">
-        <v>425</v>
+        <v>650</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>425</v>
+        <v>650</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39516,25 +39516,25 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K544" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L544" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M544" t="n">
-        <v>800</v>
+        <v>449</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>800</v>
+        <v>449</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39588,25 +39588,25 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="K545" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L545" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M545" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J546" t="n">
         <v>160</v>
       </c>
       <c r="K546" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L546" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M546" t="n">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39732,25 +39732,25 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K547" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L547" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M547" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39804,25 +39804,25 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K548" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L548" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M548" t="n">
-        <v>700</v>
+        <v>475</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>700</v>
+        <v>475</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K549" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L549" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M549" t="n">
-        <v>500</v>
+        <v>825</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>500</v>
+        <v>825</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44189</v>
+        <v>44560</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39948,7 +39948,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -39957,16 +39957,16 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>1800</v>
+        <v>430</v>
       </c>
       <c r="K550" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L550" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M550" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44189</v>
+        <v>44560</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40020,7 +40020,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -40029,16 +40029,16 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>2600</v>
+        <v>160</v>
       </c>
       <c r="K551" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L551" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M551" t="n">
-        <v>600</v>
+        <v>425</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>600</v>
+        <v>425</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44189</v>
+        <v>44272</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40101,16 +40101,16 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="K552" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L552" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M552" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44189</v>
+        <v>44272</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40164,7 +40164,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -40173,16 +40173,16 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>2500</v>
+        <v>340</v>
       </c>
       <c r="K553" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L553" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M553" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44189</v>
+        <v>44272</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40236,7 +40236,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -40245,16 +40245,16 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K554" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L554" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M554" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44189</v>
+        <v>44272</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K555" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L555" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M555" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44274</v>
+        <v>44272</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40380,25 +40380,25 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K556" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L556" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M556" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44274</v>
+        <v>44272</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40452,25 +40452,25 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K557" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L557" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M557" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44274</v>
+        <v>44189</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="K558" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L558" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M558" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44274</v>
+        <v>44189</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40596,25 +40596,25 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>250</v>
+        <v>2600</v>
       </c>
       <c r="K559" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L559" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M559" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44274</v>
+        <v>44189</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="K560" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L560" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M560" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44274</v>
+        <v>44189</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>160</v>
+        <v>2500</v>
       </c>
       <c r="K561" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L561" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M561" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44554</v>
+        <v>44189</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40812,25 +40812,25 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K562" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L562" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M562" t="n">
-        <v>775</v>
+        <v>600</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>775</v>
+        <v>600</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44554</v>
+        <v>44189</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40884,25 +40884,25 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="K563" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L563" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M563" t="n">
-        <v>675</v>
+        <v>400</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>675</v>
+        <v>400</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K564" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L564" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M564" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41028,25 +41028,25 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K565" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L565" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M565" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41100,25 +41100,25 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K566" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L566" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M566" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41157,58 +41157,634 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E567" t="n">
+        <v>13</v>
+      </c>
+      <c r="F567" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J567" t="n">
+        <v>250</v>
+      </c>
+      <c r="K567" t="n">
+        <v>800</v>
+      </c>
+      <c r="L567" t="n">
+        <v>800</v>
+      </c>
+      <c r="M567" t="n">
+        <v>800</v>
+      </c>
+      <c r="N567" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O567" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P567" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q567" t="n">
+        <v>1</v>
+      </c>
+      <c r="R567" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>9</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D568" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E568" t="n">
+        <v>13</v>
+      </c>
+      <c r="F568" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J568" t="n">
+        <v>340</v>
+      </c>
+      <c r="K568" t="n">
+        <v>700</v>
+      </c>
+      <c r="L568" t="n">
+        <v>700</v>
+      </c>
+      <c r="M568" t="n">
+        <v>700</v>
+      </c>
+      <c r="N568" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O568" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P568" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q568" t="n">
+        <v>1</v>
+      </c>
+      <c r="R568" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>9</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D569" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E569" t="n">
+        <v>13</v>
+      </c>
+      <c r="F569" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J569" t="n">
+        <v>160</v>
+      </c>
+      <c r="K569" t="n">
+        <v>500</v>
+      </c>
+      <c r="L569" t="n">
+        <v>500</v>
+      </c>
+      <c r="M569" t="n">
+        <v>500</v>
+      </c>
+      <c r="N569" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O569" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P569" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q569" t="n">
+        <v>1</v>
+      </c>
+      <c r="R569" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>9</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D570" s="2" t="n">
         <v>44554</v>
       </c>
-      <c r="E567" t="n">
-        <v>13</v>
-      </c>
-      <c r="F567" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H567" t="inlineStr">
+      <c r="E570" t="n">
+        <v>13</v>
+      </c>
+      <c r="F570" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J570" t="n">
+        <v>160</v>
+      </c>
+      <c r="K570" t="n">
+        <v>750</v>
+      </c>
+      <c r="L570" t="n">
+        <v>800</v>
+      </c>
+      <c r="M570" t="n">
+        <v>775</v>
+      </c>
+      <c r="N570" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P570" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q570" t="n">
+        <v>1</v>
+      </c>
+      <c r="R570" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>9</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D571" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E571" t="n">
+        <v>13</v>
+      </c>
+      <c r="F571" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J571" t="n">
+        <v>340</v>
+      </c>
+      <c r="K571" t="n">
+        <v>650</v>
+      </c>
+      <c r="L571" t="n">
+        <v>700</v>
+      </c>
+      <c r="M571" t="n">
+        <v>675</v>
+      </c>
+      <c r="N571" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O571" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P571" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q571" t="n">
+        <v>1</v>
+      </c>
+      <c r="R571" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>9</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D572" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E572" t="n">
+        <v>13</v>
+      </c>
+      <c r="F572" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J572" t="n">
+        <v>250</v>
+      </c>
+      <c r="K572" t="n">
+        <v>450</v>
+      </c>
+      <c r="L572" t="n">
+        <v>500</v>
+      </c>
+      <c r="M572" t="n">
+        <v>475</v>
+      </c>
+      <c r="N572" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O572" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P572" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q572" t="n">
+        <v>1</v>
+      </c>
+      <c r="R572" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>9</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D573" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E573" t="n">
+        <v>13</v>
+      </c>
+      <c r="F573" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I567" t="inlineStr">
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J573" t="n">
+        <v>250</v>
+      </c>
+      <c r="K573" t="n">
+        <v>800</v>
+      </c>
+      <c r="L573" t="n">
+        <v>900</v>
+      </c>
+      <c r="M573" t="n">
+        <v>850</v>
+      </c>
+      <c r="N573" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O573" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P573" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q573" t="n">
+        <v>1</v>
+      </c>
+      <c r="R573" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>9</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D574" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E574" t="n">
+        <v>13</v>
+      </c>
+      <c r="F574" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J574" t="n">
+        <v>520</v>
+      </c>
+      <c r="K574" t="n">
+        <v>600</v>
+      </c>
+      <c r="L574" t="n">
+        <v>650</v>
+      </c>
+      <c r="M574" t="n">
+        <v>625</v>
+      </c>
+      <c r="N574" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O574" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P574" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q574" t="n">
+        <v>1</v>
+      </c>
+      <c r="R574" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>9</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D575" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E575" t="n">
+        <v>13</v>
+      </c>
+      <c r="F575" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I575" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J567" t="n">
+      <c r="J575" t="n">
         <v>340</v>
       </c>
-      <c r="K567" t="n">
+      <c r="K575" t="n">
         <v>450</v>
       </c>
-      <c r="L567" t="n">
+      <c r="L575" t="n">
         <v>500</v>
       </c>
-      <c r="M567" t="n">
+      <c r="M575" t="n">
         <v>475</v>
       </c>
-      <c r="N567" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O567" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P567" t="n">
+      <c r="N575" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P575" t="n">
         <v>475</v>
       </c>
-      <c r="Q567" t="n">
-        <v>1</v>
-      </c>
-      <c r="R567" t="inlineStr">
+      <c r="Q575" t="n">
+        <v>1</v>
+      </c>
+      <c r="R575" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R586"/>
+  <dimension ref="A1:R589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41748,7 +41748,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="K575" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L575" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M575" t="n">
-        <v>949</v>
+        <v>700</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>949</v>
+        <v>700</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41820,7 +41820,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K576" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L576" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M576" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
@@ -41901,16 +41901,16 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K577" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L577" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M577" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41964,7 +41964,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
@@ -41973,16 +41973,16 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K578" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="L578" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M578" t="n">
-        <v>875</v>
+        <v>949</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>875</v>
+        <v>949</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42036,7 +42036,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
@@ -42045,16 +42045,16 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K579" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L579" t="n">
         <v>800</v>
       </c>
       <c r="M579" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42108,7 +42108,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K580" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L580" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M580" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42180,7 +42180,7 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K581" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="L581" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="M581" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42252,7 +42252,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -42261,16 +42261,16 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K582" t="n">
+        <v>750</v>
+      </c>
+      <c r="L582" t="n">
         <v>800</v>
       </c>
-      <c r="L582" t="n">
-        <v>900</v>
-      </c>
       <c r="M582" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42324,7 +42324,7 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -42333,16 +42333,16 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K583" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L583" t="n">
         <v>700</v>
       </c>
       <c r="M583" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42396,7 +42396,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
@@ -42468,7 +42468,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -42477,7 +42477,7 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K585" t="n">
         <v>800</v>
@@ -42540,7 +42540,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
@@ -42549,7 +42549,7 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="K586" t="n">
         <v>600</v>
@@ -42577,6 +42577,222 @@
         <v>1</v>
       </c>
       <c r="R586" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>9</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D587" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E587" t="n">
+        <v>13</v>
+      </c>
+      <c r="F587" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J587" t="n">
+        <v>160</v>
+      </c>
+      <c r="K587" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L587" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M587" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N587" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P587" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q587" t="n">
+        <v>1</v>
+      </c>
+      <c r="R587" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>9</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D588" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E588" t="n">
+        <v>13</v>
+      </c>
+      <c r="F588" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J588" t="n">
+        <v>260</v>
+      </c>
+      <c r="K588" t="n">
+        <v>800</v>
+      </c>
+      <c r="L588" t="n">
+        <v>900</v>
+      </c>
+      <c r="M588" t="n">
+        <v>850</v>
+      </c>
+      <c r="N588" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P588" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q588" t="n">
+        <v>1</v>
+      </c>
+      <c r="R588" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>9</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D589" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E589" t="n">
+        <v>13</v>
+      </c>
+      <c r="F589" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J589" t="n">
+        <v>124</v>
+      </c>
+      <c r="K589" t="n">
+        <v>600</v>
+      </c>
+      <c r="L589" t="n">
+        <v>700</v>
+      </c>
+      <c r="M589" t="n">
+        <v>650</v>
+      </c>
+      <c r="N589" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P589" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q589" t="n">
+        <v>1</v>
+      </c>
+      <c r="R589" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R634"/>
+  <dimension ref="A1:R638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44578</v>
+        <v>44609</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32397,7 +32397,7 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K445" t="n">
         <v>800</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44578</v>
+        <v>44609</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,7 +32469,7 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K446" t="n">
         <v>600</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44578</v>
+        <v>44609</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32541,7 +32541,7 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K447" t="n">
         <v>400</v>
@@ -32550,7 +32550,7 @@
         <v>500</v>
       </c>
       <c r="M447" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44578</v>
+        <v>44609</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,7 +32613,7 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K448" t="n">
         <v>300</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K449" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L449" t="n">
         <v>900</v>
       </c>
       <c r="M449" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="K450" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L450" t="n">
         <v>700</v>
       </c>
       <c r="M450" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,11 +32775,11 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>1600</v>
+        <v>97</v>
       </c>
       <c r="K451" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L451" t="n">
         <v>500</v>
       </c>
       <c r="M451" t="n">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32847,11 +32847,11 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>500</v>
+        <v>52</v>
       </c>
       <c r="K452" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L452" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M452" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44281</v>
+        <v>44225</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K453" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L453" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M453" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32991,11 +32991,11 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44281</v>
+        <v>44225</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="K454" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L454" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M454" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33063,11 +33063,11 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44281</v>
+        <v>44225</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K455" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L455" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M455" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33135,11 +33135,11 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44281</v>
+        <v>44225</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K456" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L456" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M456" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33207,11 +33207,11 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33252,25 +33252,25 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K457" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L457" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M457" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33324,25 +33324,25 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K458" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L458" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M458" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44252</v>
+        <v>44281</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K459" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L459" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M459" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44252</v>
+        <v>44281</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33468,16 +33468,16 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K460" t="n">
         <v>700</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44252</v>
+        <v>44281</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33540,16 +33540,16 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K461" t="n">
         <v>500</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44252</v>
+        <v>44281</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33612,25 +33612,25 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K462" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L462" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M462" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,7 +33837,7 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K465" t="n">
         <v>500</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44271</v>
+        <v>44252</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,7 +33981,7 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K467" t="n">
         <v>800</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44271</v>
+        <v>44252</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,7 +34053,7 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K468" t="n">
         <v>700</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44271</v>
+        <v>44252</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,7 +34125,7 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K469" t="n">
         <v>500</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44271</v>
+        <v>44252</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J470" t="n">
         <v>250</v>
       </c>
       <c r="K470" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L470" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M470" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34260,25 +34260,25 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K471" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L471" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M471" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34332,25 +34332,25 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K472" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L472" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M472" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34404,25 +34404,25 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K473" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L473" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M473" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44554</v>
+        <v>44271</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K474" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L474" t="n">
         <v>800</v>
       </c>
       <c r="M474" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44554</v>
+        <v>44271</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34560,13 +34560,13 @@
         <v>340</v>
       </c>
       <c r="K475" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L475" t="n">
         <v>700</v>
       </c>
       <c r="M475" t="n">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44554</v>
+        <v>44271</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K476" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L476" t="n">
         <v>500</v>
       </c>
       <c r="M476" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44554</v>
+        <v>44271</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K477" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L477" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M477" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34764,25 +34764,25 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K478" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L478" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M478" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34836,25 +34836,25 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
         <v>340</v>
       </c>
       <c r="K479" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L479" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M479" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44568</v>
+        <v>44554</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K480" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L480" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M480" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44568</v>
+        <v>44554</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34980,25 +34980,25 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J481" t="n">
         <v>250</v>
       </c>
       <c r="K481" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L481" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M481" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44568</v>
+        <v>44554</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35052,25 +35052,25 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>106</v>
+        <v>520</v>
       </c>
       <c r="K482" t="n">
         <v>600</v>
       </c>
       <c r="L482" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M482" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44568</v>
+        <v>44554</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K483" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L483" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M483" t="n">
-        <v>850</v>
+        <v>475</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>850</v>
+        <v>475</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35196,25 +35196,25 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K484" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L484" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M484" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35268,25 +35268,25 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K485" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L485" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M485" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>400</v>
+        <v>106</v>
       </c>
       <c r="K486" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L486" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M486" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35367,11 +35367,11 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35412,25 +35412,25 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="K487" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L487" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M487" t="n">
-        <v>676</v>
+        <v>850</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35439,11 +35439,11 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P487" t="n">
-        <v>676</v>
+        <v>850</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J488" t="n">
+        <v>340</v>
+      </c>
+      <c r="K488" t="n">
+        <v>600</v>
+      </c>
+      <c r="L488" t="n">
         <v>700</v>
       </c>
-      <c r="K488" t="n">
-        <v>900</v>
-      </c>
-      <c r="L488" t="n">
-        <v>1000</v>
-      </c>
       <c r="M488" t="n">
-        <v>957</v>
+        <v>650</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35511,11 +35511,11 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>957</v>
+        <v>650</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K489" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L489" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M489" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35628,25 +35628,25 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>3100</v>
+        <v>400</v>
       </c>
       <c r="K490" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="L490" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M490" t="n">
-        <v>679</v>
+        <v>1000</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>679</v>
+        <v>1000</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,7 +35709,7 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="K491" t="n">
         <v>650</v>
@@ -35718,7 +35718,7 @@
         <v>700</v>
       </c>
       <c r="M491" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35727,11 +35727,11 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K492" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L492" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M492" t="n">
-        <v>500</v>
+        <v>957</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>500</v>
+        <v>957</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44565</v>
+        <v>44231</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K493" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L493" t="n">
         <v>900</v>
       </c>
       <c r="M493" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44565</v>
+        <v>44231</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>430</v>
+        <v>3100</v>
       </c>
       <c r="K494" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L494" t="n">
         <v>700</v>
       </c>
       <c r="M494" t="n">
-        <v>650</v>
+        <v>679</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>650</v>
+        <v>679</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44565</v>
+        <v>44231</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>160</v>
+        <v>3500</v>
       </c>
       <c r="K495" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L495" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M495" t="n">
-        <v>450</v>
+        <v>671</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>450</v>
+        <v>671</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44573</v>
+        <v>44231</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36060,25 +36060,25 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>106</v>
+        <v>1800</v>
       </c>
       <c r="K496" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L496" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M496" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36087,11 +36087,11 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44573</v>
+        <v>44565</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36132,25 +36132,25 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K497" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L497" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M497" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44573</v>
+        <v>44565</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36204,25 +36204,25 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="K498" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L498" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M498" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44573</v>
+        <v>44565</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J499" t="n">
         <v>160</v>
       </c>
       <c r="K499" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L499" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M499" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36348,25 +36348,25 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K500" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L500" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M500" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36420,25 +36420,25 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K501" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L501" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M501" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K502" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L502" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M502" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36564,25 +36564,25 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K503" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L503" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M503" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36636,25 +36636,25 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K504" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L504" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M504" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K505" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L505" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M505" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36780,25 +36780,25 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K506" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L506" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M506" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36852,25 +36852,25 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K507" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L507" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M507" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44567</v>
+        <v>44280</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J508" t="n">
         <v>160</v>
       </c>
       <c r="K508" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L508" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M508" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44567</v>
+        <v>44280</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -36996,25 +36996,25 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K509" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L509" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M509" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44567</v>
+        <v>44280</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37068,25 +37068,25 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K510" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L510" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M510" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44567</v>
+        <v>44280</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37140,25 +37140,25 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K511" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L511" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M511" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37221,7 +37221,7 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K512" t="n">
         <v>700</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,7 +37293,7 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K513" t="n">
         <v>500</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,7 +37365,7 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K514" t="n">
         <v>300</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K515" t="n">
         <v>200</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K516" t="n">
+        <v>700</v>
+      </c>
+      <c r="L516" t="n">
         <v>800</v>
       </c>
-      <c r="L516" t="n">
-        <v>900</v>
-      </c>
       <c r="M516" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K517" t="n">
+        <v>500</v>
+      </c>
+      <c r="L517" t="n">
         <v>600</v>
       </c>
-      <c r="L517" t="n">
-        <v>700</v>
-      </c>
       <c r="M517" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K518" t="n">
+        <v>300</v>
+      </c>
+      <c r="L518" t="n">
         <v>400</v>
       </c>
-      <c r="L518" t="n">
-        <v>500</v>
-      </c>
       <c r="M518" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="K519" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L519" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M519" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37797,7 +37797,7 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K520" t="n">
         <v>800</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,7 +37869,7 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K521" t="n">
         <v>600</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,7 +37941,7 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K522" t="n">
         <v>400</v>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38013,7 +38013,7 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K523" t="n">
         <v>300</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38076,16 +38076,16 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K524" t="n">
         <v>800</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38148,16 +38148,16 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K525" t="n">
         <v>600</v>
@@ -38166,7 +38166,7 @@
         <v>700</v>
       </c>
       <c r="M525" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J526" t="n">
         <v>160</v>
       </c>
       <c r="K526" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L526" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M526" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K527" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L527" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M527" t="n">
-        <v>651</v>
+        <v>300</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>651</v>
+        <v>300</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
         <v>160</v>
       </c>
       <c r="K528" t="n">
+        <v>800</v>
+      </c>
+      <c r="L528" t="n">
         <v>900</v>
       </c>
-      <c r="L528" t="n">
-        <v>1000</v>
-      </c>
       <c r="M528" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K529" t="n">
+        <v>600</v>
+      </c>
+      <c r="L529" t="n">
         <v>700</v>
       </c>
-      <c r="L529" t="n">
-        <v>800</v>
-      </c>
       <c r="M529" t="n">
-        <v>750</v>
+        <v>649</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>750</v>
+        <v>649</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38508,25 +38508,25 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K530" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L530" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M530" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="K531" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L531" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M531" t="n">
-        <v>875</v>
+        <v>651</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>875</v>
+        <v>651</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38652,25 +38652,25 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K532" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L532" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M532" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38724,25 +38724,25 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
         <v>340</v>
       </c>
       <c r="K533" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L533" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M533" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38796,25 +38796,25 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K534" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L534" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M534" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38823,11 +38823,11 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>1600</v>
+        <v>250</v>
       </c>
       <c r="K535" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L535" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M535" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44530</v>
+        <v>44553</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38940,7 +38940,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -38949,16 +38949,16 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K536" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="L536" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M536" t="n">
-        <v>1450</v>
+        <v>775</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>1450</v>
+        <v>775</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44530</v>
+        <v>44553</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K537" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="L537" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="M537" t="n">
-        <v>1400</v>
+        <v>675</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>1400</v>
+        <v>675</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39084,25 +39084,25 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="K538" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L538" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M538" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39111,11 +39111,11 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39156,25 +39156,25 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K539" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L539" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M539" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44294</v>
+        <v>44530</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K540" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="L540" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="M540" t="n">
-        <v>300</v>
+        <v>1450</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>300</v>
+        <v>1450</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44294</v>
+        <v>44530</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K541" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="L541" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M541" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39372,7 +39372,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -39444,7 +39444,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -39453,7 +39453,7 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K543" t="n">
         <v>400</v>
@@ -39516,7 +39516,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44557</v>
+        <v>44294</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39588,7 +39588,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -39603,10 +39603,10 @@
         <v>800</v>
       </c>
       <c r="L545" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M545" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44557</v>
+        <v>44294</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39660,7 +39660,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K546" t="n">
         <v>600</v>
       </c>
       <c r="L546" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M546" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44557</v>
+        <v>44294</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39732,7 +39732,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K547" t="n">
         <v>400</v>
       </c>
       <c r="L547" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M547" t="n">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44557</v>
+        <v>44294</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="K548" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L548" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M548" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39876,25 +39876,25 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K549" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L549" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M549" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39948,25 +39948,25 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K550" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L550" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M550" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K551" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L551" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M551" t="n">
-        <v>800</v>
+        <v>449</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>800</v>
+        <v>449</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40092,25 +40092,25 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K552" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L552" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M552" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40164,25 +40164,25 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K553" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L553" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M553" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40236,25 +40236,25 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K554" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L554" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M554" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40308,7 +40308,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -40380,7 +40380,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -40389,7 +40389,7 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K556" t="n">
         <v>700</v>
@@ -40452,7 +40452,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -40524,7 +40524,7 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40596,25 +40596,25 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="K559" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L559" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M559" t="n">
-        <v>676</v>
+        <v>800</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40623,11 +40623,11 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>676</v>
+        <v>800</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40668,25 +40668,25 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>1500</v>
+        <v>430</v>
       </c>
       <c r="K560" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L560" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M560" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K561" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L561" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M561" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40767,11 +40767,11 @@
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="K562" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L562" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M562" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40884,7 +40884,7 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
@@ -40893,7 +40893,7 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>3800</v>
+        <v>1900</v>
       </c>
       <c r="K563" t="n">
         <v>650</v>
@@ -40956,25 +40956,25 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="K564" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L564" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M564" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="K565" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L565" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M565" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>2300</v>
+        <v>900</v>
       </c>
       <c r="K566" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L566" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M566" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>500</v>
+        <v>3800</v>
       </c>
       <c r="K567" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="L567" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M567" t="n">
-        <v>1000</v>
+        <v>676</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>1000</v>
+        <v>676</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K568" t="n">
         <v>600</v>
       </c>
-      <c r="K568" t="n">
-        <v>1000</v>
-      </c>
       <c r="L568" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M568" t="n">
-        <v>1000</v>
+        <v>656</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>1000</v>
+        <v>656</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41316,25 +41316,25 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>160</v>
+        <v>2100</v>
       </c>
       <c r="K569" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L569" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M569" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41388,25 +41388,25 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>340</v>
+        <v>2300</v>
       </c>
       <c r="K570" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L570" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M570" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41460,25 +41460,25 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K571" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L571" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M571" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K572" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L572" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M572" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41604,25 +41604,25 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K573" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L573" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M573" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41676,25 +41676,25 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K574" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L574" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M574" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K575" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L575" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M575" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41820,25 +41820,25 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J576" t="n">
         <v>160</v>
       </c>
       <c r="K576" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L576" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M576" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41892,25 +41892,25 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K577" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L577" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M577" t="n">
-        <v>335</v>
+        <v>600</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>335</v>
+        <v>600</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K578" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L578" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="M578" t="n">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42036,7 +42036,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
@@ -42045,16 +42045,16 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K579" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L579" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M579" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42108,7 +42108,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K580" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L580" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M580" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42180,7 +42180,7 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="K581" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L581" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M581" t="n">
-        <v>500</v>
+        <v>335</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>500</v>
+        <v>335</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42252,7 +42252,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -42261,16 +42261,16 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K582" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L582" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M582" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42324,7 +42324,7 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -42333,16 +42333,16 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K583" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L583" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M583" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42396,25 +42396,25 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K584" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L584" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M584" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K585" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L585" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M585" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42540,25 +42540,25 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K586" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L586" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M586" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42612,25 +42612,25 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K587" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L587" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M587" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K588" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L588" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M588" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K589" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L589" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="M589" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K590" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L590" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M590" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44236</v>
+        <v>44257</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42900,25 +42900,25 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K591" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L591" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M591" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K592" t="n">
         <v>700</v>
       </c>
       <c r="L592" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M592" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43044,25 +43044,25 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K593" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L593" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M593" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43071,11 +43071,11 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K594" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L594" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M594" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43188,25 +43188,25 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K595" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L595" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M595" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43260,25 +43260,25 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K596" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L596" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M596" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K597" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L597" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M597" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43404,25 +43404,25 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K598" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L598" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M598" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43476,25 +43476,25 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K599" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L599" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M599" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K600" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L600" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M600" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43575,11 +43575,11 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43620,25 +43620,25 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K601" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L601" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M601" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43692,25 +43692,25 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K602" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L602" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M602" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -43764,25 +43764,25 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="K603" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L603" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M603" t="n">
-        <v>933</v>
+        <v>500</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>933</v>
+        <v>500</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="K604" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L604" t="n">
         <v>800</v>
       </c>
       <c r="M604" t="n">
-        <v>740</v>
+        <v>800</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>740</v>
+        <v>800</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>1100</v>
+        <v>340</v>
       </c>
       <c r="K605" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L605" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M605" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q605" t="n">
         <v>1</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44167</v>
+        <v>44272</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>1800</v>
+        <v>160</v>
       </c>
       <c r="K606" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L606" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M606" t="n">
-        <v>944</v>
+        <v>500</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>944</v>
+        <v>500</v>
       </c>
       <c r="Q606" t="n">
         <v>1</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44277</v>
+        <v>44214</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="K607" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L607" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M607" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="Q607" t="n">
         <v>1</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44258</v>
+        <v>44214</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44124,25 +44124,25 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K608" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L608" t="n">
         <v>800</v>
       </c>
       <c r="M608" t="n">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44258</v>
+        <v>44214</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44196,25 +44196,25 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K609" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L609" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M609" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="K610" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L610" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M610" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J611" t="n">
         <v>160</v>
       </c>
       <c r="K611" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L611" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M611" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44421,7 +44421,7 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K612" t="n">
         <v>800</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K613" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L613" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M613" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q613" t="n">
         <v>1</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44556,25 +44556,25 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K614" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L614" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M614" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44628,25 +44628,25 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K615" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L615" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M615" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44700,7 +44700,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -44709,7 +44709,7 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K616" t="n">
         <v>800</v>
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -44844,7 +44844,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -44916,7 +44916,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K620" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L620" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M620" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45069,16 +45069,16 @@
         </is>
       </c>
       <c r="J621" t="n">
+        <v>340</v>
+      </c>
+      <c r="K621" t="n">
         <v>600</v>
       </c>
-      <c r="K621" t="n">
-        <v>500</v>
-      </c>
       <c r="L621" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M621" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45141,7 +45141,7 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K622" t="n">
         <v>400</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44552</v>
+        <v>44285</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45204,25 +45204,25 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K623" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L623" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M623" t="n">
-        <v>949</v>
+        <v>300</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>949</v>
+        <v>300</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,25 +45276,25 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K624" t="n">
         <v>700</v>
       </c>
       <c r="L624" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M624" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45348,25 +45348,25 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K625" t="n">
         <v>500</v>
       </c>
       <c r="L625" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M625" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>106</v>
+        <v>400</v>
       </c>
       <c r="K626" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="L626" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M626" t="n">
-        <v>875</v>
+        <v>400</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>875</v>
+        <v>400</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45492,25 +45492,25 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K627" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L627" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M627" t="n">
-        <v>775</v>
+        <v>949</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>775</v>
+        <v>949</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45564,25 +45564,25 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J628" t="n">
         <v>250</v>
       </c>
       <c r="K628" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L628" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M628" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J629" t="n">
         <v>160</v>
       </c>
       <c r="K629" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L629" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="M629" t="n">
-        <v>1250</v>
+        <v>550</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>1250</v>
+        <v>550</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45708,25 +45708,25 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K630" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L630" t="n">
         <v>900</v>
       </c>
       <c r="M630" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45780,25 +45780,25 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K631" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L631" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M631" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K632" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="L632" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="M632" t="n">
-        <v>1250</v>
+        <v>675</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>1250</v>
+        <v>675</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45924,25 +45924,25 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K633" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L633" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="M633" t="n">
-        <v>850</v>
+        <v>1250</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>850</v>
+        <v>1250</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -45996,43 +45996,331 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J634" t="n">
+        <v>250</v>
+      </c>
+      <c r="K634" t="n">
+        <v>800</v>
+      </c>
+      <c r="L634" t="n">
+        <v>900</v>
+      </c>
+      <c r="M634" t="n">
+        <v>850</v>
+      </c>
+      <c r="N634" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O634" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P634" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q634" t="n">
+        <v>1</v>
+      </c>
+      <c r="R634" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>9</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D635" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E635" t="n">
+        <v>13</v>
+      </c>
+      <c r="F635" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J635" t="n">
+        <v>106</v>
+      </c>
+      <c r="K635" t="n">
+        <v>600</v>
+      </c>
+      <c r="L635" t="n">
+        <v>700</v>
+      </c>
+      <c r="M635" t="n">
+        <v>650</v>
+      </c>
+      <c r="N635" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O635" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P635" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q635" t="n">
+        <v>1</v>
+      </c>
+      <c r="R635" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>9</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D636" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E636" t="n">
+        <v>13</v>
+      </c>
+      <c r="F636" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I634" t="inlineStr">
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J636" t="n">
+        <v>160</v>
+      </c>
+      <c r="K636" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L636" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M636" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N636" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O636" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P636" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q636" t="n">
+        <v>1</v>
+      </c>
+      <c r="R636" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>9</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D637" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E637" t="n">
+        <v>13</v>
+      </c>
+      <c r="F637" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J637" t="n">
+        <v>260</v>
+      </c>
+      <c r="K637" t="n">
+        <v>800</v>
+      </c>
+      <c r="L637" t="n">
+        <v>900</v>
+      </c>
+      <c r="M637" t="n">
+        <v>850</v>
+      </c>
+      <c r="N637" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O637" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P637" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q637" t="n">
+        <v>1</v>
+      </c>
+      <c r="R637" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>9</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D638" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E638" t="n">
+        <v>13</v>
+      </c>
+      <c r="F638" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J634" t="n">
+      <c r="J638" t="n">
         <v>124</v>
       </c>
-      <c r="K634" t="n">
+      <c r="K638" t="n">
         <v>600</v>
       </c>
-      <c r="L634" t="n">
+      <c r="L638" t="n">
         <v>700</v>
       </c>
-      <c r="M634" t="n">
+      <c r="M638" t="n">
         <v>650</v>
       </c>
-      <c r="N634" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O634" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P634" t="n">
+      <c r="N638" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O638" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P638" t="n">
         <v>650</v>
       </c>
-      <c r="Q634" t="n">
-        <v>1</v>
-      </c>
-      <c r="R634" t="inlineStr">
+      <c r="Q638" t="n">
+        <v>1</v>
+      </c>
+      <c r="R638" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R638"/>
+  <dimension ref="A1:R644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44167</v>
+        <v>44610</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44268,25 +44268,25 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="K610" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L610" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M610" t="n">
-        <v>944</v>
+        <v>750</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>944</v>
+        <v>750</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44277</v>
+        <v>44610</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44340,7 +44340,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -44349,16 +44349,16 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K611" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L611" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M611" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44258</v>
+        <v>44610</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K612" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L612" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M612" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q612" t="n">
         <v>1</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44258</v>
+        <v>44610</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44484,25 +44484,25 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K613" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L613" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M613" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="Q613" t="n">
         <v>1</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44258</v>
+        <v>44610</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K614" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L614" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M614" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44258</v>
+        <v>44610</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K615" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L615" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M615" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44285</v>
+        <v>44167</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44700,25 +44700,25 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="K616" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L616" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M616" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44285</v>
+        <v>44277</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K617" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L617" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M617" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K618" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L618" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M618" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K619" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L619" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M619" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K621" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L621" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M621" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45132,25 +45132,25 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J622" t="n">
         <v>160</v>
       </c>
       <c r="K622" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L622" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M622" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45204,25 +45204,25 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K623" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L623" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M623" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,25 +45276,25 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K624" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L624" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M624" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45348,25 +45348,25 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="K625" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L625" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M625" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K626" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L626" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M626" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44552</v>
+        <v>44285</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -45492,25 +45492,25 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K627" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L627" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M627" t="n">
-        <v>949</v>
+        <v>600</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>949</v>
+        <v>600</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44552</v>
+        <v>44285</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45564,25 +45564,25 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K628" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L628" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M628" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44552</v>
+        <v>44285</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45636,25 +45636,25 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K629" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L629" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M629" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>106</v>
+        <v>350</v>
       </c>
       <c r="K630" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L630" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M630" t="n">
-        <v>875</v>
+        <v>700</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>875</v>
+        <v>700</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45789,16 +45789,16 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K631" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L631" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M631" t="n">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K632" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L632" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M632" t="n">
-        <v>675</v>
+        <v>400</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>675</v>
+        <v>400</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K633" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L633" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M633" t="n">
-        <v>1250</v>
+        <v>949</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>1250</v>
+        <v>949</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -46008,13 +46008,13 @@
         <v>250</v>
       </c>
       <c r="K634" t="n">
+        <v>700</v>
+      </c>
+      <c r="L634" t="n">
         <v>800</v>
       </c>
-      <c r="L634" t="n">
-        <v>900</v>
-      </c>
       <c r="M634" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q634" t="n">
         <v>1</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46077,16 +46077,16 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K635" t="n">
+        <v>500</v>
+      </c>
+      <c r="L635" t="n">
         <v>600</v>
       </c>
-      <c r="L635" t="n">
-        <v>700</v>
-      </c>
       <c r="M635" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46149,16 +46149,16 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K636" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="L636" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="M636" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46221,16 +46221,16 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="K637" t="n">
+        <v>750</v>
+      </c>
+      <c r="L637" t="n">
         <v>800</v>
       </c>
-      <c r="L637" t="n">
-        <v>900</v>
-      </c>
       <c r="M637" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46293,34 +46293,466 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="K638" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L638" t="n">
         <v>700</v>
       </c>
       <c r="M638" t="n">
+        <v>675</v>
+      </c>
+      <c r="N638" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O638" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P638" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q638" t="n">
+        <v>1</v>
+      </c>
+      <c r="R638" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>9</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D639" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E639" t="n">
+        <v>13</v>
+      </c>
+      <c r="F639" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J639" t="n">
+        <v>160</v>
+      </c>
+      <c r="K639" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L639" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M639" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N639" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O639" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P639" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q639" t="n">
+        <v>1</v>
+      </c>
+      <c r="R639" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>9</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D640" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E640" t="n">
+        <v>13</v>
+      </c>
+      <c r="F640" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J640" t="n">
+        <v>250</v>
+      </c>
+      <c r="K640" t="n">
+        <v>800</v>
+      </c>
+      <c r="L640" t="n">
+        <v>900</v>
+      </c>
+      <c r="M640" t="n">
+        <v>850</v>
+      </c>
+      <c r="N640" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O640" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P640" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q640" t="n">
+        <v>1</v>
+      </c>
+      <c r="R640" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>9</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D641" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E641" t="n">
+        <v>13</v>
+      </c>
+      <c r="F641" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J641" t="n">
+        <v>106</v>
+      </c>
+      <c r="K641" t="n">
+        <v>600</v>
+      </c>
+      <c r="L641" t="n">
+        <v>700</v>
+      </c>
+      <c r="M641" t="n">
         <v>650</v>
       </c>
-      <c r="N638" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O638" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P638" t="n">
+      <c r="N641" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P641" t="n">
         <v>650</v>
       </c>
-      <c r="Q638" t="n">
-        <v>1</v>
-      </c>
-      <c r="R638" t="inlineStr">
+      <c r="Q641" t="n">
+        <v>1</v>
+      </c>
+      <c r="R641" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>9</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D642" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E642" t="n">
+        <v>13</v>
+      </c>
+      <c r="F642" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J642" t="n">
+        <v>160</v>
+      </c>
+      <c r="K642" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L642" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M642" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P642" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q642" t="n">
+        <v>1</v>
+      </c>
+      <c r="R642" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>9</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D643" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E643" t="n">
+        <v>13</v>
+      </c>
+      <c r="F643" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J643" t="n">
+        <v>260</v>
+      </c>
+      <c r="K643" t="n">
+        <v>800</v>
+      </c>
+      <c r="L643" t="n">
+        <v>900</v>
+      </c>
+      <c r="M643" t="n">
+        <v>850</v>
+      </c>
+      <c r="N643" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P643" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q643" t="n">
+        <v>1</v>
+      </c>
+      <c r="R643" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>9</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D644" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E644" t="n">
+        <v>13</v>
+      </c>
+      <c r="F644" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J644" t="n">
+        <v>124</v>
+      </c>
+      <c r="K644" t="n">
+        <v>600</v>
+      </c>
+      <c r="L644" t="n">
+        <v>700</v>
+      </c>
+      <c r="M644" t="n">
+        <v>650</v>
+      </c>
+      <c r="N644" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O644" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P644" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q644" t="n">
+        <v>1</v>
+      </c>
+      <c r="R644" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R684"/>
+  <dimension ref="A1:R687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44573</v>
+        <v>44627</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38364,7 +38364,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -38376,13 +38376,13 @@
         <v>106</v>
       </c>
       <c r="K528" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L528" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M528" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44573</v>
+        <v>44627</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38436,7 +38436,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K529" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L529" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M529" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44573</v>
+        <v>44627</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38520,13 +38520,13 @@
         <v>79</v>
       </c>
       <c r="K530" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L530" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M530" t="n">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38580,7 +38580,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -38589,7 +38589,7 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K531" t="n">
         <v>700</v>
@@ -38652,7 +38652,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K532" t="n">
+        <v>500</v>
+      </c>
+      <c r="L532" t="n">
         <v>600</v>
       </c>
-      <c r="L532" t="n">
-        <v>700</v>
-      </c>
       <c r="M532" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38724,7 +38724,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="K533" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L533" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M533" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38796,7 +38796,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -38808,13 +38808,13 @@
         <v>160</v>
       </c>
       <c r="K534" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L534" t="n">
         <v>800</v>
       </c>
       <c r="M534" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38868,7 +38868,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K535" t="n">
         <v>600</v>
       </c>
       <c r="L535" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M535" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38940,7 +38940,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -38949,16 +38949,16 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K536" t="n">
         <v>400</v>
       </c>
       <c r="L536" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M536" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39012,7 +39012,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -39084,7 +39084,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -39156,7 +39156,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -39165,7 +39165,7 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K539" t="n">
         <v>400</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44567</v>
+        <v>44280</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39228,7 +39228,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -39240,13 +39240,13 @@
         <v>160</v>
       </c>
       <c r="K540" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L540" t="n">
         <v>800</v>
       </c>
       <c r="M540" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44567</v>
+        <v>44280</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39300,7 +39300,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -39312,13 +39312,13 @@
         <v>340</v>
       </c>
       <c r="K541" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L541" t="n">
         <v>600</v>
       </c>
       <c r="M541" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44567</v>
+        <v>44280</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39372,7 +39372,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -39384,13 +39384,13 @@
         <v>250</v>
       </c>
       <c r="K542" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L542" t="n">
         <v>400</v>
       </c>
       <c r="M542" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K543" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L543" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M543" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39516,25 +39516,25 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K544" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L544" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M544" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39588,25 +39588,25 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K545" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L545" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M545" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39660,25 +39660,25 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K546" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L546" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M546" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K547" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L547" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M547" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39804,25 +39804,25 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K548" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L548" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M548" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39876,25 +39876,25 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K549" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L549" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M549" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39948,25 +39948,25 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J550" t="n">
         <v>106</v>
       </c>
       <c r="K550" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L550" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M550" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K551" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L551" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M551" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40092,25 +40092,25 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
         <v>250</v>
       </c>
       <c r="K552" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L552" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M552" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40164,25 +40164,25 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K553" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L553" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M553" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40236,25 +40236,25 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K554" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L554" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M554" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K555" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L555" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M555" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40380,7 +40380,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K556" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L556" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M556" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40452,7 +40452,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K557" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L557" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M557" t="n">
-        <v>649</v>
+        <v>450</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>649</v>
+        <v>450</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K558" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L558" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M558" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40596,25 +40596,25 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K559" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L559" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M559" t="n">
-        <v>651</v>
+        <v>850</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>651</v>
+        <v>850</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K560" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L560" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M560" t="n">
-        <v>950</v>
+        <v>649</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>950</v>
+        <v>649</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40740,7 +40740,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K561" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L561" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M561" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40812,7 +40812,7 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="K562" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L562" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M562" t="n">
-        <v>550</v>
+        <v>651</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>550</v>
+        <v>651</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40884,7 +40884,7 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K563" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="L563" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M563" t="n">
-        <v>875</v>
+        <v>950</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>875</v>
+        <v>950</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40956,7 +40956,7 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K564" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L564" t="n">
         <v>800</v>
       </c>
       <c r="M564" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41028,7 +41028,7 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K565" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L565" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M565" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K566" t="n">
+        <v>850</v>
+      </c>
+      <c r="L566" t="n">
         <v>900</v>
       </c>
-      <c r="L566" t="n">
-        <v>1000</v>
-      </c>
       <c r="M566" t="n">
-        <v>950</v>
+        <v>875</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>950</v>
+        <v>875</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>1600</v>
+        <v>520</v>
       </c>
       <c r="K567" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="L567" t="n">
         <v>800</v>
       </c>
       <c r="M567" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44530</v>
+        <v>44553</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41244,25 +41244,25 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K568" t="n">
-        <v>1400</v>
+        <v>650</v>
       </c>
       <c r="L568" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="M568" t="n">
-        <v>1450</v>
+        <v>675</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>1450</v>
+        <v>675</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44530</v>
+        <v>44208</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="K569" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="L569" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M569" t="n">
-        <v>1400</v>
+        <v>950</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>1400</v>
+        <v>950</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41388,7 +41388,7 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K570" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L570" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M570" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41415,11 +41415,11 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44294</v>
+        <v>44530</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K571" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="L571" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="M571" t="n">
-        <v>400</v>
+        <v>1450</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>400</v>
+        <v>1450</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44294</v>
+        <v>44530</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41532,25 +41532,25 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K572" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="L572" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="M572" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41604,25 +41604,25 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K573" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L573" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M573" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41676,25 +41676,25 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K574" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L574" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M574" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41748,25 +41748,25 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K575" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L575" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M575" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K576" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L576" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M576" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41892,25 +41892,25 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K577" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L577" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M577" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41964,25 +41964,25 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K578" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L578" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M578" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42036,25 +42036,25 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K579" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L579" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M579" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K580" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L580" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M580" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42180,25 +42180,25 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K581" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L581" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M581" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42252,25 +42252,25 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K582" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L582" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M582" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42324,25 +42324,25 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K583" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L583" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M583" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K584" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L584" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M584" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42468,25 +42468,25 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K585" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L585" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M585" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42540,25 +42540,25 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K586" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L586" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M586" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42612,25 +42612,25 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K587" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L587" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M587" t="n">
-        <v>449</v>
+        <v>300</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>449</v>
+        <v>300</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42684,7 +42684,7 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
@@ -42693,7 +42693,7 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K588" t="n">
         <v>800</v>
@@ -42756,7 +42756,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -42765,7 +42765,7 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K589" t="n">
         <v>600</v>
@@ -42828,7 +42828,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
@@ -42837,7 +42837,7 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K590" t="n">
         <v>400</v>
@@ -42846,7 +42846,7 @@
         <v>500</v>
       </c>
       <c r="M590" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42900,7 +42900,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -42909,16 +42909,16 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K591" t="n">
         <v>800</v>
       </c>
       <c r="L591" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M591" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42972,7 +42972,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -42984,13 +42984,13 @@
         <v>340</v>
       </c>
       <c r="K592" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L592" t="n">
         <v>700</v>
       </c>
       <c r="M592" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43044,7 +43044,7 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
@@ -43053,16 +43053,16 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K593" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L593" t="n">
         <v>500</v>
       </c>
       <c r="M593" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K594" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L594" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M594" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43188,25 +43188,25 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K595" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L595" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M595" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43260,25 +43260,25 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K596" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L596" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M596" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43332,25 +43332,25 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K597" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L597" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M597" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K598" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L598" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M598" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43476,7 +43476,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
@@ -43485,16 +43485,16 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>1900</v>
+        <v>430</v>
       </c>
       <c r="K599" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L599" t="n">
         <v>700</v>
       </c>
       <c r="M599" t="n">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43548,7 +43548,7 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
@@ -43557,7 +43557,7 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="K600" t="n">
         <v>500</v>
@@ -43575,7 +43575,7 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P600" t="n">
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K601" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L601" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M601" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43692,25 +43692,25 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="K602" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L602" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M602" t="n">
-        <v>800</v>
+        <v>676</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>800</v>
+        <v>676</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43764,25 +43764,25 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="K603" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L603" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M603" t="n">
-        <v>676</v>
+        <v>500</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>676</v>
+        <v>500</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>4500</v>
+        <v>700</v>
       </c>
       <c r="K604" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L604" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M604" t="n">
-        <v>656</v>
+        <v>900</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>656</v>
+        <v>900</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="K605" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L605" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M605" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q605" t="n">
         <v>1</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="K606" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L606" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M606" t="n">
-        <v>500</v>
+        <v>676</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44007,11 +44007,11 @@
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>500</v>
+        <v>676</v>
       </c>
       <c r="Q606" t="n">
         <v>1</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="K607" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L607" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M607" t="n">
-        <v>1000</v>
+        <v>656</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>1000</v>
+        <v>656</v>
       </c>
       <c r="Q607" t="n">
         <v>1</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="K608" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L608" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M608" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44196,25 +44196,25 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>160</v>
+        <v>2300</v>
       </c>
       <c r="K609" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L609" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M609" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44268,25 +44268,25 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K610" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L610" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M610" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44340,25 +44340,25 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K611" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L611" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M611" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44412,7 +44412,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -44484,7 +44484,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -44493,7 +44493,7 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K613" t="n">
         <v>600</v>
@@ -44556,7 +44556,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44628,25 +44628,25 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K615" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L615" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M615" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44700,25 +44700,25 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K616" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L616" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M616" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44772,25 +44772,25 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K617" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L617" t="n">
         <v>400</v>
       </c>
       <c r="M617" t="n">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44844,25 +44844,25 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
         <v>340</v>
       </c>
       <c r="K618" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L618" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M618" t="n">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44916,25 +44916,25 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K619" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L619" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M619" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44988,25 +44988,25 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K620" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L620" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M620" t="n">
-        <v>650</v>
+        <v>335</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>650</v>
+        <v>335</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K621" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L621" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="M621" t="n">
-        <v>500</v>
+        <v>1050</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>500</v>
+        <v>1050</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45132,25 +45132,25 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K622" t="n">
         <v>800</v>
       </c>
       <c r="L622" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M622" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45204,25 +45204,25 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K623" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L623" t="n">
         <v>700</v>
       </c>
       <c r="M623" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,25 +45276,25 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K624" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L624" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M624" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45348,7 +45348,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45429,7 +45429,7 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K626" t="n">
         <v>700</v>
@@ -45492,7 +45492,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -45501,7 +45501,7 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K627" t="n">
         <v>1000</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45564,25 +45564,25 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J628" t="n">
         <v>250</v>
       </c>
       <c r="K628" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L628" t="n">
         <v>800</v>
       </c>
       <c r="M628" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45645,16 +45645,16 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K629" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="L629" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="M629" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45713,7 +45713,7 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J630" t="n">
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K631" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L631" t="n">
         <v>800</v>
       </c>
       <c r="M631" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45807,11 +45807,11 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45852,7 +45852,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K632" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="L632" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="M632" t="n">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45924,12 +45924,12 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J633" t="n">
@@ -45951,7 +45951,7 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P633" t="n">
@@ -45996,7 +45996,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -46005,7 +46005,7 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K634" t="n">
         <v>800</v>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46077,7 +46077,7 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="K635" t="n">
         <v>700</v>
@@ -46140,7 +46140,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -46149,7 +46149,7 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K636" t="n">
         <v>1000</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46212,7 +46212,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -46221,7 +46221,7 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K637" t="n">
         <v>800</v>
@@ -46239,7 +46239,7 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P637" t="n">
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46284,7 +46284,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -46293,7 +46293,7 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K638" t="n">
         <v>700</v>
@@ -46311,7 +46311,7 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P638" t="n">
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46356,25 +46356,25 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K639" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L639" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M639" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46428,7 +46428,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -46437,7 +46437,7 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K640" t="n">
         <v>800</v>
@@ -46500,7 +46500,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -46572,7 +46572,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46653,16 +46653,16 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K643" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L643" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M643" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q643" t="n">
         <v>1</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46725,16 +46725,16 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>1500</v>
+        <v>340</v>
       </c>
       <c r="K644" t="n">
         <v>700</v>
       </c>
       <c r="L644" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M644" t="n">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K645" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L645" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M645" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q645" t="n">
         <v>1</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46860,7 +46860,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -46869,16 +46869,16 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="K646" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L646" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M646" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46932,7 +46932,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -46941,16 +46941,16 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>340</v>
+        <v>1500</v>
       </c>
       <c r="K647" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L647" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M647" t="n">
-        <v>550</v>
+        <v>740</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>550</v>
+        <v>740</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47004,7 +47004,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K648" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L648" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M648" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47076,7 +47076,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -47085,7 +47085,7 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K649" t="n">
         <v>700</v>
@@ -47148,7 +47148,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -47157,7 +47157,7 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K650" t="n">
         <v>500</v>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -47229,16 +47229,16 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K651" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L651" t="n">
         <v>400</v>
       </c>
       <c r="M651" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q651" t="n">
         <v>1</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K652" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L652" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M652" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q652" t="n">
         <v>1</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47376,13 +47376,13 @@
         <v>430</v>
       </c>
       <c r="K653" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L653" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M653" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q653" t="n">
         <v>1</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47445,16 +47445,16 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K654" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L654" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M654" t="n">
-        <v>675</v>
+        <v>350</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>675</v>
+        <v>350</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K655" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L655" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M655" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="Q655" t="n">
         <v>1</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>1800</v>
+        <v>430</v>
       </c>
       <c r="K656" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L656" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M656" t="n">
-        <v>944</v>
+        <v>775</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>944</v>
+        <v>775</v>
       </c>
       <c r="Q656" t="n">
         <v>1</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44277</v>
+        <v>44615</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J657" t="n">
         <v>160</v>
       </c>
       <c r="K657" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L657" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M657" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="Q657" t="n">
         <v>1</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47724,25 +47724,25 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K658" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L658" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M658" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q658" t="n">
         <v>1</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47796,25 +47796,25 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="K659" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L659" t="n">
         <v>1000</v>
       </c>
       <c r="M659" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="Q659" t="n">
         <v>1</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47873,11 +47873,11 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K660" t="n">
         <v>800</v>
@@ -47940,25 +47940,25 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K661" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L661" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M661" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48017,20 +48017,20 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J662" t="n">
         <v>160</v>
       </c>
       <c r="K662" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L662" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M662" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48084,25 +48084,25 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K663" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L663" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M663" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48156,25 +48156,25 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J664" t="n">
         <v>160</v>
       </c>
       <c r="K664" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L664" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M664" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K665" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L665" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M665" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48300,25 +48300,25 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K666" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L666" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M666" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K667" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L667" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M667" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K668" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L668" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M668" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48521,20 +48521,20 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K669" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L669" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M669" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q669" t="n">
         <v>1</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K670" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L670" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M670" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K671" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L671" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M671" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K672" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L672" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M672" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,16 +48813,16 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="K673" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L673" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M673" t="n">
-        <v>949</v>
+        <v>700</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>949</v>
+        <v>700</v>
       </c>
       <c r="Q673" t="n">
         <v>1</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,16 +48885,16 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K674" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L674" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M674" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q674" t="n">
         <v>1</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,16 +48957,16 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K675" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L675" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M675" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -49029,16 +49029,16 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K676" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="L676" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M676" t="n">
-        <v>875</v>
+        <v>949</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>875</v>
+        <v>949</v>
       </c>
       <c r="Q676" t="n">
         <v>1</v>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K677" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L677" t="n">
         <v>800</v>
       </c>
       <c r="M677" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -49173,16 +49173,16 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K678" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L678" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M678" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49236,7 +49236,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K679" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="L679" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="M679" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,16 +49317,16 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K680" t="n">
+        <v>750</v>
+      </c>
+      <c r="L680" t="n">
         <v>800</v>
       </c>
-      <c r="L680" t="n">
-        <v>900</v>
-      </c>
       <c r="M680" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49389,16 +49389,16 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K681" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L681" t="n">
         <v>700</v>
       </c>
       <c r="M681" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49452,7 +49452,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -49524,7 +49524,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -49533,7 +49533,7 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K683" t="n">
         <v>800</v>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49605,7 +49605,7 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="K684" t="n">
         <v>600</v>
@@ -49633,6 +49633,222 @@
         <v>1</v>
       </c>
       <c r="R684" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>9</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D685" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E685" t="n">
+        <v>13</v>
+      </c>
+      <c r="F685" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J685" t="n">
+        <v>160</v>
+      </c>
+      <c r="K685" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L685" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M685" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N685" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O685" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P685" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q685" t="n">
+        <v>1</v>
+      </c>
+      <c r="R685" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>9</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D686" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E686" t="n">
+        <v>13</v>
+      </c>
+      <c r="F686" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J686" t="n">
+        <v>260</v>
+      </c>
+      <c r="K686" t="n">
+        <v>800</v>
+      </c>
+      <c r="L686" t="n">
+        <v>900</v>
+      </c>
+      <c r="M686" t="n">
+        <v>850</v>
+      </c>
+      <c r="N686" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O686" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P686" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q686" t="n">
+        <v>1</v>
+      </c>
+      <c r="R686" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>9</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D687" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E687" t="n">
+        <v>13</v>
+      </c>
+      <c r="F687" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J687" t="n">
+        <v>124</v>
+      </c>
+      <c r="K687" t="n">
+        <v>600</v>
+      </c>
+      <c r="L687" t="n">
+        <v>700</v>
+      </c>
+      <c r="M687" t="n">
+        <v>650</v>
+      </c>
+      <c r="N687" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O687" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P687" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q687" t="n">
+        <v>1</v>
+      </c>
+      <c r="R687" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R687"/>
+  <dimension ref="A1:R693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49029,16 +49029,16 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K676" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="L676" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M676" t="n">
-        <v>949</v>
+        <v>1150</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>949</v>
+        <v>1150</v>
       </c>
       <c r="Q676" t="n">
         <v>1</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49104,13 +49104,13 @@
         <v>250</v>
       </c>
       <c r="K677" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L677" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M677" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49173,16 +49173,16 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K678" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L678" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M678" t="n">
-        <v>550</v>
+        <v>749</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>550</v>
+        <v>749</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K679" t="n">
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="L679" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M679" t="n">
-        <v>875</v>
+        <v>1150</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>875</v>
+        <v>1150</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49320,13 +49320,13 @@
         <v>340</v>
       </c>
       <c r="K680" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L680" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M680" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49392,13 +49392,13 @@
         <v>250</v>
       </c>
       <c r="K681" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L681" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M681" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49461,16 +49461,16 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K682" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L682" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M682" t="n">
-        <v>1250</v>
+        <v>949</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>1250</v>
+        <v>949</v>
       </c>
       <c r="Q682" t="n">
         <v>1</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49536,13 +49536,13 @@
         <v>250</v>
       </c>
       <c r="K683" t="n">
+        <v>700</v>
+      </c>
+      <c r="L683" t="n">
         <v>800</v>
       </c>
-      <c r="L683" t="n">
-        <v>900</v>
-      </c>
       <c r="M683" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q683" t="n">
         <v>1</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K684" t="n">
+        <v>500</v>
+      </c>
+      <c r="L684" t="n">
         <v>600</v>
       </c>
-      <c r="L684" t="n">
-        <v>700</v>
-      </c>
       <c r="M684" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q684" t="n">
         <v>1</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49677,16 +49677,16 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K685" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="L685" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="M685" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="Q685" t="n">
         <v>1</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="K686" t="n">
+        <v>750</v>
+      </c>
+      <c r="L686" t="n">
         <v>800</v>
       </c>
-      <c r="L686" t="n">
-        <v>900</v>
-      </c>
       <c r="M686" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q686" t="n">
         <v>1</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49821,34 +49821,466 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="K687" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L687" t="n">
         <v>700</v>
       </c>
       <c r="M687" t="n">
+        <v>675</v>
+      </c>
+      <c r="N687" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O687" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P687" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q687" t="n">
+        <v>1</v>
+      </c>
+      <c r="R687" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>9</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D688" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E688" t="n">
+        <v>13</v>
+      </c>
+      <c r="F688" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J688" t="n">
+        <v>160</v>
+      </c>
+      <c r="K688" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L688" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M688" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N688" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O688" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P688" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q688" t="n">
+        <v>1</v>
+      </c>
+      <c r="R688" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>9</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D689" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E689" t="n">
+        <v>13</v>
+      </c>
+      <c r="F689" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J689" t="n">
+        <v>250</v>
+      </c>
+      <c r="K689" t="n">
+        <v>800</v>
+      </c>
+      <c r="L689" t="n">
+        <v>900</v>
+      </c>
+      <c r="M689" t="n">
+        <v>850</v>
+      </c>
+      <c r="N689" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O689" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P689" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q689" t="n">
+        <v>1</v>
+      </c>
+      <c r="R689" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>9</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D690" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E690" t="n">
+        <v>13</v>
+      </c>
+      <c r="F690" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J690" t="n">
+        <v>106</v>
+      </c>
+      <c r="K690" t="n">
+        <v>600</v>
+      </c>
+      <c r="L690" t="n">
+        <v>700</v>
+      </c>
+      <c r="M690" t="n">
         <v>650</v>
       </c>
-      <c r="N687" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O687" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P687" t="n">
+      <c r="N690" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O690" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P690" t="n">
         <v>650</v>
       </c>
-      <c r="Q687" t="n">
-        <v>1</v>
-      </c>
-      <c r="R687" t="inlineStr">
+      <c r="Q690" t="n">
+        <v>1</v>
+      </c>
+      <c r="R690" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>9</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D691" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E691" t="n">
+        <v>13</v>
+      </c>
+      <c r="F691" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J691" t="n">
+        <v>160</v>
+      </c>
+      <c r="K691" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L691" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M691" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N691" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O691" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P691" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q691" t="n">
+        <v>1</v>
+      </c>
+      <c r="R691" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>9</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D692" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E692" t="n">
+        <v>13</v>
+      </c>
+      <c r="F692" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J692" t="n">
+        <v>260</v>
+      </c>
+      <c r="K692" t="n">
+        <v>800</v>
+      </c>
+      <c r="L692" t="n">
+        <v>900</v>
+      </c>
+      <c r="M692" t="n">
+        <v>850</v>
+      </c>
+      <c r="N692" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O692" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P692" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q692" t="n">
+        <v>1</v>
+      </c>
+      <c r="R692" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>9</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D693" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E693" t="n">
+        <v>13</v>
+      </c>
+      <c r="F693" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J693" t="n">
+        <v>124</v>
+      </c>
+      <c r="K693" t="n">
+        <v>600</v>
+      </c>
+      <c r="L693" t="n">
+        <v>700</v>
+      </c>
+      <c r="M693" t="n">
+        <v>650</v>
+      </c>
+      <c r="N693" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O693" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P693" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q693" t="n">
+        <v>1</v>
+      </c>
+      <c r="R693" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R709"/>
+  <dimension ref="A1:R715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42468,25 +42468,25 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
+        <v>250</v>
+      </c>
+      <c r="K585" t="n">
         <v>1000</v>
       </c>
-      <c r="K585" t="n">
-        <v>900</v>
-      </c>
       <c r="L585" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M585" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42540,25 +42540,25 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K586" t="n">
         <v>800</v>
       </c>
       <c r="L586" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M586" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44530</v>
+        <v>44637</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42612,25 +42612,25 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K587" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L587" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M587" t="n">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44530</v>
+        <v>44637</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42693,16 +42693,16 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K588" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="L588" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="M588" t="n">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44294</v>
+        <v>44637</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42756,25 +42756,25 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K589" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L589" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M589" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44294</v>
+        <v>44637</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42828,25 +42828,25 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K590" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L590" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M590" t="n">
-        <v>400</v>
+        <v>649</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>400</v>
+        <v>649</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42900,25 +42900,25 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="K591" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="L591" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M591" t="n">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42977,11 +42977,11 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K592" t="n">
         <v>800</v>
@@ -42999,7 +42999,7 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P592" t="n">
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44294</v>
+        <v>44530</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43044,7 +43044,7 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
@@ -43053,16 +43053,16 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K593" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="L593" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="M593" t="n">
-        <v>600</v>
+        <v>1450</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>600</v>
+        <v>1450</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44294</v>
+        <v>44530</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
         <v>250</v>
       </c>
       <c r="K594" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="L594" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="M594" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43188,25 +43188,25 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K595" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L595" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M595" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J596" t="n">
         <v>160</v>
       </c>
       <c r="K596" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L596" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M596" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K597" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L597" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M597" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43404,25 +43404,25 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K598" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L598" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M598" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43476,25 +43476,25 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K599" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L599" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M599" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J600" t="n">
         <v>250</v>
       </c>
       <c r="K600" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L600" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M600" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K601" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L601" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M601" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43692,25 +43692,25 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K602" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L602" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M602" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43764,25 +43764,25 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K603" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L603" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M603" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K604" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L604" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M604" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K605" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L605" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M605" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="Q605" t="n">
         <v>1</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43980,25 +43980,25 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K606" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L606" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M606" t="n">
-        <v>449</v>
+        <v>850</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>449</v>
+        <v>850</v>
       </c>
       <c r="Q606" t="n">
         <v>1</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="K607" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L607" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M607" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q607" t="n">
         <v>1</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J608" t="n">
         <v>340</v>
       </c>
       <c r="K608" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L608" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M608" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K609" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L609" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M609" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K610" t="n">
         <v>800</v>
       </c>
       <c r="L610" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M610" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44349,16 +44349,16 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K611" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L611" t="n">
         <v>700</v>
       </c>
       <c r="M611" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K612" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L612" t="n">
         <v>500</v>
       </c>
       <c r="M612" t="n">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="Q612" t="n">
         <v>1</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44484,25 +44484,25 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K613" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L613" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M613" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="Q613" t="n">
         <v>1</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K614" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L614" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M614" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K615" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L615" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M615" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44700,25 +44700,25 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J616" t="n">
         <v>250</v>
       </c>
       <c r="K616" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L616" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M616" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44772,25 +44772,25 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K617" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L617" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M617" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="K618" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L618" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M618" t="n">
-        <v>676</v>
+        <v>500</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>676</v>
+        <v>500</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="K619" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L619" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M619" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K620" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L620" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M620" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>900</v>
+        <v>430</v>
       </c>
       <c r="K621" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L621" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M621" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>3800</v>
+        <v>250</v>
       </c>
       <c r="K622" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L622" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M622" t="n">
-        <v>676</v>
+        <v>500</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>676</v>
+        <v>500</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>4500</v>
+        <v>160</v>
       </c>
       <c r="K623" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L623" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M623" t="n">
-        <v>656</v>
+        <v>1000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>656</v>
+        <v>1000</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45276,25 +45276,25 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K624" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L624" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M624" t="n">
-        <v>500</v>
+        <v>676</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>500</v>
+        <v>676</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45348,7 +45348,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -45357,7 +45357,7 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="K625" t="n">
         <v>500</v>
@@ -45375,7 +45375,7 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P625" t="n">
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K626" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L626" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M626" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45497,20 +45497,20 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K627" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L627" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M627" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45564,25 +45564,25 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>160</v>
+        <v>3800</v>
       </c>
       <c r="K628" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L628" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M628" t="n">
-        <v>800</v>
+        <v>676</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>800</v>
+        <v>676</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45636,7 +45636,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -45645,16 +45645,16 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>340</v>
+        <v>4500</v>
       </c>
       <c r="K629" t="n">
         <v>600</v>
       </c>
       <c r="L629" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M629" t="n">
-        <v>600</v>
+        <v>656</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>600</v>
+        <v>656</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45708,7 +45708,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>160</v>
+        <v>2100</v>
       </c>
       <c r="K630" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L630" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M630" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45735,11 +45735,11 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>160</v>
+        <v>2300</v>
       </c>
       <c r="K631" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L631" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M631" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K632" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L632" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M632" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K633" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L633" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M633" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K634" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L634" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M634" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q634" t="n">
         <v>1</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K635" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L635" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M635" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K636" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L636" t="n">
         <v>400</v>
       </c>
       <c r="M636" t="n">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46221,16 +46221,16 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K637" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L637" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="M637" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46293,16 +46293,16 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K638" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L638" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M638" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K639" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L639" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M639" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46428,25 +46428,25 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K640" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L640" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M640" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q640" t="n">
         <v>1</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K641" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L641" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M641" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q641" t="n">
         <v>1</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46577,20 +46577,20 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K642" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L642" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M642" t="n">
-        <v>700</v>
+        <v>335</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>700</v>
+        <v>335</v>
       </c>
       <c r="Q642" t="n">
         <v>1</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46644,25 +46644,25 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K643" t="n">
         <v>1000</v>
       </c>
       <c r="L643" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M643" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="Q643" t="n">
         <v>1</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K644" t="n">
         <v>800</v>
       </c>
       <c r="L644" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M644" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K645" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L645" t="n">
         <v>700</v>
       </c>
       <c r="M645" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q645" t="n">
         <v>1</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K646" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L646" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M646" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J647" t="n">
         <v>250</v>
       </c>
       <c r="K647" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L647" t="n">
         <v>800</v>
       </c>
       <c r="M647" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47004,7 +47004,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -47016,13 +47016,13 @@
         <v>340</v>
       </c>
       <c r="K648" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="L648" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="M648" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47076,16 +47076,16 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K649" t="n">
         <v>1000</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44236</v>
+        <v>44257</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47148,7 +47148,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -47157,7 +47157,7 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K650" t="n">
         <v>800</v>
@@ -47175,7 +47175,7 @@
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P650" t="n">
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44236</v>
+        <v>44257</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -47247,7 +47247,7 @@
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P651" t="n">
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44236</v>
+        <v>44257</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47292,7 +47292,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -47319,7 +47319,7 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P652" t="n">
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47364,25 +47364,25 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K653" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L653" t="n">
         <v>800</v>
       </c>
       <c r="M653" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="Q653" t="n">
         <v>1</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47445,16 +47445,16 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K654" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="L654" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="M654" t="n">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47513,11 +47513,11 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K655" t="n">
         <v>1000</v>
@@ -47535,7 +47535,7 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P655" t="n">
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47589,7 +47589,7 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K656" t="n">
         <v>800</v>
@@ -47607,7 +47607,7 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P656" t="n">
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47661,7 +47661,7 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K657" t="n">
         <v>700</v>
@@ -47679,7 +47679,7 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P657" t="n">
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47729,20 +47729,20 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K658" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L658" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M658" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q658" t="n">
         <v>1</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47805,7 +47805,7 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K659" t="n">
         <v>800</v>
@@ -47823,7 +47823,7 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P659" t="n">
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47877,7 +47877,7 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K660" t="n">
         <v>700</v>
@@ -47895,7 +47895,7 @@
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P660" t="n">
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K661" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L661" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M661" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48012,7 +48012,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -48021,16 +48021,16 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="K662" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L662" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M662" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -48093,16 +48093,16 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>1500</v>
+        <v>340</v>
       </c>
       <c r="K663" t="n">
         <v>700</v>
       </c>
       <c r="L663" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M663" t="n">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,16 +48165,16 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K664" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L664" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M664" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44610</v>
+        <v>44272</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48228,7 +48228,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -48240,13 +48240,13 @@
         <v>250</v>
       </c>
       <c r="K665" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L665" t="n">
         <v>800</v>
       </c>
       <c r="M665" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44610</v>
+        <v>44272</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48312,13 +48312,13 @@
         <v>340</v>
       </c>
       <c r="K666" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L666" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M666" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44610</v>
+        <v>44272</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48372,7 +48372,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -48384,13 +48384,13 @@
         <v>160</v>
       </c>
       <c r="K667" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L667" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M667" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48453,16 +48453,16 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="K668" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L668" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M668" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>430</v>
+        <v>1500</v>
       </c>
       <c r="K669" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L669" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M669" t="n">
-        <v>550</v>
+        <v>740</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>550</v>
+        <v>740</v>
       </c>
       <c r="Q669" t="n">
         <v>1</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="K670" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L670" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M670" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48672,13 +48672,13 @@
         <v>250</v>
       </c>
       <c r="K671" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L671" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M671" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K672" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L672" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M672" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48816,13 +48816,13 @@
         <v>160</v>
       </c>
       <c r="K673" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L673" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M673" t="n">
-        <v>675</v>
+        <v>400</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>675</v>
+        <v>400</v>
       </c>
       <c r="Q673" t="n">
         <v>1</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K674" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L674" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M674" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q674" t="n">
         <v>1</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44167</v>
+        <v>44610</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>1800</v>
+        <v>430</v>
       </c>
       <c r="K675" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L675" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M675" t="n">
-        <v>944</v>
+        <v>550</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>944</v>
+        <v>550</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44277</v>
+        <v>44610</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K676" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L676" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M676" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q676" t="n">
         <v>1</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49104,13 +49104,13 @@
         <v>250</v>
       </c>
       <c r="K677" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L677" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M677" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49164,25 +49164,25 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K678" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="L678" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M678" t="n">
-        <v>1000</v>
+        <v>775</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>1000</v>
+        <v>775</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K679" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L679" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M679" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K680" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L680" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M680" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44285</v>
+        <v>44167</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49380,25 +49380,25 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="K681" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L681" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M681" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44285</v>
+        <v>44277</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49452,7 +49452,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -49461,16 +49461,16 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K682" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L682" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M682" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q682" t="n">
         <v>1</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K683" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L683" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M683" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q683" t="n">
         <v>1</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K684" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L684" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M684" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="Q684" t="n">
         <v>1</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49745,20 +49745,20 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K686" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L686" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M686" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q686" t="n">
         <v>1</v>
@@ -49812,25 +49812,25 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J687" t="n">
         <v>160</v>
       </c>
       <c r="K687" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L687" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M687" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q687" t="n">
         <v>1</v>
@@ -49884,25 +49884,25 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K688" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L688" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M688" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q688" t="n">
         <v>1</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,25 +49956,25 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K689" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L689" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M689" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q689" t="n">
         <v>1</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50028,25 +50028,25 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="K690" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L690" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M690" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q690" t="n">
         <v>1</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50105,20 +50105,20 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K691" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L691" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M691" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q691" t="n">
         <v>1</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44628</v>
+        <v>44285</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50172,25 +50172,25 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K692" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="L692" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M692" t="n">
-        <v>1150</v>
+        <v>600</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50199,11 +50199,11 @@
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>1150</v>
+        <v>600</v>
       </c>
       <c r="Q692" t="n">
         <v>1</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44628</v>
+        <v>44285</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50244,25 +50244,25 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K693" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L693" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M693" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q693" t="n">
         <v>1</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44628</v>
+        <v>44285</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50316,25 +50316,25 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K694" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L694" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M694" t="n">
-        <v>749</v>
+        <v>300</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>749</v>
+        <v>300</v>
       </c>
       <c r="Q694" t="n">
         <v>1</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44628</v>
+        <v>44595</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K695" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="L695" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="M695" t="n">
-        <v>1150</v>
+        <v>700</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>1150</v>
+        <v>700</v>
       </c>
       <c r="Q695" t="n">
         <v>1</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44628</v>
+        <v>44595</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50469,16 +50469,16 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K696" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L696" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M696" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="Q696" t="n">
         <v>1</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44628</v>
+        <v>44595</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50541,16 +50541,16 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K697" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L697" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M697" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q697" t="n">
         <v>1</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50613,16 +50613,16 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K698" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="L698" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M698" t="n">
-        <v>949</v>
+        <v>1150</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>949</v>
+        <v>1150</v>
       </c>
       <c r="Q698" t="n">
         <v>1</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50688,13 +50688,13 @@
         <v>250</v>
       </c>
       <c r="K699" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L699" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M699" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q699" t="n">
         <v>1</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K700" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L700" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M700" t="n">
-        <v>550</v>
+        <v>749</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>550</v>
+        <v>749</v>
       </c>
       <c r="Q700" t="n">
         <v>1</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K701" t="n">
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="L701" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M701" t="n">
-        <v>875</v>
+        <v>1150</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>875</v>
+        <v>1150</v>
       </c>
       <c r="Q701" t="n">
         <v>1</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50904,13 +50904,13 @@
         <v>340</v>
       </c>
       <c r="K702" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L702" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M702" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q702" t="n">
         <v>1</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50976,13 +50976,13 @@
         <v>250</v>
       </c>
       <c r="K703" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L703" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M703" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q703" t="n">
         <v>1</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51045,16 +51045,16 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K704" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L704" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M704" t="n">
-        <v>1250</v>
+        <v>949</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>1250</v>
+        <v>949</v>
       </c>
       <c r="Q704" t="n">
         <v>1</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51120,13 +51120,13 @@
         <v>250</v>
       </c>
       <c r="K705" t="n">
+        <v>700</v>
+      </c>
+      <c r="L705" t="n">
         <v>800</v>
       </c>
-      <c r="L705" t="n">
-        <v>900</v>
-      </c>
       <c r="M705" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q705" t="n">
         <v>1</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51189,16 +51189,16 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K706" t="n">
+        <v>500</v>
+      </c>
+      <c r="L706" t="n">
         <v>600</v>
       </c>
-      <c r="L706" t="n">
-        <v>700</v>
-      </c>
       <c r="M706" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q706" t="n">
         <v>1</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K707" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="L707" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="M707" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="Q707" t="n">
         <v>1</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51333,16 +51333,16 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="K708" t="n">
+        <v>750</v>
+      </c>
+      <c r="L708" t="n">
         <v>800</v>
       </c>
-      <c r="L708" t="n">
-        <v>900</v>
-      </c>
       <c r="M708" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q708" t="n">
         <v>1</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51405,34 +51405,466 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="K709" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L709" t="n">
         <v>700</v>
       </c>
       <c r="M709" t="n">
+        <v>675</v>
+      </c>
+      <c r="N709" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O709" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P709" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q709" t="n">
+        <v>1</v>
+      </c>
+      <c r="R709" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>9</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D710" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E710" t="n">
+        <v>13</v>
+      </c>
+      <c r="F710" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J710" t="n">
+        <v>160</v>
+      </c>
+      <c r="K710" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L710" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M710" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N710" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O710" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P710" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q710" t="n">
+        <v>1</v>
+      </c>
+      <c r="R710" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>9</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D711" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E711" t="n">
+        <v>13</v>
+      </c>
+      <c r="F711" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J711" t="n">
+        <v>250</v>
+      </c>
+      <c r="K711" t="n">
+        <v>800</v>
+      </c>
+      <c r="L711" t="n">
+        <v>900</v>
+      </c>
+      <c r="M711" t="n">
+        <v>850</v>
+      </c>
+      <c r="N711" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O711" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P711" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q711" t="n">
+        <v>1</v>
+      </c>
+      <c r="R711" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>9</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D712" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E712" t="n">
+        <v>13</v>
+      </c>
+      <c r="F712" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J712" t="n">
+        <v>106</v>
+      </c>
+      <c r="K712" t="n">
+        <v>600</v>
+      </c>
+      <c r="L712" t="n">
+        <v>700</v>
+      </c>
+      <c r="M712" t="n">
         <v>650</v>
       </c>
-      <c r="N709" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O709" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P709" t="n">
+      <c r="N712" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O712" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P712" t="n">
         <v>650</v>
       </c>
-      <c r="Q709" t="n">
-        <v>1</v>
-      </c>
-      <c r="R709" t="inlineStr">
+      <c r="Q712" t="n">
+        <v>1</v>
+      </c>
+      <c r="R712" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>9</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D713" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E713" t="n">
+        <v>13</v>
+      </c>
+      <c r="F713" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J713" t="n">
+        <v>160</v>
+      </c>
+      <c r="K713" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L713" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M713" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N713" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O713" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P713" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q713" t="n">
+        <v>1</v>
+      </c>
+      <c r="R713" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>9</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D714" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E714" t="n">
+        <v>13</v>
+      </c>
+      <c r="F714" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J714" t="n">
+        <v>260</v>
+      </c>
+      <c r="K714" t="n">
+        <v>800</v>
+      </c>
+      <c r="L714" t="n">
+        <v>900</v>
+      </c>
+      <c r="M714" t="n">
+        <v>850</v>
+      </c>
+      <c r="N714" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O714" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P714" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q714" t="n">
+        <v>1</v>
+      </c>
+      <c r="R714" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>9</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D715" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E715" t="n">
+        <v>13</v>
+      </c>
+      <c r="F715" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J715" t="n">
+        <v>124</v>
+      </c>
+      <c r="K715" t="n">
+        <v>600</v>
+      </c>
+      <c r="L715" t="n">
+        <v>700</v>
+      </c>
+      <c r="M715" t="n">
+        <v>650</v>
+      </c>
+      <c r="N715" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O715" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P715" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q715" t="n">
+        <v>1</v>
+      </c>
+      <c r="R715" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R721"/>
+  <dimension ref="A1:R725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44581</v>
+        <v>44642</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41604,7 +41604,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K573" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="L573" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="M573" t="n">
-        <v>850</v>
+        <v>1350</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>850</v>
+        <v>1350</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44581</v>
+        <v>44642</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41676,7 +41676,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -41685,16 +41685,16 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K574" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L574" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="M574" t="n">
-        <v>650</v>
+        <v>1050</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>650</v>
+        <v>1050</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44581</v>
+        <v>44642</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41748,7 +41748,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K575" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L575" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M575" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44581</v>
+        <v>44642</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41820,7 +41820,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -41832,13 +41832,13 @@
         <v>79</v>
       </c>
       <c r="K576" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L576" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M576" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
@@ -41901,7 +41901,7 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K577" t="n">
         <v>800</v>
@@ -41964,7 +41964,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
@@ -41973,7 +41973,7 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K578" t="n">
         <v>600</v>
@@ -42036,7 +42036,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
@@ -42045,7 +42045,7 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K579" t="n">
         <v>400</v>
@@ -42108,7 +42108,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -42117,7 +42117,7 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K580" t="n">
         <v>300</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42180,16 +42180,16 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K581" t="n">
         <v>800</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42252,16 +42252,16 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K582" t="n">
         <v>600</v>
@@ -42270,7 +42270,7 @@
         <v>700</v>
       </c>
       <c r="M582" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J583" t="n">
         <v>160</v>
       </c>
       <c r="K583" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L583" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M583" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K584" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L584" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M584" t="n">
-        <v>651</v>
+        <v>300</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>651</v>
+        <v>300</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
         <v>160</v>
       </c>
       <c r="K585" t="n">
+        <v>800</v>
+      </c>
+      <c r="L585" t="n">
         <v>900</v>
       </c>
-      <c r="L585" t="n">
-        <v>1000</v>
-      </c>
       <c r="M585" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K586" t="n">
+        <v>600</v>
+      </c>
+      <c r="L586" t="n">
         <v>700</v>
       </c>
-      <c r="L586" t="n">
-        <v>800</v>
-      </c>
       <c r="M586" t="n">
-        <v>750</v>
+        <v>649</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>750</v>
+        <v>649</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42612,25 +42612,25 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K587" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L587" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M587" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="K588" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L588" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M588" t="n">
-        <v>875</v>
+        <v>651</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>875</v>
+        <v>651</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42756,25 +42756,25 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K589" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L589" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M589" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42828,25 +42828,25 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
         <v>340</v>
       </c>
       <c r="K590" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L590" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M590" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44637</v>
+        <v>44553</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J591" t="n">
         <v>250</v>
       </c>
       <c r="K591" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L591" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="M591" t="n">
-        <v>1050</v>
+        <v>550</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>1050</v>
+        <v>550</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44637</v>
+        <v>44553</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42972,25 +42972,25 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K592" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L592" t="n">
         <v>900</v>
       </c>
       <c r="M592" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44637</v>
+        <v>44553</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K593" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="L593" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="M593" t="n">
-        <v>1250</v>
+        <v>775</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>1250</v>
+        <v>775</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44637</v>
+        <v>44553</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J594" t="n">
         <v>340</v>
       </c>
       <c r="K594" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="L594" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M594" t="n">
-        <v>1050</v>
+        <v>675</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>1050</v>
+        <v>675</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43188,25 +43188,25 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J595" t="n">
         <v>250</v>
       </c>
       <c r="K595" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L595" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M595" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43260,25 +43260,25 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K596" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L596" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M596" t="n">
-        <v>649</v>
+        <v>850</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>649</v>
+        <v>850</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43341,16 +43341,16 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="K597" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L597" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M597" t="n">
-        <v>950</v>
+        <v>1250</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>950</v>
+        <v>1250</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43413,16 +43413,16 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>1600</v>
+        <v>340</v>
       </c>
       <c r="K598" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L598" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M598" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44530</v>
+        <v>44637</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43476,25 +43476,25 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J599" t="n">
         <v>250</v>
       </c>
       <c r="K599" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="L599" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="M599" t="n">
-        <v>1450</v>
+        <v>850</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>1450</v>
+        <v>850</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44530</v>
+        <v>44637</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K600" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="L600" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="M600" t="n">
-        <v>1400</v>
+        <v>649</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>1400</v>
+        <v>649</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43620,25 +43620,25 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="K601" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L601" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M601" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43692,25 +43692,25 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K602" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L602" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M602" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44294</v>
+        <v>44530</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K603" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="L603" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="M603" t="n">
-        <v>300</v>
+        <v>1450</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>300</v>
+        <v>1450</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44294</v>
+        <v>44530</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K604" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="L604" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M604" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -43980,7 +43980,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -43989,7 +43989,7 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K606" t="n">
         <v>400</v>
@@ -44052,7 +44052,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44124,7 +44124,7 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -44139,10 +44139,10 @@
         <v>800</v>
       </c>
       <c r="L608" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M608" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44196,7 +44196,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -44211,10 +44211,10 @@
         <v>600</v>
       </c>
       <c r="L609" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M609" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -44283,10 +44283,10 @@
         <v>400</v>
       </c>
       <c r="L610" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M610" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44340,7 +44340,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -44349,7 +44349,7 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K611" t="n">
         <v>300</v>
@@ -44412,7 +44412,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -44421,7 +44421,7 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K612" t="n">
         <v>800</v>
@@ -44484,7 +44484,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -44493,7 +44493,7 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K613" t="n">
         <v>600</v>
@@ -44556,7 +44556,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -44565,7 +44565,7 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K614" t="n">
         <v>400</v>
@@ -44628,7 +44628,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -44637,7 +44637,7 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K615" t="n">
         <v>300</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44700,7 +44700,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -44709,7 +44709,7 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K616" t="n">
         <v>800</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -44781,7 +44781,7 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K617" t="n">
         <v>600</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44844,7 +44844,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -44853,7 +44853,7 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K618" t="n">
         <v>400</v>
@@ -44862,7 +44862,7 @@
         <v>500</v>
       </c>
       <c r="M618" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K619" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L619" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M619" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44988,25 +44988,25 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K620" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L620" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M620" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45060,25 +45060,25 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K621" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L621" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M621" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K622" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L622" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M622" t="n">
-        <v>800</v>
+        <v>449</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>800</v>
+        <v>449</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45204,25 +45204,25 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K623" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L623" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M623" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,25 +45276,25 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K624" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L624" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M624" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45348,25 +45348,25 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K625" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L625" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M625" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45492,7 +45492,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -45501,7 +45501,7 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K627" t="n">
         <v>700</v>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -45636,7 +45636,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45708,25 +45708,25 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="K630" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L630" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M630" t="n">
-        <v>676</v>
+        <v>800</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45735,11 +45735,11 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>676</v>
+        <v>800</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45780,25 +45780,25 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>1500</v>
+        <v>430</v>
       </c>
       <c r="K631" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L631" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M631" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45807,11 +45807,11 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K632" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L632" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M632" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="K633" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L633" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M633" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -45996,7 +45996,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -46005,7 +46005,7 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>3800</v>
+        <v>1900</v>
       </c>
       <c r="K634" t="n">
         <v>650</v>
@@ -46068,25 +46068,25 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="K635" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L635" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M635" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="K636" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L636" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M636" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>2300</v>
+        <v>900</v>
       </c>
       <c r="K637" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L637" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M637" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>500</v>
+        <v>3800</v>
       </c>
       <c r="K638" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="L638" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M638" t="n">
-        <v>1000</v>
+        <v>676</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>1000</v>
+        <v>676</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J639" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K639" t="n">
         <v>600</v>
       </c>
-      <c r="K639" t="n">
-        <v>1000</v>
-      </c>
       <c r="L639" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M639" t="n">
-        <v>1000</v>
+        <v>656</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>1000</v>
+        <v>656</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46428,25 +46428,25 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>160</v>
+        <v>2100</v>
       </c>
       <c r="K640" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L640" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M640" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46455,11 +46455,11 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q640" t="n">
         <v>1</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46500,25 +46500,25 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>340</v>
+        <v>2300</v>
       </c>
       <c r="K641" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L641" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M641" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q641" t="n">
         <v>1</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46572,25 +46572,25 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K642" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L642" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M642" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46599,11 +46599,11 @@
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q642" t="n">
         <v>1</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K643" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L643" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M643" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q643" t="n">
         <v>1</v>
@@ -46716,25 +46716,25 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K644" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L644" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M644" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46788,25 +46788,25 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K645" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L645" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M645" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q645" t="n">
         <v>1</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K646" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L646" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M646" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46932,25 +46932,25 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J647" t="n">
         <v>160</v>
       </c>
       <c r="K647" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L647" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M647" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47004,25 +47004,25 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K648" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L648" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M648" t="n">
-        <v>335</v>
+        <v>600</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>335</v>
+        <v>600</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K649" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L649" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="M649" t="n">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="Q649" t="n">
         <v>1</v>
@@ -47148,7 +47148,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -47157,16 +47157,16 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K650" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L650" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M650" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q650" t="n">
         <v>1</v>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -47229,16 +47229,16 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K651" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L651" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M651" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q651" t="n">
         <v>1</v>
@@ -47292,7 +47292,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="K652" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L652" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M652" t="n">
-        <v>500</v>
+        <v>335</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>500</v>
+        <v>335</v>
       </c>
       <c r="Q652" t="n">
         <v>1</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47364,7 +47364,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -47373,16 +47373,16 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K653" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L653" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M653" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="Q653" t="n">
         <v>1</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47436,7 +47436,7 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
@@ -47445,16 +47445,16 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K654" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L654" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M654" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47508,25 +47508,25 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K655" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L655" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M655" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q655" t="n">
         <v>1</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K656" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L656" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M656" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q656" t="n">
         <v>1</v>
@@ -47652,25 +47652,25 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K657" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L657" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M657" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q657" t="n">
         <v>1</v>
@@ -47724,25 +47724,25 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K658" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L658" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M658" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q658" t="n">
         <v>1</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K659" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L659" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M659" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q659" t="n">
         <v>1</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K660" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L660" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="M660" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="Q660" t="n">
         <v>1</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44174</v>
+        <v>44257</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K661" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L661" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M661" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44236</v>
+        <v>44257</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48012,25 +48012,25 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K662" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L662" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M662" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K663" t="n">
         <v>700</v>
       </c>
       <c r="L663" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M663" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48156,25 +48156,25 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K664" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L664" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M664" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K665" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L665" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M665" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48300,25 +48300,25 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K666" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L666" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M666" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K667" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L667" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M667" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K668" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L668" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M668" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48516,25 +48516,25 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K669" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L669" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M669" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q669" t="n">
         <v>1</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48588,25 +48588,25 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K670" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L670" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M670" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44272</v>
+        <v>44236</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K671" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L671" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M671" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48732,25 +48732,25 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K672" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L672" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M672" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48804,25 +48804,25 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K673" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L673" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M673" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q673" t="n">
         <v>1</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,25 +48876,25 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="K674" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L674" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M674" t="n">
-        <v>933</v>
+        <v>500</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>933</v>
+        <v>500</v>
       </c>
       <c r="Q674" t="n">
         <v>1</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="K675" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L675" t="n">
         <v>800</v>
       </c>
       <c r="M675" t="n">
-        <v>740</v>
+        <v>800</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>740</v>
+        <v>800</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>1100</v>
+        <v>340</v>
       </c>
       <c r="K676" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L676" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M676" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q676" t="n">
         <v>1</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44610</v>
+        <v>44272</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K677" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L677" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M677" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49164,25 +49164,25 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="K678" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L678" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M678" t="n">
-        <v>550</v>
+        <v>933</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>550</v>
+        <v>933</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49236,25 +49236,25 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="K679" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L679" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M679" t="n">
-        <v>400</v>
+        <v>740</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>400</v>
+        <v>740</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>340</v>
+        <v>1100</v>
       </c>
       <c r="K680" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L680" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M680" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49380,25 +49380,25 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K681" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L681" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M681" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49452,25 +49452,25 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K682" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L682" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M682" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Q682" t="n">
         <v>1</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49524,25 +49524,25 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K683" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="L683" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M683" t="n">
-        <v>875</v>
+        <v>400</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>875</v>
+        <v>400</v>
       </c>
       <c r="Q683" t="n">
         <v>1</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K684" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L684" t="n">
         <v>800</v>
       </c>
       <c r="M684" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q684" t="n">
         <v>1</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49673,20 +49673,20 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K685" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L685" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M685" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q685" t="n">
         <v>1</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49745,20 +49745,20 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K686" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L686" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M686" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q686" t="n">
         <v>1</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49817,20 +49817,20 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="K687" t="n">
+        <v>850</v>
+      </c>
+      <c r="L687" t="n">
         <v>900</v>
       </c>
-      <c r="L687" t="n">
-        <v>1000</v>
-      </c>
       <c r="M687" t="n">
-        <v>944</v>
+        <v>875</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>944</v>
+        <v>875</v>
       </c>
       <c r="Q687" t="n">
         <v>1</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44277</v>
+        <v>44615</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K688" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="L688" t="n">
         <v>800</v>
       </c>
       <c r="M688" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="Q688" t="n">
         <v>1</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,25 +49956,25 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K689" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L689" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M689" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="Q689" t="n">
         <v>1</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50028,25 +50028,25 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K690" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L690" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M690" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q690" t="n">
         <v>1</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50105,20 +50105,20 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="K691" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L691" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M691" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="Q691" t="n">
         <v>1</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50177,20 +50177,20 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J692" t="n">
         <v>160</v>
       </c>
       <c r="K692" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L692" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M692" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q692" t="n">
         <v>1</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50253,7 +50253,7 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K693" t="n">
         <v>800</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50321,20 +50321,20 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K694" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L694" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M694" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q694" t="n">
         <v>1</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50388,25 +50388,25 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K695" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L695" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M695" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q695" t="n">
         <v>1</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K696" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L696" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M696" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="Q696" t="n">
         <v>1</v>
@@ -50532,7 +50532,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -50541,7 +50541,7 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K697" t="n">
         <v>800</v>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50748,7 +50748,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K701" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L701" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M701" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q701" t="n">
         <v>1</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50901,16 +50901,16 @@
         </is>
       </c>
       <c r="J702" t="n">
+        <v>340</v>
+      </c>
+      <c r="K702" t="n">
         <v>600</v>
       </c>
-      <c r="K702" t="n">
-        <v>500</v>
-      </c>
       <c r="L702" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M702" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q702" t="n">
         <v>1</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50973,7 +50973,7 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K703" t="n">
         <v>400</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44628</v>
+        <v>44285</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K704" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="L704" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="M704" t="n">
-        <v>1150</v>
+        <v>300</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>1150</v>
+        <v>300</v>
       </c>
       <c r="Q704" t="n">
         <v>1</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44628</v>
+        <v>44595</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51108,25 +51108,25 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K705" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L705" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M705" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="Q705" t="n">
         <v>1</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44628</v>
+        <v>44595</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51180,25 +51180,25 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>97</v>
+        <v>600</v>
       </c>
       <c r="K706" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L706" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M706" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51207,11 +51207,11 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="Q706" t="n">
         <v>1</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44628</v>
+        <v>44595</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51257,20 +51257,20 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K707" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="L707" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M707" t="n">
-        <v>1150</v>
+        <v>400</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>1150</v>
+        <v>400</v>
       </c>
       <c r="Q707" t="n">
         <v>1</v>
@@ -51324,25 +51324,25 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K708" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="L708" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M708" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="Q708" t="n">
         <v>1</v>
@@ -51396,25 +51396,25 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
         <v>250</v>
       </c>
       <c r="K709" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L709" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M709" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q709" t="n">
         <v>1</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51473,20 +51473,20 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J710" t="n">
         <v>97</v>
       </c>
       <c r="K710" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L710" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M710" t="n">
-        <v>949</v>
+        <v>749</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,11 +51495,11 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>949</v>
+        <v>749</v>
       </c>
       <c r="Q710" t="n">
         <v>1</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51540,25 +51540,25 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K711" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L711" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M711" t="n">
-        <v>750</v>
+        <v>1150</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>750</v>
+        <v>1150</v>
       </c>
       <c r="Q711" t="n">
         <v>1</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,25 +51612,25 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K712" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L712" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M712" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q712" t="n">
         <v>1</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K713" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L713" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M713" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q713" t="n">
         <v>1</v>
@@ -51756,25 +51756,25 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K714" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L714" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M714" t="n">
-        <v>775</v>
+        <v>949</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>775</v>
+        <v>949</v>
       </c>
       <c r="Q714" t="n">
         <v>1</v>
@@ -51828,25 +51828,25 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J715" t="n">
         <v>250</v>
       </c>
       <c r="K715" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L715" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M715" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q715" t="n">
         <v>1</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J716" t="n">
         <v>160</v>
       </c>
       <c r="K716" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L716" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="M716" t="n">
-        <v>1250</v>
+        <v>550</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>1250</v>
+        <v>550</v>
       </c>
       <c r="Q716" t="n">
         <v>1</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51972,25 +51972,25 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K717" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L717" t="n">
         <v>900</v>
       </c>
       <c r="M717" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q717" t="n">
         <v>1</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K718" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L718" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M718" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="Q718" t="n">
         <v>1</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K719" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="L719" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="M719" t="n">
-        <v>1250</v>
+        <v>675</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>1250</v>
+        <v>675</v>
       </c>
       <c r="Q719" t="n">
         <v>1</v>
@@ -52188,25 +52188,25 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K720" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L720" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="M720" t="n">
-        <v>850</v>
+        <v>1250</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>850</v>
+        <v>1250</v>
       </c>
       <c r="Q720" t="n">
         <v>1</v>
@@ -52260,43 +52260,331 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J721" t="n">
+        <v>250</v>
+      </c>
+      <c r="K721" t="n">
+        <v>800</v>
+      </c>
+      <c r="L721" t="n">
+        <v>900</v>
+      </c>
+      <c r="M721" t="n">
+        <v>850</v>
+      </c>
+      <c r="N721" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O721" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P721" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q721" t="n">
+        <v>1</v>
+      </c>
+      <c r="R721" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>9</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D722" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E722" t="n">
+        <v>13</v>
+      </c>
+      <c r="F722" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J722" t="n">
+        <v>106</v>
+      </c>
+      <c r="K722" t="n">
+        <v>600</v>
+      </c>
+      <c r="L722" t="n">
+        <v>700</v>
+      </c>
+      <c r="M722" t="n">
+        <v>650</v>
+      </c>
+      <c r="N722" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O722" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P722" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q722" t="n">
+        <v>1</v>
+      </c>
+      <c r="R722" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>9</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D723" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E723" t="n">
+        <v>13</v>
+      </c>
+      <c r="F723" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I721" t="inlineStr">
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J723" t="n">
+        <v>160</v>
+      </c>
+      <c r="K723" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L723" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M723" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N723" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O723" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P723" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q723" t="n">
+        <v>1</v>
+      </c>
+      <c r="R723" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>9</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D724" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E724" t="n">
+        <v>13</v>
+      </c>
+      <c r="F724" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J724" t="n">
+        <v>260</v>
+      </c>
+      <c r="K724" t="n">
+        <v>800</v>
+      </c>
+      <c r="L724" t="n">
+        <v>900</v>
+      </c>
+      <c r="M724" t="n">
+        <v>850</v>
+      </c>
+      <c r="N724" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O724" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P724" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q724" t="n">
+        <v>1</v>
+      </c>
+      <c r="R724" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>9</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D725" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E725" t="n">
+        <v>13</v>
+      </c>
+      <c r="F725" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J721" t="n">
+      <c r="J725" t="n">
         <v>124</v>
       </c>
-      <c r="K721" t="n">
+      <c r="K725" t="n">
         <v>600</v>
       </c>
-      <c r="L721" t="n">
+      <c r="L725" t="n">
         <v>700</v>
       </c>
-      <c r="M721" t="n">
+      <c r="M725" t="n">
         <v>650</v>
       </c>
-      <c r="N721" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O721" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P721" t="n">
+      <c r="N725" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O725" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P725" t="n">
         <v>650</v>
       </c>
-      <c r="Q721" t="n">
-        <v>1</v>
-      </c>
-      <c r="R721" t="inlineStr">
+      <c r="Q725" t="n">
+        <v>1</v>
+      </c>
+      <c r="R725" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R747"/>
+  <dimension ref="A1:R753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54174,6 +54174,438 @@
         </is>
       </c>
     </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>9</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D748" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E748" t="n">
+        <v>13</v>
+      </c>
+      <c r="F748" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I748" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J748" t="n">
+        <v>160</v>
+      </c>
+      <c r="K748" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L748" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M748" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N748" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O748" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P748" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q748" t="n">
+        <v>1</v>
+      </c>
+      <c r="R748" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>9</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D749" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E749" t="n">
+        <v>13</v>
+      </c>
+      <c r="F749" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J749" t="n">
+        <v>430</v>
+      </c>
+      <c r="K749" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L749" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M749" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N749" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O749" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P749" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q749" t="n">
+        <v>1</v>
+      </c>
+      <c r="R749" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>9</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D750" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E750" t="n">
+        <v>13</v>
+      </c>
+      <c r="F750" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I750" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J750" t="n">
+        <v>340</v>
+      </c>
+      <c r="K750" t="n">
+        <v>800</v>
+      </c>
+      <c r="L750" t="n">
+        <v>800</v>
+      </c>
+      <c r="M750" t="n">
+        <v>800</v>
+      </c>
+      <c r="N750" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O750" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P750" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q750" t="n">
+        <v>1</v>
+      </c>
+      <c r="R750" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>9</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D751" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E751" t="n">
+        <v>13</v>
+      </c>
+      <c r="F751" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J751" t="n">
+        <v>340</v>
+      </c>
+      <c r="K751" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L751" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M751" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N751" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O751" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P751" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q751" t="n">
+        <v>1</v>
+      </c>
+      <c r="R751" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>9</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D752" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E752" t="n">
+        <v>13</v>
+      </c>
+      <c r="F752" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I752" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J752" t="n">
+        <v>610</v>
+      </c>
+      <c r="K752" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L752" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M752" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N752" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O752" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P752" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q752" t="n">
+        <v>1</v>
+      </c>
+      <c r="R752" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>9</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D753" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E753" t="n">
+        <v>13</v>
+      </c>
+      <c r="F753" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J753" t="n">
+        <v>430</v>
+      </c>
+      <c r="K753" t="n">
+        <v>700</v>
+      </c>
+      <c r="L753" t="n">
+        <v>700</v>
+      </c>
+      <c r="M753" t="n">
+        <v>700</v>
+      </c>
+      <c r="N753" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O753" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P753" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q753" t="n">
+        <v>1</v>
+      </c>
+      <c r="R753" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R760"/>
+  <dimension ref="A1:R766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44585</v>
+        <v>44917</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42972,7 +42972,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K592" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L592" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M592" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44585</v>
+        <v>44917</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43044,7 +43044,7 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
@@ -43053,16 +43053,16 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K593" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L593" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M593" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44585</v>
+        <v>44917</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43116,7 +43116,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -43125,16 +43125,16 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K594" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L594" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M594" t="n">
-        <v>449</v>
+        <v>800</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>449</v>
+        <v>800</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44585</v>
+        <v>44917</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="K595" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="L595" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="M595" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44232</v>
+        <v>44917</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43260,7 +43260,7 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
@@ -43269,16 +43269,16 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>1900</v>
+        <v>520</v>
       </c>
       <c r="K596" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="L596" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M596" t="n">
-        <v>676</v>
+        <v>1200</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>676</v>
+        <v>1200</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44232</v>
+        <v>44917</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -43341,16 +43341,16 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>1500</v>
+        <v>430</v>
       </c>
       <c r="K597" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L597" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M597" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44232</v>
+        <v>44585</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43413,16 +43413,16 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K598" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L598" t="n">
         <v>900</v>
       </c>
       <c r="M598" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44232</v>
+        <v>44585</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="K599" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L599" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M599" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44232</v>
+        <v>44585</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>3800</v>
+        <v>97</v>
       </c>
       <c r="K600" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L600" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M600" t="n">
-        <v>676</v>
+        <v>449</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43575,11 +43575,11 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>676</v>
+        <v>449</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44232</v>
+        <v>44585</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>4500</v>
+        <v>34</v>
       </c>
       <c r="K601" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L601" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M601" t="n">
-        <v>656</v>
+        <v>300</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>656</v>
+        <v>300</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43692,25 +43692,25 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K602" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L602" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M602" t="n">
-        <v>500</v>
+        <v>676</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>500</v>
+        <v>676</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43764,7 +43764,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -43773,7 +43773,7 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="K603" t="n">
         <v>500</v>
@@ -43791,7 +43791,7 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P603" t="n">
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K604" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L604" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M604" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K605" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L605" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M605" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q605" t="n">
         <v>1</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44595</v>
+        <v>44232</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>350</v>
+        <v>3800</v>
       </c>
       <c r="K606" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="L606" t="n">
         <v>700</v>
       </c>
       <c r="M606" t="n">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44007,11 +44007,11 @@
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="Q606" t="n">
         <v>1</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44595</v>
+        <v>44232</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K607" t="n">
         <v>600</v>
       </c>
-      <c r="K607" t="n">
-        <v>500</v>
-      </c>
       <c r="L607" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M607" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="Q607" t="n">
         <v>1</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44595</v>
+        <v>44232</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44133,16 +44133,16 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="K608" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L608" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M608" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44908</v>
+        <v>44232</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44196,25 +44196,25 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>340</v>
+        <v>2300</v>
       </c>
       <c r="K609" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="L609" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="M609" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44908</v>
+        <v>44232</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44268,25 +44268,25 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K610" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L610" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M610" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44908</v>
+        <v>44232</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K611" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L611" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M611" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44908</v>
+        <v>44595</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="K612" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="L612" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="M612" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="Q612" t="n">
         <v>1</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44908</v>
+        <v>44595</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K613" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L613" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="M613" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="Q613" t="n">
         <v>1</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44600</v>
+        <v>44595</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44556,25 +44556,25 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K614" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L614" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M614" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44600</v>
+        <v>44908</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44637,16 +44637,16 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K615" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="L615" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M615" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44600</v>
+        <v>44908</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44700,25 +44700,25 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K616" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L616" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M616" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44600</v>
+        <v>44908</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K617" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="L617" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="M617" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44600</v>
+        <v>44908</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K618" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="L618" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="M618" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44608</v>
+        <v>44908</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44916,25 +44916,25 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K619" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L619" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M619" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44608</v>
+        <v>44600</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K620" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L620" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M620" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44608</v>
+        <v>44600</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="K621" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L621" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M621" t="n">
-        <v>425</v>
+        <v>800</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>425</v>
+        <v>800</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44608</v>
+        <v>44600</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45132,25 +45132,25 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="K622" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L622" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M622" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44608</v>
+        <v>44600</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K623" t="n">
         <v>700</v>
       </c>
       <c r="L623" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M623" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44608</v>
+        <v>44600</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K624" t="n">
         <v>500</v>
       </c>
       <c r="L624" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M624" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45348,25 +45348,25 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J625" t="n">
         <v>160</v>
       </c>
       <c r="K625" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L625" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M625" t="n">
-        <v>425</v>
+        <v>750</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>425</v>
+        <v>750</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45420,25 +45420,25 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K626" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L626" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M626" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44263</v>
+        <v>44608</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -45497,20 +45497,20 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K627" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L627" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M627" t="n">
-        <v>800</v>
+        <v>425</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>800</v>
+        <v>425</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44263</v>
+        <v>44608</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="K628" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L628" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M628" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44263</v>
+        <v>44608</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45648,13 +45648,13 @@
         <v>250</v>
       </c>
       <c r="K629" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L629" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M629" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44263</v>
+        <v>44608</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K630" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L630" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M630" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44281</v>
+        <v>44608</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45780,25 +45780,25 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J631" t="n">
         <v>160</v>
       </c>
       <c r="K631" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L631" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="M631" t="n">
-        <v>700</v>
+        <v>425</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>700</v>
+        <v>425</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44281</v>
+        <v>44608</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45852,25 +45852,25 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K632" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L632" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M632" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44281</v>
+        <v>44263</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K633" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L633" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M633" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44281</v>
+        <v>44263</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -45996,16 +45996,16 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K634" t="n">
         <v>700</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44281</v>
+        <v>44263</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K635" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L635" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M635" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44281</v>
+        <v>44263</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K636" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L636" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M636" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44532</v>
+        <v>44281</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J637" t="n">
         <v>160</v>
       </c>
       <c r="K637" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="L637" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="M637" t="n">
-        <v>1350</v>
+        <v>700</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>1350</v>
+        <v>700</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44532</v>
+        <v>44281</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K638" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L638" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="M638" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44532</v>
+        <v>44281</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46356,25 +46356,25 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K639" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="L639" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="M639" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44532</v>
+        <v>44281</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K640" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="L640" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M640" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="Q640" t="n">
         <v>1</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44194</v>
+        <v>44281</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46500,25 +46500,25 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K641" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L641" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="M641" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="Q641" t="n">
         <v>1</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44194</v>
+        <v>44281</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46572,25 +46572,25 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>610</v>
+        <v>160</v>
       </c>
       <c r="K642" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L642" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M642" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q642" t="n">
         <v>1</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44194</v>
+        <v>44532</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K643" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="L643" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="M643" t="n">
-        <v>650</v>
+        <v>1350</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>650</v>
+        <v>1350</v>
       </c>
       <c r="Q643" t="n">
         <v>1</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44194</v>
+        <v>44532</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46716,25 +46716,25 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K644" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L644" t="n">
         <v>1100</v>
       </c>
       <c r="M644" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44194</v>
+        <v>44532</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>610</v>
+        <v>210</v>
       </c>
       <c r="K645" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="L645" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="M645" t="n">
-        <v>850</v>
+        <v>1350</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>850</v>
+        <v>1350</v>
       </c>
       <c r="Q645" t="n">
         <v>1</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44194</v>
+        <v>44532</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46869,16 +46869,16 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K646" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L646" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="M646" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44638</v>
+        <v>44194</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46941,16 +46941,16 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>106</v>
+        <v>520</v>
       </c>
       <c r="K647" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L647" t="n">
         <v>1100</v>
       </c>
-      <c r="L647" t="n">
-        <v>1200</v>
-      </c>
       <c r="M647" t="n">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44638</v>
+        <v>44194</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>250</v>
+        <v>610</v>
       </c>
       <c r="K648" t="n">
+        <v>800</v>
+      </c>
+      <c r="L648" t="n">
         <v>900</v>
       </c>
-      <c r="L648" t="n">
-        <v>1000</v>
-      </c>
       <c r="M648" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44638</v>
+        <v>44194</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47085,16 +47085,16 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K649" t="n">
+        <v>600</v>
+      </c>
+      <c r="L649" t="n">
         <v>700</v>
       </c>
-      <c r="L649" t="n">
-        <v>800</v>
-      </c>
       <c r="M649" t="n">
-        <v>749</v>
+        <v>650</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>749</v>
+        <v>650</v>
       </c>
       <c r="Q649" t="n">
         <v>1</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44638</v>
+        <v>44194</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47157,7 +47157,7 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K650" t="n">
         <v>1000</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44638</v>
+        <v>44194</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47229,7 +47229,7 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K651" t="n">
         <v>800</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44638</v>
+        <v>44194</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47301,7 +47301,7 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K652" t="n">
         <v>600</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44181</v>
+        <v>44638</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>800</v>
+        <v>106</v>
       </c>
       <c r="K653" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L653" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M653" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="Q653" t="n">
         <v>1</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44181</v>
+        <v>44638</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="K654" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L654" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M654" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44181</v>
+        <v>44638</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47508,25 +47508,25 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>1200</v>
+        <v>97</v>
       </c>
       <c r="K655" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L655" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M655" t="n">
-        <v>1000</v>
+        <v>749</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>1000</v>
+        <v>749</v>
       </c>
       <c r="Q655" t="n">
         <v>1</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44181</v>
+        <v>44638</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>2300</v>
+        <v>160</v>
       </c>
       <c r="K656" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L656" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M656" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="Q656" t="n">
         <v>1</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44578</v>
+        <v>44638</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47657,11 +47657,11 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K657" t="n">
         <v>800</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44578</v>
+        <v>44638</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47729,11 +47729,11 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K658" t="n">
         <v>600</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44578</v>
+        <v>44181</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47796,25 +47796,25 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>97</v>
+        <v>800</v>
       </c>
       <c r="K659" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L659" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M659" t="n">
-        <v>449</v>
+        <v>1000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>449</v>
+        <v>1000</v>
       </c>
       <c r="Q659" t="n">
         <v>1</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44578</v>
+        <v>44181</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47868,25 +47868,25 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>52</v>
+        <v>1300</v>
       </c>
       <c r="K660" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L660" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M660" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q660" t="n">
         <v>1</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44237</v>
+        <v>44181</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47940,25 +47940,25 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="K661" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L661" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M661" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44237</v>
+        <v>44181</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48012,25 +48012,25 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>520</v>
+        <v>2300</v>
       </c>
       <c r="K662" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L662" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M662" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44237</v>
+        <v>44578</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48084,25 +48084,25 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K663" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L663" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M663" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44237</v>
+        <v>44578</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48156,25 +48156,25 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K664" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L664" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M664" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44237</v>
+        <v>44578</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K665" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L665" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M665" t="n">
-        <v>800</v>
+        <v>449</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>800</v>
+        <v>449</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44237</v>
+        <v>44578</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>680</v>
+        <v>52</v>
       </c>
       <c r="K666" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L666" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M666" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K667" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L667" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M667" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="K668" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L668" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M668" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44566</v>
+        <v>44237</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48516,25 +48516,25 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K669" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L669" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M669" t="n">
-        <v>825</v>
+        <v>400</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>825</v>
+        <v>400</v>
       </c>
       <c r="Q669" t="n">
         <v>1</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44566</v>
+        <v>44237</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48588,25 +48588,25 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="K670" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L670" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M670" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44566</v>
+        <v>44237</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K671" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L671" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M671" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44292</v>
+        <v>44237</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="K672" t="n">
         <v>600</v>
       </c>
       <c r="L672" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M672" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44292</v>
+        <v>44237</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,7 +48813,7 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K673" t="n">
         <v>400</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44292</v>
+        <v>44237</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,25 +48876,25 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K674" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L674" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M674" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="Q674" t="n">
         <v>1</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44292</v>
+        <v>44566</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48957,16 +48957,16 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K675" t="n">
         <v>800</v>
       </c>
       <c r="L675" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M675" t="n">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44292</v>
+        <v>44566</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49029,16 +49029,16 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K676" t="n">
         <v>600</v>
       </c>
       <c r="L676" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M676" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q676" t="n">
         <v>1</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44292</v>
+        <v>44566</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K677" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L677" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M677" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49164,25 +49164,25 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K678" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L678" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M678" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44617</v>
+        <v>44292</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J679" t="n">
         <v>160</v>
       </c>
       <c r="K679" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L679" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M679" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44617</v>
+        <v>44292</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K680" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L680" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M680" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44617</v>
+        <v>44292</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49380,25 +49380,25 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K681" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L681" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M681" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44617</v>
+        <v>44292</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49452,25 +49452,25 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K682" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L682" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M682" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q682" t="n">
         <v>1</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44617</v>
+        <v>44292</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K683" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L683" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M683" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q683" t="n">
         <v>1</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44617</v>
+        <v>44292</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K684" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L684" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M684" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="Q684" t="n">
         <v>1</v>
@@ -49668,25 +49668,25 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K685" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L685" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M685" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="Q685" t="n">
         <v>1</v>
@@ -49740,25 +49740,25 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K686" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L686" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M686" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="Q686" t="n">
         <v>1</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44216</v>
+        <v>44617</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49812,25 +49812,25 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K687" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L687" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M687" t="n">
-        <v>943</v>
+        <v>450</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>943</v>
+        <v>450</v>
       </c>
       <c r="Q687" t="n">
         <v>1</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44216</v>
+        <v>44617</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49884,25 +49884,25 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>900</v>
+        <v>79</v>
       </c>
       <c r="K688" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L688" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M688" t="n">
-        <v>778</v>
+        <v>300</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49911,11 +49911,11 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>778</v>
+        <v>300</v>
       </c>
       <c r="Q688" t="n">
         <v>1</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44264</v>
+        <v>44617</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,7 +49956,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -49971,10 +49971,10 @@
         <v>800</v>
       </c>
       <c r="L689" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M689" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q689" t="n">
         <v>1</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44264</v>
+        <v>44617</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K690" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L690" t="n">
         <v>700</v>
       </c>
       <c r="M690" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q690" t="n">
         <v>1</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44264</v>
+        <v>44617</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,16 +50109,16 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K691" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L691" t="n">
         <v>500</v>
       </c>
       <c r="M691" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="Q691" t="n">
         <v>1</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44264</v>
+        <v>44617</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50172,25 +50172,25 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J692" t="n">
         <v>160</v>
       </c>
       <c r="K692" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L692" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M692" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q692" t="n">
         <v>1</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44264</v>
+        <v>44216</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50253,16 +50253,16 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K693" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L693" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M693" t="n">
-        <v>800</v>
+        <v>943</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>800</v>
+        <v>943</v>
       </c>
       <c r="Q693" t="n">
         <v>1</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44264</v>
+        <v>44216</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>430</v>
+        <v>900</v>
       </c>
       <c r="K694" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L694" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M694" t="n">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="Q694" t="n">
         <v>1</v>
@@ -50388,25 +50388,25 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J695" t="n">
         <v>250</v>
       </c>
       <c r="K695" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L695" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M695" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q695" t="n">
         <v>1</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K696" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L696" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M696" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q696" t="n">
         <v>1</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44629</v>
+        <v>44264</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50537,20 +50537,20 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K697" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L697" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M697" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="Q697" t="n">
         <v>1</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44629</v>
+        <v>44264</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50609,20 +50609,20 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K698" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L698" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M698" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q698" t="n">
         <v>1</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44629</v>
+        <v>44264</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50676,25 +50676,25 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K699" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L699" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M699" t="n">
-        <v>549</v>
+        <v>800</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>549</v>
+        <v>800</v>
       </c>
       <c r="Q699" t="n">
         <v>1</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44629</v>
+        <v>44264</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50753,20 +50753,20 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K700" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L700" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M700" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="Q700" t="n">
         <v>1</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44629</v>
+        <v>44264</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K701" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L701" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M701" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q701" t="n">
         <v>1</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44629</v>
+        <v>44264</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50897,20 +50897,20 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K702" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L702" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M702" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q702" t="n">
         <v>1</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44592</v>
+        <v>44629</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,16 +50973,16 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c r="K703" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L703" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M703" t="n">
-        <v>832</v>
+        <v>950</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>832</v>
+        <v>950</v>
       </c>
       <c r="Q703" t="n">
         <v>1</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44592</v>
+        <v>44629</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51036,7 +51036,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -51045,16 +51045,16 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K704" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L704" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M704" t="n">
-        <v>635</v>
+        <v>750</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>635</v>
+        <v>750</v>
       </c>
       <c r="Q704" t="n">
         <v>1</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44592</v>
+        <v>44629</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51117,16 +51117,16 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K705" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L705" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M705" t="n">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="Q705" t="n">
         <v>1</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44533</v>
+        <v>44629</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51180,25 +51180,25 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J706" t="n">
         <v>160</v>
       </c>
       <c r="K706" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L706" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M706" t="n">
-        <v>1250</v>
+        <v>950</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51207,11 +51207,11 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>1250</v>
+        <v>950</v>
       </c>
       <c r="Q706" t="n">
         <v>1</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44533</v>
+        <v>44629</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51252,25 +51252,25 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K707" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L707" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="M707" t="n">
-        <v>1049</v>
+        <v>750</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>1049</v>
+        <v>750</v>
       </c>
       <c r="Q707" t="n">
         <v>1</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44533</v>
+        <v>44629</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K708" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L708" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="M708" t="n">
-        <v>1250</v>
+        <v>550</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>1250</v>
+        <v>550</v>
       </c>
       <c r="Q708" t="n">
         <v>1</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44533</v>
+        <v>44592</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51401,20 +51401,20 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="K709" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L709" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="M709" t="n">
-        <v>1051</v>
+        <v>832</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>1051</v>
+        <v>832</v>
       </c>
       <c r="Q709" t="n">
         <v>1</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44217</v>
+        <v>44592</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51468,25 +51468,25 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="K710" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L710" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M710" t="n">
-        <v>960</v>
+        <v>635</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>960</v>
+        <v>635</v>
       </c>
       <c r="Q710" t="n">
         <v>1</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44217</v>
+        <v>44592</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51540,25 +51540,25 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="K711" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L711" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M711" t="n">
-        <v>750</v>
+        <v>505</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>750</v>
+        <v>505</v>
       </c>
       <c r="Q711" t="n">
         <v>1</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51617,20 +51617,20 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J712" t="n">
+        <v>160</v>
+      </c>
+      <c r="K712" t="n">
         <v>1200</v>
       </c>
-      <c r="K712" t="n">
-        <v>500</v>
-      </c>
       <c r="L712" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="M712" t="n">
-        <v>558</v>
+        <v>1250</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>558</v>
+        <v>1250</v>
       </c>
       <c r="Q712" t="n">
         <v>1</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51684,25 +51684,25 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>1300</v>
+        <v>79</v>
       </c>
       <c r="K713" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L713" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M713" t="n">
-        <v>954</v>
+        <v>1049</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>954</v>
+        <v>1049</v>
       </c>
       <c r="Q713" t="n">
         <v>1</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>2300</v>
+        <v>160</v>
       </c>
       <c r="K714" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="L714" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M714" t="n">
-        <v>748</v>
+        <v>1250</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>748</v>
+        <v>1250</v>
       </c>
       <c r="Q714" t="n">
         <v>1</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51837,16 +51837,16 @@
         </is>
       </c>
       <c r="J715" t="n">
+        <v>61</v>
+      </c>
+      <c r="K715" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L715" t="n">
         <v>1100</v>
       </c>
-      <c r="K715" t="n">
-        <v>500</v>
-      </c>
-      <c r="L715" t="n">
-        <v>600</v>
-      </c>
       <c r="M715" t="n">
-        <v>536</v>
+        <v>1051</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51855,11 +51855,11 @@
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>536</v>
+        <v>1051</v>
       </c>
       <c r="Q715" t="n">
         <v>1</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44291</v>
+        <v>44217</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51900,25 +51900,25 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K716" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L716" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M716" t="n">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="Q716" t="n">
         <v>1</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44291</v>
+        <v>44217</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51972,25 +51972,25 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K717" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L717" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M717" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q717" t="n">
         <v>1</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44630</v>
+        <v>44217</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="K718" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L718" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M718" t="n">
-        <v>950</v>
+        <v>558</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>950</v>
+        <v>558</v>
       </c>
       <c r="Q718" t="n">
         <v>1</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44630</v>
+        <v>44217</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>340</v>
+        <v>1300</v>
       </c>
       <c r="K719" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L719" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M719" t="n">
-        <v>750</v>
+        <v>954</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>750</v>
+        <v>954</v>
       </c>
       <c r="Q719" t="n">
         <v>1</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44630</v>
+        <v>44217</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>250</v>
+        <v>2300</v>
       </c>
       <c r="K720" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L720" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M720" t="n">
-        <v>550</v>
+        <v>748</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>550</v>
+        <v>748</v>
       </c>
       <c r="Q720" t="n">
         <v>1</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44630</v>
+        <v>44217</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52265,20 +52265,20 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>97</v>
+        <v>1100</v>
       </c>
       <c r="K721" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L721" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M721" t="n">
-        <v>349</v>
+        <v>536</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>349</v>
+        <v>536</v>
       </c>
       <c r="Q721" t="n">
         <v>1</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44623</v>
+        <v>44291</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52332,25 +52332,25 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K722" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L722" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M722" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="Q722" t="n">
         <v>1</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44623</v>
+        <v>44291</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52404,25 +52404,25 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K723" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L723" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M723" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q723" t="n">
         <v>1</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52476,25 +52476,25 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K724" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L724" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M724" t="n">
-        <v>549</v>
+        <v>950</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>549</v>
+        <v>950</v>
       </c>
       <c r="Q724" t="n">
         <v>1</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52553,20 +52553,20 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K725" t="n">
+        <v>700</v>
+      </c>
+      <c r="L725" t="n">
         <v>800</v>
       </c>
-      <c r="L725" t="n">
-        <v>900</v>
-      </c>
       <c r="M725" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q725" t="n">
         <v>1</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K726" t="n">
+        <v>500</v>
+      </c>
+      <c r="L726" t="n">
         <v>600</v>
       </c>
-      <c r="L726" t="n">
-        <v>700</v>
-      </c>
       <c r="M726" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q726" t="n">
         <v>1</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52697,20 +52697,20 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K727" t="n">
+        <v>300</v>
+      </c>
+      <c r="L727" t="n">
         <v>400</v>
       </c>
-      <c r="L727" t="n">
-        <v>500</v>
-      </c>
       <c r="M727" t="n">
-        <v>450</v>
+        <v>349</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>450</v>
+        <v>349</v>
       </c>
       <c r="Q727" t="n">
         <v>1</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52773,16 +52773,16 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K728" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L728" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M728" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="Q728" t="n">
         <v>1</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52845,16 +52845,16 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K729" t="n">
         <v>700</v>
       </c>
       <c r="L729" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M729" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52867,7 +52867,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="Q729" t="n">
         <v>1</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K730" t="n">
         <v>500</v>
       </c>
       <c r="L730" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M730" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="Q730" t="n">
         <v>1</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52980,25 +52980,25 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J731" t="n">
         <v>250</v>
       </c>
       <c r="K731" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L731" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M731" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="Q731" t="n">
         <v>1</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53057,20 +53057,20 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K732" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L732" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M732" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="Q732" t="n">
         <v>1</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53129,20 +53129,20 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K733" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L733" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M733" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="Q733" t="n">
         <v>1</v>
@@ -53196,25 +53196,25 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J734" t="n">
         <v>340</v>
       </c>
       <c r="K734" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L734" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M734" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q734" t="n">
         <v>1</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53268,25 +53268,25 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K735" t="n">
         <v>700</v>
       </c>
       <c r="L735" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M735" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="Q735" t="n">
         <v>1</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53340,25 +53340,25 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K736" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L736" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M736" t="n">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="Q736" t="n">
         <v>1</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53412,25 +53412,25 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K737" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="L737" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M737" t="n">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="Q737" t="n">
         <v>1</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53489,20 +53489,20 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K738" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="L738" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="M738" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="Q738" t="n">
         <v>1</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44565</v>
+        <v>44245</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53561,20 +53561,20 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K739" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L739" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M739" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="Q739" t="n">
         <v>1</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44565</v>
+        <v>44245</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53633,20 +53633,20 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K740" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L740" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M740" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="Q740" t="n">
         <v>1</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44565</v>
+        <v>44580</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53705,20 +53705,20 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J741" t="n">
         <v>160</v>
       </c>
       <c r="K741" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L741" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M741" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="Q741" t="n">
         <v>1</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53772,25 +53772,25 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K742" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L742" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M742" t="n">
-        <v>850</v>
+        <v>575</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>850</v>
+        <v>575</v>
       </c>
       <c r="Q742" t="n">
         <v>1</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53844,25 +53844,25 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K743" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L743" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M743" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q743" t="n">
         <v>1</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53916,25 +53916,25 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K744" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="L744" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="M744" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="Q744" t="n">
         <v>1</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53988,25 +53988,25 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K745" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L745" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M745" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="Q745" t="n">
         <v>1</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54065,20 +54065,20 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K746" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L746" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M746" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q746" t="n">
         <v>1</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54137,20 +54137,20 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K747" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L747" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M747" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q747" t="n">
         <v>1</v>
@@ -54204,25 +54204,25 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K748" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L748" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M748" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54235,7 +54235,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="Q748" t="n">
         <v>1</v>
@@ -54276,25 +54276,25 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K749" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L749" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M749" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="Q749" t="n">
         <v>1</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44622</v>
+        <v>44589</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54348,25 +54348,25 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J750" t="n">
         <v>250</v>
       </c>
       <c r="K750" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L750" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M750" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="Q750" t="n">
         <v>1</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44622</v>
+        <v>44589</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54420,25 +54420,25 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K751" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L751" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M751" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q751" t="n">
         <v>1</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44622</v>
+        <v>44589</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54497,20 +54497,20 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K752" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L752" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M752" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="Q752" t="n">
         <v>1</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44650</v>
+        <v>44589</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54573,16 +54573,16 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K753" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L753" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M753" t="n">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="Q753" t="n">
         <v>1</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44650</v>
+        <v>44589</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54645,16 +54645,16 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K754" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L754" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M754" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54663,11 +54663,11 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q754" t="n">
         <v>1</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44911</v>
+        <v>44589</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54708,25 +54708,25 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K755" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="L755" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="M755" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="Q755" t="n">
         <v>1</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44911</v>
+        <v>44622</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54780,25 +54780,25 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K756" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L756" t="n">
         <v>1000</v>
       </c>
       <c r="M756" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="Q756" t="n">
         <v>1</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44911</v>
+        <v>44622</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54852,25 +54852,25 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J757" t="n">
         <v>340</v>
       </c>
       <c r="K757" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L757" t="n">
         <v>800</v>
       </c>
       <c r="M757" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54883,7 +54883,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="Q757" t="n">
         <v>1</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44911</v>
+        <v>44622</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54929,20 +54929,20 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K758" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="L758" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="M758" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="Q758" t="n">
         <v>1</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44911</v>
+        <v>44650</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55005,16 +55005,16 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K759" t="n">
         <v>1000</v>
       </c>
       <c r="L759" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M759" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="Q759" t="n">
         <v>1</v>
@@ -55053,58 +55053,490 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="E760" t="n">
+        <v>13</v>
+      </c>
+      <c r="F760" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J760" t="n">
+        <v>106</v>
+      </c>
+      <c r="K760" t="n">
+        <v>800</v>
+      </c>
+      <c r="L760" t="n">
+        <v>900</v>
+      </c>
+      <c r="M760" t="n">
+        <v>850</v>
+      </c>
+      <c r="N760" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O760" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P760" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q760" t="n">
+        <v>1</v>
+      </c>
+      <c r="R760" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>9</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D761" s="2" t="n">
         <v>44911</v>
       </c>
-      <c r="E760" t="n">
-        <v>13</v>
-      </c>
-      <c r="F760" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H760" t="inlineStr">
+      <c r="E761" t="n">
+        <v>13</v>
+      </c>
+      <c r="F761" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J761" t="n">
+        <v>160</v>
+      </c>
+      <c r="K761" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L761" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M761" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N761" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O761" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P761" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q761" t="n">
+        <v>1</v>
+      </c>
+      <c r="R761" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>9</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D762" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E762" t="n">
+        <v>13</v>
+      </c>
+      <c r="F762" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J762" t="n">
+        <v>430</v>
+      </c>
+      <c r="K762" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L762" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M762" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N762" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O762" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P762" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q762" t="n">
+        <v>1</v>
+      </c>
+      <c r="R762" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>9</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D763" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E763" t="n">
+        <v>13</v>
+      </c>
+      <c r="F763" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J763" t="n">
+        <v>340</v>
+      </c>
+      <c r="K763" t="n">
+        <v>800</v>
+      </c>
+      <c r="L763" t="n">
+        <v>800</v>
+      </c>
+      <c r="M763" t="n">
+        <v>800</v>
+      </c>
+      <c r="N763" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O763" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P763" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q763" t="n">
+        <v>1</v>
+      </c>
+      <c r="R763" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>9</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D764" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E764" t="n">
+        <v>13</v>
+      </c>
+      <c r="F764" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H764" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I760" t="inlineStr">
+      <c r="I764" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J764" t="n">
+        <v>340</v>
+      </c>
+      <c r="K764" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L764" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M764" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N764" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O764" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P764" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q764" t="n">
+        <v>1</v>
+      </c>
+      <c r="R764" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>9</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D765" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E765" t="n">
+        <v>13</v>
+      </c>
+      <c r="F765" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I765" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J765" t="n">
+        <v>610</v>
+      </c>
+      <c r="K765" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L765" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M765" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N765" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O765" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P765" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q765" t="n">
+        <v>1</v>
+      </c>
+      <c r="R765" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>9</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D766" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E766" t="n">
+        <v>13</v>
+      </c>
+      <c r="F766" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I766" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J760" t="n">
+      <c r="J766" t="n">
         <v>430</v>
       </c>
-      <c r="K760" t="n">
+      <c r="K766" t="n">
         <v>700</v>
       </c>
-      <c r="L760" t="n">
+      <c r="L766" t="n">
         <v>700</v>
       </c>
-      <c r="M760" t="n">
+      <c r="M766" t="n">
         <v>700</v>
       </c>
-      <c r="N760" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O760" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P760" t="n">
+      <c r="N766" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O766" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P766" t="n">
         <v>700</v>
       </c>
-      <c r="Q760" t="n">
-        <v>1</v>
-      </c>
-      <c r="R760" t="inlineStr">
+      <c r="Q766" t="n">
+        <v>1</v>
+      </c>
+      <c r="R766" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R766"/>
+  <dimension ref="A1:R773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44533</v>
+        <v>44918</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51617,20 +51617,20 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K712" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L712" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="M712" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="Q712" t="n">
         <v>1</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44533</v>
+        <v>44918</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="K713" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L713" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M713" t="n">
-        <v>1049</v>
+        <v>900</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>1049</v>
+        <v>900</v>
       </c>
       <c r="Q713" t="n">
         <v>1</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44533</v>
+        <v>44918</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51756,25 +51756,25 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K714" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="L714" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="M714" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="Q714" t="n">
         <v>1</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44533</v>
+        <v>44918</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51828,25 +51828,25 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K715" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L715" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="M715" t="n">
-        <v>1051</v>
+        <v>500</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>1051</v>
+        <v>500</v>
       </c>
       <c r="Q715" t="n">
         <v>1</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44217</v>
+        <v>44918</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51900,7 +51900,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
@@ -51909,16 +51909,16 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K716" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L716" t="n">
         <v>1000</v>
       </c>
       <c r="M716" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Q716" t="n">
         <v>1</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44217</v>
+        <v>44918</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51972,7 +51972,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -51981,16 +51981,16 @@
         </is>
       </c>
       <c r="J717" t="n">
+        <v>610</v>
+      </c>
+      <c r="K717" t="n">
         <v>800</v>
-      </c>
-      <c r="K717" t="n">
-        <v>700</v>
       </c>
       <c r="L717" t="n">
         <v>800</v>
       </c>
       <c r="M717" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q717" t="n">
         <v>1</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44217</v>
+        <v>44918</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>1200</v>
+        <v>520</v>
       </c>
       <c r="K718" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L718" t="n">
         <v>600</v>
       </c>
       <c r="M718" t="n">
-        <v>558</v>
+        <v>600</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>558</v>
+        <v>600</v>
       </c>
       <c r="Q718" t="n">
         <v>1</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52116,25 +52116,25 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
+        <v>160</v>
+      </c>
+      <c r="K719" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L719" t="n">
         <v>1300</v>
       </c>
-      <c r="K719" t="n">
-        <v>900</v>
-      </c>
-      <c r="L719" t="n">
-        <v>1000</v>
-      </c>
       <c r="M719" t="n">
-        <v>954</v>
+        <v>1250</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>954</v>
+        <v>1250</v>
       </c>
       <c r="Q719" t="n">
         <v>1</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52188,25 +52188,25 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>2300</v>
+        <v>79</v>
       </c>
       <c r="K720" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L720" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M720" t="n">
-        <v>748</v>
+        <v>1049</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>748</v>
+        <v>1049</v>
       </c>
       <c r="Q720" t="n">
         <v>1</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52265,20 +52265,20 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K721" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L721" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="M721" t="n">
-        <v>536</v>
+        <v>1250</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>536</v>
+        <v>1250</v>
       </c>
       <c r="Q721" t="n">
         <v>1</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44291</v>
+        <v>44533</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52337,20 +52337,20 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>430</v>
+        <v>61</v>
       </c>
       <c r="K722" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L722" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M722" t="n">
-        <v>600</v>
+        <v>1051</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>600</v>
+        <v>1051</v>
       </c>
       <c r="Q722" t="n">
         <v>1</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44291</v>
+        <v>44217</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52404,25 +52404,25 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K723" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L723" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M723" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52435,7 +52435,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="Q723" t="n">
         <v>1</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44630</v>
+        <v>44217</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52476,25 +52476,25 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="K724" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L724" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M724" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q724" t="n">
         <v>1</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44630</v>
+        <v>44217</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52548,25 +52548,25 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="K725" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L725" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M725" t="n">
-        <v>750</v>
+        <v>558</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>750</v>
+        <v>558</v>
       </c>
       <c r="Q725" t="n">
         <v>1</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44630</v>
+        <v>44217</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="K726" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L726" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M726" t="n">
-        <v>550</v>
+        <v>954</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52647,11 +52647,11 @@
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>550</v>
+        <v>954</v>
       </c>
       <c r="Q726" t="n">
         <v>1</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44630</v>
+        <v>44217</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52697,20 +52697,20 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>97</v>
+        <v>2300</v>
       </c>
       <c r="K727" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L727" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M727" t="n">
-        <v>349</v>
+        <v>748</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>349</v>
+        <v>748</v>
       </c>
       <c r="Q727" t="n">
         <v>1</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44623</v>
+        <v>44217</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52764,25 +52764,25 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K728" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L728" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M728" t="n">
-        <v>950</v>
+        <v>536</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>950</v>
+        <v>536</v>
       </c>
       <c r="Q728" t="n">
         <v>1</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44623</v>
+        <v>44291</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52836,7 +52836,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -52845,16 +52845,16 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K729" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L729" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M729" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="Q729" t="n">
         <v>1</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44623</v>
+        <v>44291</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52908,7 +52908,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K730" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L730" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M730" t="n">
-        <v>549</v>
+        <v>400</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>549</v>
+        <v>400</v>
       </c>
       <c r="Q730" t="n">
         <v>1</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52989,16 +52989,16 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K731" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L731" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M731" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="Q731" t="n">
         <v>1</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K732" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L732" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M732" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q732" t="n">
         <v>1</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53133,16 +53133,16 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K733" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L733" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M733" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q733" t="n">
         <v>1</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44245</v>
+        <v>44630</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53196,25 +53196,25 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K734" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L734" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M734" t="n">
-        <v>800</v>
+        <v>349</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>800</v>
+        <v>349</v>
       </c>
       <c r="Q734" t="n">
         <v>1</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53273,20 +53273,20 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K735" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L735" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M735" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="Q735" t="n">
         <v>1</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J736" t="n">
         <v>250</v>
       </c>
       <c r="K736" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L736" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M736" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q736" t="n">
         <v>1</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53417,20 +53417,20 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K737" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L737" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M737" t="n">
-        <v>1000</v>
+        <v>549</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>1000</v>
+        <v>549</v>
       </c>
       <c r="Q737" t="n">
         <v>1</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53499,10 +53499,10 @@
         <v>800</v>
       </c>
       <c r="L738" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M738" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q738" t="n">
         <v>1</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53565,16 +53565,16 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="K739" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L739" t="n">
         <v>700</v>
       </c>
       <c r="M739" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q739" t="n">
         <v>1</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53633,20 +53633,20 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K740" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L740" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M740" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="Q740" t="n">
         <v>1</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53700,7 +53700,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K741" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L741" t="n">
         <v>800</v>
       </c>
       <c r="M741" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q741" t="n">
         <v>1</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K742" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L742" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M742" t="n">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="Q742" t="n">
         <v>1</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53844,7 +53844,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -53853,16 +53853,16 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K743" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L743" t="n">
         <v>500</v>
       </c>
       <c r="M743" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q743" t="n">
         <v>1</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53916,25 +53916,25 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K744" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="L744" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="M744" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="Q744" t="n">
         <v>1</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44565</v>
+        <v>44245</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -54003,10 +54003,10 @@
         <v>800</v>
       </c>
       <c r="L745" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M745" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="Q745" t="n">
         <v>1</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44565</v>
+        <v>44245</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54069,16 +54069,16 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="K746" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L746" t="n">
         <v>700</v>
       </c>
       <c r="M746" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="Q746" t="n">
         <v>1</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44565</v>
+        <v>44245</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54137,20 +54137,20 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K747" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L747" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M747" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="Q747" t="n">
         <v>1</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54204,7 +54204,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -54216,13 +54216,13 @@
         <v>160</v>
       </c>
       <c r="K748" t="n">
+        <v>700</v>
+      </c>
+      <c r="L748" t="n">
         <v>800</v>
       </c>
-      <c r="L748" t="n">
-        <v>900</v>
-      </c>
       <c r="M748" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54235,7 +54235,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q748" t="n">
         <v>1</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54288,13 +54288,13 @@
         <v>340</v>
       </c>
       <c r="K749" t="n">
+        <v>550</v>
+      </c>
+      <c r="L749" t="n">
         <v>600</v>
       </c>
-      <c r="L749" t="n">
-        <v>700</v>
-      </c>
       <c r="M749" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q749" t="n">
         <v>1</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54348,7 +54348,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -54357,16 +54357,16 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K750" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L750" t="n">
         <v>500</v>
       </c>
       <c r="M750" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="Q750" t="n">
         <v>1</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54420,7 +54420,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -54432,13 +54432,13 @@
         <v>79</v>
       </c>
       <c r="K751" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L751" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="M751" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q751" t="n">
         <v>1</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54645,7 +54645,7 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K754" t="n">
         <v>400</v>
@@ -54708,25 +54708,25 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K755" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L755" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M755" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="Q755" t="n">
         <v>1</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44622</v>
+        <v>44589</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54780,25 +54780,25 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K756" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L756" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M756" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="Q756" t="n">
         <v>1</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44622</v>
+        <v>44589</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54852,25 +54852,25 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K757" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L757" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M757" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54883,7 +54883,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="Q757" t="n">
         <v>1</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44622</v>
+        <v>44589</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54924,25 +54924,25 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K758" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L758" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M758" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="Q758" t="n">
         <v>1</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44650</v>
+        <v>44589</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J759" t="n">
         <v>250</v>
       </c>
       <c r="K759" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L759" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M759" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="Q759" t="n">
         <v>1</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44650</v>
+        <v>44589</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55073,20 +55073,20 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>106</v>
+        <v>430</v>
       </c>
       <c r="K760" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L760" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M760" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55095,11 +55095,11 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q760" t="n">
         <v>1</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44911</v>
+        <v>44589</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55140,25 +55140,25 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K761" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="L761" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="M761" t="n">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55171,7 +55171,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="Q761" t="n">
         <v>1</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44911</v>
+        <v>44589</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55212,25 +55212,25 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K762" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L762" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M762" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55243,7 +55243,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q762" t="n">
         <v>1</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44911</v>
+        <v>44622</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55284,25 +55284,25 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K763" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L763" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M763" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55315,7 +55315,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="Q763" t="n">
         <v>1</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44911</v>
+        <v>44622</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55361,20 +55361,20 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J764" t="n">
         <v>340</v>
       </c>
       <c r="K764" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="L764" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="M764" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55387,7 +55387,7 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="Q764" t="n">
         <v>1</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44911</v>
+        <v>44622</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>610</v>
+        <v>160</v>
       </c>
       <c r="K765" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L765" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M765" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q765" t="n">
         <v>1</v>
@@ -55485,58 +55485,562 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="E766" t="n">
+        <v>13</v>
+      </c>
+      <c r="F766" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J766" t="n">
+        <v>250</v>
+      </c>
+      <c r="K766" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L766" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M766" t="n">
+        <v>1050</v>
+      </c>
+      <c r="N766" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O766" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P766" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Q766" t="n">
+        <v>1</v>
+      </c>
+      <c r="R766" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>9</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D767" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="E767" t="n">
+        <v>13</v>
+      </c>
+      <c r="F767" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I767" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J767" t="n">
+        <v>106</v>
+      </c>
+      <c r="K767" t="n">
+        <v>800</v>
+      </c>
+      <c r="L767" t="n">
+        <v>900</v>
+      </c>
+      <c r="M767" t="n">
+        <v>850</v>
+      </c>
+      <c r="N767" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O767" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P767" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q767" t="n">
+        <v>1</v>
+      </c>
+      <c r="R767" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>9</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D768" s="2" t="n">
         <v>44911</v>
       </c>
-      <c r="E766" t="n">
-        <v>13</v>
-      </c>
-      <c r="F766" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H766" t="inlineStr">
+      <c r="E768" t="n">
+        <v>13</v>
+      </c>
+      <c r="F768" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I768" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J768" t="n">
+        <v>160</v>
+      </c>
+      <c r="K768" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L768" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M768" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N768" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O768" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P768" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q768" t="n">
+        <v>1</v>
+      </c>
+      <c r="R768" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>9</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D769" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E769" t="n">
+        <v>13</v>
+      </c>
+      <c r="F769" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I769" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J769" t="n">
+        <v>430</v>
+      </c>
+      <c r="K769" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L769" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M769" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N769" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O769" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P769" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q769" t="n">
+        <v>1</v>
+      </c>
+      <c r="R769" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>9</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D770" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E770" t="n">
+        <v>13</v>
+      </c>
+      <c r="F770" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I770" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J770" t="n">
+        <v>340</v>
+      </c>
+      <c r="K770" t="n">
+        <v>800</v>
+      </c>
+      <c r="L770" t="n">
+        <v>800</v>
+      </c>
+      <c r="M770" t="n">
+        <v>800</v>
+      </c>
+      <c r="N770" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O770" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P770" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q770" t="n">
+        <v>1</v>
+      </c>
+      <c r="R770" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>9</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D771" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E771" t="n">
+        <v>13</v>
+      </c>
+      <c r="F771" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H771" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I766" t="inlineStr">
+      <c r="I771" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J771" t="n">
+        <v>340</v>
+      </c>
+      <c r="K771" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L771" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M771" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N771" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O771" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P771" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q771" t="n">
+        <v>1</v>
+      </c>
+      <c r="R771" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>9</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D772" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E772" t="n">
+        <v>13</v>
+      </c>
+      <c r="F772" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J772" t="n">
+        <v>610</v>
+      </c>
+      <c r="K772" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L772" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M772" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N772" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O772" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P772" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q772" t="n">
+        <v>1</v>
+      </c>
+      <c r="R772" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>9</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D773" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E773" t="n">
+        <v>13</v>
+      </c>
+      <c r="F773" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I773" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J766" t="n">
+      <c r="J773" t="n">
         <v>430</v>
       </c>
-      <c r="K766" t="n">
+      <c r="K773" t="n">
         <v>700</v>
       </c>
-      <c r="L766" t="n">
+      <c r="L773" t="n">
         <v>700</v>
       </c>
-      <c r="M766" t="n">
+      <c r="M773" t="n">
         <v>700</v>
       </c>
-      <c r="N766" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O766" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P766" t="n">
+      <c r="N773" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O773" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P773" t="n">
         <v>700</v>
       </c>
-      <c r="Q766" t="n">
-        <v>1</v>
-      </c>
-      <c r="R766" t="inlineStr">
+      <c r="Q773" t="n">
+        <v>1</v>
+      </c>
+      <c r="R773" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R809"/>
+  <dimension ref="A1:R814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44291</v>
+        <v>44931</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K765" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L765" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M765" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="Q765" t="n">
         <v>1</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44291</v>
+        <v>44931</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55505,20 +55505,20 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K766" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L766" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M766" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55527,11 +55527,11 @@
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q766" t="n">
         <v>1</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44630</v>
+        <v>44931</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55577,20 +55577,20 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K767" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L767" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M767" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="Q767" t="n">
         <v>1</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44630</v>
+        <v>44931</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K768" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L768" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="M768" t="n">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55675,7 +55675,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="Q768" t="n">
         <v>1</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44630</v>
+        <v>44931</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55721,20 +55721,20 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K769" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L769" t="n">
         <v>600</v>
       </c>
       <c r="M769" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55747,7 +55747,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q769" t="n">
         <v>1</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44630</v>
+        <v>44291</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55793,20 +55793,20 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K770" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L770" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M770" t="n">
-        <v>349</v>
+        <v>600</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>349</v>
+        <v>600</v>
       </c>
       <c r="Q770" t="n">
         <v>1</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44623</v>
+        <v>44291</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55860,25 +55860,25 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K771" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L771" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M771" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q771" t="n">
         <v>1</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55932,25 +55932,25 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K772" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L772" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M772" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q772" t="n">
         <v>1</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56004,25 +56004,25 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K773" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L773" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M773" t="n">
-        <v>549</v>
+        <v>750</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>549</v>
+        <v>750</v>
       </c>
       <c r="Q773" t="n">
         <v>1</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56081,20 +56081,20 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J774" t="n">
         <v>250</v>
       </c>
       <c r="K774" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L774" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M774" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56107,7 +56107,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="Q774" t="n">
         <v>1</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K775" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L775" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M775" t="n">
-        <v>650</v>
+        <v>349</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>650</v>
+        <v>349</v>
       </c>
       <c r="Q775" t="n">
         <v>1</v>
@@ -56220,25 +56220,25 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J776" t="n">
         <v>160</v>
       </c>
       <c r="K776" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L776" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M776" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="Q776" t="n">
         <v>1</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56297,20 +56297,20 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K777" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L777" t="n">
         <v>800</v>
       </c>
       <c r="M777" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56323,7 +56323,7 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="Q777" t="n">
         <v>1</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56369,20 +56369,20 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="K778" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L778" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M778" t="n">
-        <v>700</v>
+        <v>549</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>700</v>
+        <v>549</v>
       </c>
       <c r="Q778" t="n">
         <v>1</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56436,25 +56436,25 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J779" t="n">
         <v>250</v>
       </c>
       <c r="K779" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L779" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M779" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="Q779" t="n">
         <v>1</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56508,25 +56508,25 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K780" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L780" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M780" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56539,7 +56539,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q780" t="n">
         <v>1</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56585,20 +56585,20 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K781" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L781" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M781" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q781" t="n">
         <v>1</v>
@@ -56652,25 +56652,25 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K782" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L782" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M782" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q782" t="n">
         <v>1</v>
@@ -56724,25 +56724,25 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K783" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L783" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M783" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q783" t="n">
         <v>1</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56796,25 +56796,25 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K784" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L784" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M784" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56827,7 +56827,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q784" t="n">
         <v>1</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56868,25 +56868,25 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K785" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L785" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M785" t="n">
-        <v>575</v>
+        <v>1000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>575</v>
+        <v>1000</v>
       </c>
       <c r="Q785" t="n">
         <v>1</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K786" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L786" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M786" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="Q786" t="n">
         <v>1</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57017,20 +57017,20 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="K787" t="n">
-        <v>380</v>
+        <v>700</v>
       </c>
       <c r="L787" t="n">
-        <v>380</v>
+        <v>700</v>
       </c>
       <c r="M787" t="n">
-        <v>380</v>
+        <v>700</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>380</v>
+        <v>700</v>
       </c>
       <c r="Q787" t="n">
         <v>1</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44565</v>
+        <v>44245</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K788" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L788" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M788" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="Q788" t="n">
         <v>1</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44565</v>
+        <v>44580</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57161,20 +57161,20 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K789" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L789" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M789" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q789" t="n">
         <v>1</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44565</v>
+        <v>44580</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K790" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L790" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M790" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="Q790" t="n">
         <v>1</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57300,25 +57300,25 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K791" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L791" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M791" t="n">
-        <v>850</v>
+        <v>475</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>850</v>
+        <v>475</v>
       </c>
       <c r="Q791" t="n">
         <v>1</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57372,25 +57372,25 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K792" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L792" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="M792" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="Q792" t="n">
         <v>1</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57444,25 +57444,25 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J793" t="n">
         <v>250</v>
       </c>
       <c r="K793" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L793" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M793" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="Q793" t="n">
         <v>1</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57516,25 +57516,25 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="K794" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L794" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M794" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="Q794" t="n">
         <v>1</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K795" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L795" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M795" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57619,7 +57619,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q795" t="n">
         <v>1</v>
@@ -57660,25 +57660,25 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K796" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L796" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M796" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q796" t="n">
         <v>1</v>
@@ -57732,25 +57732,25 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J797" t="n">
         <v>340</v>
       </c>
       <c r="K797" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L797" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M797" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57763,7 +57763,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q797" t="n">
         <v>1</v>
@@ -57804,25 +57804,25 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K798" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L798" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M798" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q798" t="n">
         <v>1</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44622</v>
+        <v>44589</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57876,25 +57876,25 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K799" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L799" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M799" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="Q799" t="n">
         <v>1</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44622</v>
+        <v>44589</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K800" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L800" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M800" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="Q800" t="n">
         <v>1</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44622</v>
+        <v>44589</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K801" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L801" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M801" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q801" t="n">
         <v>1</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44650</v>
+        <v>44589</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K802" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L802" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="M802" t="n">
-        <v>1050</v>
+        <v>450</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>1050</v>
+        <v>450</v>
       </c>
       <c r="Q802" t="n">
         <v>1</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44650</v>
+        <v>44589</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J803" t="n">
         <v>106</v>
       </c>
       <c r="K803" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L803" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M803" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="Q803" t="n">
         <v>1</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44911</v>
+        <v>44622</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K804" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L804" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="M804" t="n">
-        <v>1400</v>
+        <v>950</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>1400</v>
+        <v>950</v>
       </c>
       <c r="Q804" t="n">
         <v>1</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44911</v>
+        <v>44622</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58308,7 +58308,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -58317,16 +58317,16 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K805" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L805" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M805" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="Q805" t="n">
         <v>1</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44911</v>
+        <v>44622</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58380,7 +58380,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -58389,16 +58389,16 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K806" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L806" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M806" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="Q806" t="n">
         <v>1</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44911</v>
+        <v>44650</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K807" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="L807" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="M807" t="n">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="Q807" t="n">
         <v>1</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44911</v>
+        <v>44650</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>610</v>
+        <v>106</v>
       </c>
       <c r="K808" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L808" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M808" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="Q808" t="n">
         <v>1</v>
@@ -58596,43 +58596,403 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J809" t="n">
+        <v>160</v>
+      </c>
+      <c r="K809" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L809" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M809" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N809" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O809" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P809" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q809" t="n">
+        <v>1</v>
+      </c>
+      <c r="R809" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>9</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D810" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E810" t="n">
+        <v>13</v>
+      </c>
+      <c r="F810" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J810" t="n">
+        <v>430</v>
+      </c>
+      <c r="K810" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L810" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M810" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N810" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O810" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P810" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q810" t="n">
+        <v>1</v>
+      </c>
+      <c r="R810" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>9</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D811" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E811" t="n">
+        <v>13</v>
+      </c>
+      <c r="F811" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J811" t="n">
+        <v>340</v>
+      </c>
+      <c r="K811" t="n">
+        <v>800</v>
+      </c>
+      <c r="L811" t="n">
+        <v>800</v>
+      </c>
+      <c r="M811" t="n">
+        <v>800</v>
+      </c>
+      <c r="N811" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O811" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P811" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q811" t="n">
+        <v>1</v>
+      </c>
+      <c r="R811" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>9</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D812" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E812" t="n">
+        <v>13</v>
+      </c>
+      <c r="F812" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G812" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I809" t="inlineStr">
+      <c r="I812" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J812" t="n">
+        <v>340</v>
+      </c>
+      <c r="K812" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L812" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M812" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N812" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O812" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P812" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q812" t="n">
+        <v>1</v>
+      </c>
+      <c r="R812" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>9</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D813" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E813" t="n">
+        <v>13</v>
+      </c>
+      <c r="F813" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G813" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J813" t="n">
+        <v>610</v>
+      </c>
+      <c r="K813" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L813" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M813" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N813" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O813" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P813" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q813" t="n">
+        <v>1</v>
+      </c>
+      <c r="R813" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>9</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D814" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E814" t="n">
+        <v>13</v>
+      </c>
+      <c r="F814" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I814" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J809" t="n">
+      <c r="J814" t="n">
         <v>430</v>
       </c>
-      <c r="K809" t="n">
+      <c r="K814" t="n">
         <v>700</v>
       </c>
-      <c r="L809" t="n">
+      <c r="L814" t="n">
         <v>700</v>
       </c>
-      <c r="M809" t="n">
+      <c r="M814" t="n">
         <v>700</v>
       </c>
-      <c r="N809" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O809" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P809" t="n">
+      <c r="N814" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O814" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P814" t="n">
         <v>700</v>
       </c>
-      <c r="Q809" t="n">
-        <v>1</v>
-      </c>
-      <c r="R809" t="inlineStr">
+      <c r="Q814" t="n">
+        <v>1</v>
+      </c>
+      <c r="R814" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R840"/>
+  <dimension ref="A1:R851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44922</v>
+        <v>44518</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45785,36 +45785,36 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="K631" t="n">
-        <v>1500</v>
+        <v>25000</v>
       </c>
       <c r="L631" t="n">
-        <v>1500</v>
+        <v>28000</v>
       </c>
       <c r="M631" t="n">
-        <v>1500</v>
+        <v>26500</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>1500</v>
+        <v>1656</v>
       </c>
       <c r="Q631" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K632" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L632" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="M632" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K633" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L633" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M633" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K634" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L634" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M634" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q634" t="n">
         <v>1</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44242</v>
+        <v>44922</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46068,25 +46068,25 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K635" t="n">
         <v>700</v>
       </c>
       <c r="L635" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M635" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K636" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L636" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M636" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46212,25 +46212,25 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K637" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L637" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M637" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K638" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L638" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M638" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44573</v>
+        <v>44242</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46356,25 +46356,25 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K639" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L639" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M639" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K640" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L640" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M640" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q640" t="n">
         <v>1</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K641" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L641" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M641" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="Q641" t="n">
         <v>1</v>
@@ -46572,25 +46572,25 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K642" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L642" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M642" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q642" t="n">
         <v>1</v>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K643" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L643" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M643" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q643" t="n">
         <v>1</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K644" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L644" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M644" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44918</v>
+        <v>44573</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46788,25 +46788,25 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K645" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="L645" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="M645" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="Q645" t="n">
         <v>1</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K646" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="L646" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M646" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K647" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L647" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M647" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -47009,20 +47009,20 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K648" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L648" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M648" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47076,25 +47076,25 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K649" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L649" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M649" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q649" t="n">
         <v>1</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>610</v>
+        <v>340</v>
       </c>
       <c r="K650" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L650" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M650" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q650" t="n">
         <v>1</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>520</v>
+        <v>610</v>
       </c>
       <c r="K651" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L651" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M651" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q651" t="n">
         <v>1</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44901</v>
+        <v>44918</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47292,7 +47292,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K652" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="L652" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="M652" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="Q652" t="n">
         <v>1</v>
@@ -47364,7 +47364,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -47373,7 +47373,7 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K653" t="n">
         <v>1600</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K654" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L654" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="M654" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44624</v>
+        <v>44901</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K655" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L655" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M655" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="Q655" t="n">
         <v>1</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K656" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L656" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M656" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="Q656" t="n">
         <v>1</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K657" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L657" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M657" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q657" t="n">
         <v>1</v>
@@ -47729,20 +47729,20 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K658" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L658" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M658" t="n">
-        <v>449</v>
+        <v>650</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>449</v>
+        <v>650</v>
       </c>
       <c r="Q658" t="n">
         <v>1</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44253</v>
+        <v>44624</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47796,25 +47796,25 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K659" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L659" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M659" t="n">
-        <v>800</v>
+        <v>449</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>800</v>
+        <v>449</v>
       </c>
       <c r="Q659" t="n">
         <v>1</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K660" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L660" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M660" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q660" t="n">
         <v>1</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K661" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L661" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M661" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -48017,20 +48017,20 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K662" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L662" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M662" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48084,25 +48084,25 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K663" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L663" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M663" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="K664" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L664" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M664" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="K665" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L665" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M665" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K666" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L666" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M666" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44602</v>
+        <v>44253</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K667" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L667" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M667" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K668" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L668" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M668" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48521,20 +48521,20 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K669" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L669" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M669" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q669" t="n">
         <v>1</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K670" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L670" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M670" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48660,25 +48660,25 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K671" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L671" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M671" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K672" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L672" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M672" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K673" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L673" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M673" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q673" t="n">
         <v>1</v>
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K674" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L674" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M674" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q674" t="n">
         <v>1</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44230</v>
+        <v>44602</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48948,25 +48948,25 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K675" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L675" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M675" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K676" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L676" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M676" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q676" t="n">
         <v>1</v>
@@ -49101,7 +49101,7 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="K677" t="n">
         <v>700</v>
@@ -49119,7 +49119,7 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P677" t="n">
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="K678" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L678" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M678" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49245,7 +49245,7 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="K679" t="n">
         <v>500</v>
@@ -49263,7 +49263,7 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P679" t="n">
@@ -49308,25 +49308,25 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="K680" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L680" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M680" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49389,16 +49389,16 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K681" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L681" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M681" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49457,20 +49457,20 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="K682" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L682" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M682" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q682" t="n">
         <v>1</v>
@@ -49533,7 +49533,7 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="K683" t="n">
         <v>700</v>
@@ -49551,7 +49551,7 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P683" t="n">
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="K684" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L684" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M684" t="n">
-        <v>538</v>
+        <v>700</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>538</v>
+        <v>700</v>
       </c>
       <c r="Q684" t="n">
         <v>1</v>
@@ -49683,10 +49683,10 @@
         <v>500</v>
       </c>
       <c r="L685" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M685" t="n">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49695,11 +49695,11 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="Q685" t="n">
         <v>1</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44252</v>
+        <v>44230</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49740,25 +49740,25 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K686" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L686" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M686" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q686" t="n">
         <v>1</v>
@@ -49817,20 +49817,20 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K687" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L687" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M687" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q687" t="n">
         <v>1</v>
@@ -49889,20 +49889,20 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="K688" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L688" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M688" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q688" t="n">
         <v>1</v>
@@ -49961,20 +49961,20 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K689" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L689" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M689" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q689" t="n">
         <v>1</v>
@@ -50028,25 +50028,25 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K690" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L690" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M690" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q690" t="n">
         <v>1</v>
@@ -50105,20 +50105,20 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K691" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L691" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M691" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q691" t="n">
         <v>1</v>
@@ -50177,20 +50177,20 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K692" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L692" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M692" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q692" t="n">
         <v>1</v>
@@ -50249,20 +50249,20 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K693" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L693" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M693" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q693" t="n">
         <v>1</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44519</v>
+        <v>44252</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50321,36 +50321,36 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K694" t="n">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="L694" t="n">
-        <v>26000</v>
+        <v>1000</v>
       </c>
       <c r="M694" t="n">
-        <v>25520</v>
+        <v>1000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>1595</v>
+        <v>1000</v>
       </c>
       <c r="Q694" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44592</v>
+        <v>44519</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50393,36 +50393,36 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="K695" t="n">
-        <v>800</v>
+        <v>25000</v>
       </c>
       <c r="L695" t="n">
-        <v>850</v>
+        <v>26000</v>
       </c>
       <c r="M695" t="n">
-        <v>832</v>
+        <v>25520</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>832</v>
+        <v>1595</v>
       </c>
       <c r="Q695" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R695" t="inlineStr">
         <is>
@@ -50465,20 +50465,20 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K696" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L696" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M696" t="n">
-        <v>635</v>
+        <v>832</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>635</v>
+        <v>832</v>
       </c>
       <c r="Q696" t="n">
         <v>1</v>
@@ -50537,20 +50537,20 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="K697" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L697" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M697" t="n">
-        <v>505</v>
+        <v>635</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>505</v>
+        <v>635</v>
       </c>
       <c r="Q697" t="n">
         <v>1</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44568</v>
+        <v>44592</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50604,25 +50604,25 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K698" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L698" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="M698" t="n">
-        <v>950</v>
+        <v>505</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>950</v>
+        <v>505</v>
       </c>
       <c r="Q698" t="n">
         <v>1</v>
@@ -50681,20 +50681,20 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K699" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L699" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M699" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q699" t="n">
         <v>1</v>
@@ -50753,20 +50753,20 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K700" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L700" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M700" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q700" t="n">
         <v>1</v>
@@ -50820,25 +50820,25 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K701" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L701" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M701" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="Q701" t="n">
         <v>1</v>
@@ -50897,20 +50897,20 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K702" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L702" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M702" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q702" t="n">
         <v>1</v>
@@ -50969,20 +50969,20 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K703" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L703" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M703" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q703" t="n">
         <v>1</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44587</v>
+        <v>44568</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J704" t="n">
         <v>160</v>
       </c>
       <c r="K704" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L704" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M704" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q704" t="n">
         <v>1</v>
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K705" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L705" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M705" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q705" t="n">
         <v>1</v>
@@ -51185,20 +51185,20 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K706" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L706" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M706" t="n">
-        <v>449</v>
+        <v>650</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>449</v>
+        <v>650</v>
       </c>
       <c r="Q706" t="n">
         <v>1</v>
@@ -51252,25 +51252,25 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K707" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L707" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M707" t="n">
-        <v>850</v>
+        <v>449</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>850</v>
+        <v>449</v>
       </c>
       <c r="Q707" t="n">
         <v>1</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K708" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L708" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M708" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q708" t="n">
         <v>1</v>
@@ -51401,20 +51401,20 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K709" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L709" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M709" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q709" t="n">
         <v>1</v>
@@ -51473,20 +51473,20 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K710" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L710" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M710" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q710" t="n">
         <v>1</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44923</v>
+        <v>44587</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51540,25 +51540,25 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K711" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L711" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M711" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q711" t="n">
         <v>1</v>
@@ -51617,20 +51617,20 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K712" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L712" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M712" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q712" t="n">
         <v>1</v>
@@ -51684,25 +51684,25 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J713" t="n">
         <v>340</v>
       </c>
       <c r="K713" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="L713" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="M713" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="Q713" t="n">
         <v>1</v>
@@ -51761,20 +51761,20 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K714" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L714" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="M714" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="Q714" t="n">
         <v>1</v>
@@ -51833,20 +51833,20 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="K715" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L715" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M715" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="Q715" t="n">
         <v>1</v>
@@ -51900,25 +51900,25 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J716" t="n">
         <v>430</v>
       </c>
       <c r="K716" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L716" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M716" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q716" t="n">
         <v>1</v>
@@ -51977,20 +51977,20 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K717" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L717" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M717" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q717" t="n">
         <v>1</v>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J718" t="n">
         <v>340</v>
       </c>
       <c r="K718" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="L718" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="M718" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="Q718" t="n">
         <v>1</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K719" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L719" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="M719" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="Q719" t="n">
         <v>1</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="K720" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L720" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M720" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="Q720" t="n">
         <v>1</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44237</v>
+        <v>44923</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52260,25 +52260,25 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="K721" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L721" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M721" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q721" t="n">
         <v>1</v>
@@ -52337,20 +52337,20 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>520</v>
+        <v>150</v>
       </c>
       <c r="K722" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L722" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M722" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q722" t="n">
         <v>1</v>
@@ -52409,20 +52409,20 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K723" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L723" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M723" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52435,7 +52435,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q723" t="n">
         <v>1</v>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K724" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L724" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M724" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q724" t="n">
         <v>1</v>
@@ -52548,25 +52548,25 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K725" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L725" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M725" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q725" t="n">
         <v>1</v>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="K726" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L726" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M726" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q726" t="n">
         <v>1</v>
@@ -52697,20 +52697,20 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="K727" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L727" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M727" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q727" t="n">
         <v>1</v>
@@ -52769,20 +52769,20 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="K728" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L728" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M728" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q728" t="n">
         <v>1</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52836,25 +52836,25 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>430</v>
+        <v>100</v>
       </c>
       <c r="K729" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L729" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M729" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q729" t="n">
         <v>1</v>
@@ -52913,20 +52913,20 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="K730" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L730" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M730" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q730" t="n">
         <v>1</v>
@@ -52985,20 +52985,20 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K731" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L731" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M731" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q731" t="n">
         <v>1</v>
@@ -53052,25 +53052,25 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>610</v>
+        <v>340</v>
       </c>
       <c r="K732" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L732" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M732" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q732" t="n">
         <v>1</v>
@@ -53133,7 +53133,7 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>700</v>
+        <v>610</v>
       </c>
       <c r="K733" t="n">
         <v>800</v>
@@ -53151,7 +53151,7 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P733" t="n">
@@ -53201,20 +53201,20 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K734" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L734" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M734" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q734" t="n">
         <v>1</v>
@@ -53277,7 +53277,7 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K735" t="n">
         <v>600</v>
@@ -53295,7 +53295,7 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P735" t="n">
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="K736" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L736" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M736" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q736" t="n">
         <v>1</v>
@@ -53421,7 +53421,7 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K737" t="n">
         <v>500</v>
@@ -53439,7 +53439,7 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P737" t="n">
@@ -53489,20 +53489,20 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K738" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L738" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M738" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53511,11 +53511,11 @@
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q738" t="n">
         <v>1</v>
@@ -53565,7 +53565,7 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="K739" t="n">
         <v>1000</v>
@@ -53583,7 +53583,7 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P739" t="n">
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44572</v>
+        <v>44239</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53628,25 +53628,25 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K740" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L740" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M740" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="Q740" t="n">
         <v>1</v>
@@ -53705,20 +53705,20 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K741" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L741" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M741" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q741" t="n">
         <v>1</v>
@@ -53777,20 +53777,20 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K742" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L742" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M742" t="n">
-        <v>335</v>
+        <v>450</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>335</v>
+        <v>450</v>
       </c>
       <c r="Q742" t="n">
         <v>1</v>
@@ -53844,25 +53844,25 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K743" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L743" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="M743" t="n">
-        <v>1050</v>
+        <v>335</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>1050</v>
+        <v>335</v>
       </c>
       <c r="Q743" t="n">
         <v>1</v>
@@ -53921,20 +53921,20 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K744" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L744" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M744" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="Q744" t="n">
         <v>1</v>
@@ -53993,20 +53993,20 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K745" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L745" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M745" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q745" t="n">
         <v>1</v>
@@ -54065,20 +54065,20 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K746" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L746" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M746" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q746" t="n">
         <v>1</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44218</v>
+        <v>44572</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54132,25 +54132,25 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>400</v>
+        <v>106</v>
       </c>
       <c r="K747" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L747" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M747" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q747" t="n">
         <v>1</v>
@@ -54213,16 +54213,16 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K748" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L748" t="n">
         <v>1000</v>
       </c>
       <c r="M748" t="n">
-        <v>957</v>
+        <v>1000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>957</v>
+        <v>1000</v>
       </c>
       <c r="Q748" t="n">
         <v>1</v>
@@ -54281,20 +54281,20 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J749" t="n">
         <v>700</v>
       </c>
       <c r="K749" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L749" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M749" t="n">
-        <v>743</v>
+        <v>957</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>743</v>
+        <v>957</v>
       </c>
       <c r="Q749" t="n">
         <v>1</v>
@@ -54357,7 +54357,7 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K750" t="n">
         <v>700</v>
@@ -54366,7 +54366,7 @@
         <v>800</v>
       </c>
       <c r="M750" t="n">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54375,11 +54375,11 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="Q750" t="n">
         <v>1</v>
@@ -54425,20 +54425,20 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J751" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K751" t="n">
         <v>700</v>
       </c>
-      <c r="K751" t="n">
-        <v>500</v>
-      </c>
       <c r="L751" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M751" t="n">
-        <v>557</v>
+        <v>755</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>557</v>
+        <v>755</v>
       </c>
       <c r="Q751" t="n">
         <v>1</v>
@@ -54492,25 +54492,25 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J752" t="n">
         <v>700</v>
       </c>
       <c r="K752" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L752" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M752" t="n">
-        <v>957</v>
+        <v>557</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>957</v>
+        <v>557</v>
       </c>
       <c r="Q752" t="n">
         <v>1</v>
@@ -54573,7 +54573,7 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K753" t="n">
         <v>900</v>
@@ -54582,7 +54582,7 @@
         <v>1000</v>
       </c>
       <c r="M753" t="n">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="Q753" t="n">
         <v>1</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K754" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L754" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M754" t="n">
-        <v>742</v>
+        <v>950</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54663,11 +54663,11 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>742</v>
+        <v>950</v>
       </c>
       <c r="Q754" t="n">
         <v>1</v>
@@ -54717,7 +54717,7 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="K755" t="n">
         <v>700</v>
@@ -54726,7 +54726,7 @@
         <v>800</v>
       </c>
       <c r="M755" t="n">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="Q755" t="n">
         <v>1</v>
@@ -54785,20 +54785,20 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="K756" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L756" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M756" t="n">
-        <v>544</v>
+        <v>752</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54807,11 +54807,11 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>544</v>
+        <v>752</v>
       </c>
       <c r="Q756" t="n">
         <v>1</v>
@@ -54861,7 +54861,7 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="K757" t="n">
         <v>500</v>
@@ -54870,7 +54870,7 @@
         <v>600</v>
       </c>
       <c r="M757" t="n">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54879,11 +54879,11 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="Q757" t="n">
         <v>1</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44232</v>
+        <v>44218</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54924,25 +54924,25 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K758" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L758" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M758" t="n">
-        <v>676</v>
+        <v>533</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>676</v>
+        <v>533</v>
       </c>
       <c r="Q758" t="n">
         <v>1</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K759" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L759" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M759" t="n">
-        <v>500</v>
+        <v>676</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>500</v>
+        <v>676</v>
       </c>
       <c r="Q759" t="n">
         <v>1</v>
@@ -55068,25 +55068,25 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="K760" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L760" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M760" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55099,7 +55099,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="Q760" t="n">
         <v>1</v>
@@ -55149,16 +55149,16 @@
         </is>
       </c>
       <c r="J761" t="n">
+        <v>700</v>
+      </c>
+      <c r="K761" t="n">
         <v>900</v>
       </c>
-      <c r="K761" t="n">
-        <v>800</v>
-      </c>
       <c r="L761" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M761" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q761" t="n">
         <v>1</v>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>3800</v>
+        <v>900</v>
       </c>
       <c r="K762" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L762" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M762" t="n">
-        <v>676</v>
+        <v>800</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>676</v>
+        <v>800</v>
       </c>
       <c r="Q762" t="n">
         <v>1</v>
@@ -55293,16 +55293,16 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="K763" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L763" t="n">
         <v>700</v>
       </c>
       <c r="M763" t="n">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="Q763" t="n">
         <v>1</v>
@@ -55361,20 +55361,20 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>2100</v>
+        <v>4500</v>
       </c>
       <c r="K764" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L764" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M764" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="Q764" t="n">
         <v>1</v>
@@ -55437,7 +55437,7 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="K765" t="n">
         <v>500</v>
@@ -55455,7 +55455,7 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P765" t="n">
@@ -55505,20 +55505,20 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J766" t="n">
+        <v>2300</v>
+      </c>
+      <c r="K766" t="n">
         <v>500</v>
       </c>
-      <c r="K766" t="n">
-        <v>1000</v>
-      </c>
       <c r="L766" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M766" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55527,11 +55527,11 @@
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q766" t="n">
         <v>1</v>
@@ -55581,7 +55581,7 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K767" t="n">
         <v>1000</v>
@@ -55599,7 +55599,7 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P767" t="n">
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44627</v>
+        <v>44232</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>106</v>
+        <v>600</v>
       </c>
       <c r="K768" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L768" t="n">
         <v>1000</v>
       </c>
       <c r="M768" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55675,7 +55675,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="Q768" t="n">
         <v>1</v>
@@ -55721,20 +55721,20 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K769" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L769" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M769" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55747,7 +55747,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q769" t="n">
         <v>1</v>
@@ -55793,20 +55793,20 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K770" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L770" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M770" t="n">
-        <v>549</v>
+        <v>750</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>549</v>
+        <v>750</v>
       </c>
       <c r="Q770" t="n">
         <v>1</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44286</v>
+        <v>44627</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55860,25 +55860,25 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K771" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L771" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M771" t="n">
-        <v>800</v>
+        <v>549</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>800</v>
+        <v>549</v>
       </c>
       <c r="Q771" t="n">
         <v>1</v>
@@ -55937,20 +55937,20 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K772" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L772" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M772" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q772" t="n">
         <v>1</v>
@@ -56009,20 +56009,20 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K773" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L773" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M773" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q773" t="n">
         <v>1</v>
@@ -56076,25 +56076,25 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J774" t="n">
         <v>160</v>
       </c>
       <c r="K774" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L774" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M774" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56107,7 +56107,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q774" t="n">
         <v>1</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K775" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L775" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M775" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q775" t="n">
         <v>1</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K776" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L776" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M776" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q776" t="n">
         <v>1</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56292,25 +56292,25 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J777" t="n">
         <v>250</v>
       </c>
       <c r="K777" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="L777" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M777" t="n">
-        <v>1150</v>
+        <v>400</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>1150</v>
+        <v>400</v>
       </c>
       <c r="Q777" t="n">
         <v>1</v>
@@ -56369,20 +56369,20 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K778" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="L778" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M778" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="Q778" t="n">
         <v>1</v>
@@ -56436,25 +56436,25 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K779" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L779" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M779" t="n">
-        <v>1250</v>
+        <v>950</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>1250</v>
+        <v>950</v>
       </c>
       <c r="Q779" t="n">
         <v>1</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K780" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L780" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="M780" t="n">
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56539,7 +56539,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="Q780" t="n">
         <v>1</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44574</v>
+        <v>44175</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56580,25 +56580,25 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K781" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L781" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M781" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="Q781" t="n">
         <v>1</v>
@@ -56657,20 +56657,20 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K782" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L782" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M782" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q782" t="n">
         <v>1</v>
@@ -56729,20 +56729,20 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K783" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L783" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M783" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q783" t="n">
         <v>1</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="K784" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L784" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M784" t="n">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56827,7 +56827,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="Q784" t="n">
         <v>1</v>
@@ -56868,25 +56868,25 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J785" t="n">
+        <v>61</v>
+      </c>
+      <c r="K785" t="n">
         <v>250</v>
       </c>
-      <c r="K785" t="n">
-        <v>800</v>
-      </c>
       <c r="L785" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M785" t="n">
-        <v>850</v>
+        <v>275</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>850</v>
+        <v>275</v>
       </c>
       <c r="Q785" t="n">
         <v>1</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K786" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L786" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M786" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q786" t="n">
         <v>1</v>
@@ -57017,20 +57017,20 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K787" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L787" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M787" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q787" t="n">
         <v>1</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K788" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L788" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M788" t="n">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="Q788" t="n">
         <v>1</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44552</v>
+        <v>44574</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57156,25 +57156,25 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K789" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L789" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M789" t="n">
-        <v>949</v>
+        <v>275</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>949</v>
+        <v>275</v>
       </c>
       <c r="Q789" t="n">
         <v>1</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K790" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L790" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M790" t="n">
-        <v>750</v>
+        <v>949</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>750</v>
+        <v>949</v>
       </c>
       <c r="Q790" t="n">
         <v>1</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K791" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L791" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M791" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q791" t="n">
         <v>1</v>
@@ -57372,25 +57372,25 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K792" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="L792" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M792" t="n">
-        <v>875</v>
+        <v>550</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>875</v>
+        <v>550</v>
       </c>
       <c r="Q792" t="n">
         <v>1</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K793" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L793" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M793" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="Q793" t="n">
         <v>1</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K794" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L794" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M794" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q794" t="n">
         <v>1</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44265</v>
+        <v>44552</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57588,25 +57588,25 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J795" t="n">
         <v>250</v>
       </c>
       <c r="K795" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L795" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M795" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57619,7 +57619,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="Q795" t="n">
         <v>1</v>
@@ -57665,20 +57665,20 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K796" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L796" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M796" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q796" t="n">
         <v>1</v>
@@ -57732,25 +57732,25 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K797" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L797" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M797" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57763,7 +57763,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q797" t="n">
         <v>1</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K798" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L798" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M798" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q798" t="n">
         <v>1</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44215</v>
+        <v>44265</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57876,25 +57876,25 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>900</v>
+        <v>340</v>
       </c>
       <c r="K799" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L799" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M799" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q799" t="n">
         <v>1</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="K800" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L800" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M800" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q800" t="n">
         <v>1</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K801" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L801" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M801" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q801" t="n">
         <v>1</v>
@@ -58092,25 +58092,25 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J802" t="n">
         <v>1200</v>
       </c>
       <c r="K802" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L802" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M802" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q802" t="n">
         <v>1</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="K803" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L803" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M803" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q803" t="n">
         <v>1</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="K804" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L804" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M804" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q804" t="n">
         <v>1</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44623</v>
+        <v>44215</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58308,25 +58308,25 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="K805" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L805" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M805" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="Q805" t="n">
         <v>1</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K806" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L806" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M806" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q806" t="n">
         <v>1</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K807" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L807" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M807" t="n">
-        <v>549</v>
+        <v>750</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>549</v>
+        <v>750</v>
       </c>
       <c r="Q807" t="n">
         <v>1</v>
@@ -58524,25 +58524,25 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K808" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L808" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M808" t="n">
-        <v>850</v>
+        <v>549</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>850</v>
+        <v>549</v>
       </c>
       <c r="Q808" t="n">
         <v>1</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K809" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L809" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M809" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q809" t="n">
         <v>1</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K810" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L810" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M810" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q810" t="n">
         <v>1</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44277</v>
+        <v>44623</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J811" t="n">
         <v>160</v>
       </c>
       <c r="K811" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L811" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M811" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q811" t="n">
         <v>1</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44585</v>
+        <v>44277</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58817,7 +58817,7 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J812" t="n">
@@ -58827,10 +58827,10 @@
         <v>800</v>
       </c>
       <c r="L812" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M812" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="Q812" t="n">
         <v>1</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K813" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L813" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M813" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q813" t="n">
         <v>1</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K814" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L814" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M814" t="n">
-        <v>449</v>
+        <v>650</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>449</v>
+        <v>650</v>
       </c>
       <c r="Q814" t="n">
         <v>1</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="K815" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L815" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M815" t="n">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="Q815" t="n">
         <v>1</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44168</v>
+        <v>44585</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>1600</v>
+        <v>34</v>
       </c>
       <c r="K816" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L816" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M816" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q816" t="n">
         <v>1</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K817" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L817" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M817" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q817" t="n">
         <v>1</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44628</v>
+        <v>44168</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59244,25 +59244,25 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="K818" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="L818" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="M818" t="n">
-        <v>1150</v>
+        <v>800</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>1150</v>
+        <v>800</v>
       </c>
       <c r="Q818" t="n">
         <v>1</v>
@@ -59321,20 +59321,20 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K819" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="L819" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M819" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="Q819" t="n">
         <v>1</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K820" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L820" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M820" t="n">
-        <v>749</v>
+        <v>950</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>749</v>
+        <v>950</v>
       </c>
       <c r="Q820" t="n">
         <v>1</v>
@@ -59460,25 +59460,25 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K821" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="L821" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="M821" t="n">
-        <v>1150</v>
+        <v>749</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>1150</v>
+        <v>749</v>
       </c>
       <c r="Q821" t="n">
         <v>1</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K822" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="L822" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M822" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="Q822" t="n">
         <v>1</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K823" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L823" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M823" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q823" t="n">
         <v>1</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44547</v>
+        <v>44628</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59676,25 +59676,25 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K824" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="L824" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="M824" t="n">
-        <v>1350</v>
+        <v>750</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>1350</v>
+        <v>750</v>
       </c>
       <c r="Q824" t="n">
         <v>1</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K825" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L825" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="M825" t="n">
-        <v>1050</v>
+        <v>1350</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>1050</v>
+        <v>1350</v>
       </c>
       <c r="Q825" t="n">
         <v>1</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K826" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L826" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M826" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="Q826" t="n">
         <v>1</v>
@@ -59892,25 +59892,25 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="K827" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L827" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="M827" t="n">
-        <v>1247</v>
+        <v>850</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>1247</v>
+        <v>850</v>
       </c>
       <c r="Q827" t="n">
         <v>1</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K828" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L828" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="M828" t="n">
-        <v>1050</v>
+        <v>1247</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>1050</v>
+        <v>1247</v>
       </c>
       <c r="Q828" t="n">
         <v>1</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K829" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L829" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M829" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="Q829" t="n">
         <v>1</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44600</v>
+        <v>44547</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60108,25 +60108,25 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K830" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L830" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M830" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="Q830" t="n">
         <v>1</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K831" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L831" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M831" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q831" t="n">
         <v>1</v>
@@ -60252,12 +60252,12 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J832" t="n">
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K833" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L833" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M833" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q833" t="n">
         <v>1</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K834" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L834" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M834" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q834" t="n">
         <v>1</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44249</v>
+        <v>44600</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60468,25 +60468,25 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K835" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L835" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M835" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q835" t="n">
         <v>1</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44249</v>
+        <v>44939</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K836" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L836" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="M836" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="Q836" t="n">
         <v>1</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44249</v>
+        <v>44939</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K837" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L837" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M837" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q837" t="n">
         <v>1</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44249</v>
+        <v>44939</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60684,25 +60684,25 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K838" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L838" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M838" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q838" t="n">
         <v>1</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44249</v>
+        <v>44939</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60756,25 +60756,25 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K839" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="L839" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="M839" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="Q839" t="n">
         <v>1</v>
@@ -60813,58 +60813,850 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="E840" t="n">
+        <v>13</v>
+      </c>
+      <c r="F840" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G840" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J840" t="n">
+        <v>70</v>
+      </c>
+      <c r="K840" t="n">
+        <v>600</v>
+      </c>
+      <c r="L840" t="n">
+        <v>600</v>
+      </c>
+      <c r="M840" t="n">
+        <v>600</v>
+      </c>
+      <c r="N840" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O840" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P840" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q840" t="n">
+        <v>1</v>
+      </c>
+      <c r="R840" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>9</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D841" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="E841" t="n">
+        <v>13</v>
+      </c>
+      <c r="F841" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G841" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J841" t="n">
+        <v>340</v>
+      </c>
+      <c r="K841" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L841" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M841" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N841" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O841" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P841" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q841" t="n">
+        <v>1</v>
+      </c>
+      <c r="R841" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>9</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D842" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="E842" t="n">
+        <v>13</v>
+      </c>
+      <c r="F842" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J842" t="n">
+        <v>520</v>
+      </c>
+      <c r="K842" t="n">
+        <v>1100</v>
+      </c>
+      <c r="L842" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M842" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N842" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O842" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P842" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q842" t="n">
+        <v>1</v>
+      </c>
+      <c r="R842" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>9</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D843" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="E843" t="n">
+        <v>13</v>
+      </c>
+      <c r="F843" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G843" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I843" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J843" t="n">
+        <v>250</v>
+      </c>
+      <c r="K843" t="n">
+        <v>900</v>
+      </c>
+      <c r="L843" t="n">
+        <v>900</v>
+      </c>
+      <c r="M843" t="n">
+        <v>900</v>
+      </c>
+      <c r="N843" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O843" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P843" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q843" t="n">
+        <v>1</v>
+      </c>
+      <c r="R843" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>9</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D844" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="E844" t="n">
+        <v>13</v>
+      </c>
+      <c r="F844" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G844" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I844" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J844" t="n">
+        <v>160</v>
+      </c>
+      <c r="K844" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L844" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M844" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N844" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O844" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P844" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Q844" t="n">
+        <v>1</v>
+      </c>
+      <c r="R844" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>9</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D845" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="E845" t="n">
+        <v>13</v>
+      </c>
+      <c r="F845" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G845" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J845" t="n">
+        <v>70</v>
+      </c>
+      <c r="K845" t="n">
+        <v>700</v>
+      </c>
+      <c r="L845" t="n">
+        <v>700</v>
+      </c>
+      <c r="M845" t="n">
+        <v>700</v>
+      </c>
+      <c r="N845" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O845" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P845" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q845" t="n">
+        <v>1</v>
+      </c>
+      <c r="R845" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>9</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D846" s="2" t="n">
         <v>44249</v>
       </c>
-      <c r="E840" t="n">
-        <v>13</v>
-      </c>
-      <c r="F840" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G840" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H840" t="inlineStr">
+      <c r="E846" t="n">
+        <v>13</v>
+      </c>
+      <c r="F846" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J846" t="n">
+        <v>430</v>
+      </c>
+      <c r="K846" t="n">
+        <v>800</v>
+      </c>
+      <c r="L846" t="n">
+        <v>800</v>
+      </c>
+      <c r="M846" t="n">
+        <v>800</v>
+      </c>
+      <c r="N846" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O846" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P846" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q846" t="n">
+        <v>1</v>
+      </c>
+      <c r="R846" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>9</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D847" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="E847" t="n">
+        <v>13</v>
+      </c>
+      <c r="F847" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G847" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J847" t="n">
+        <v>250</v>
+      </c>
+      <c r="K847" t="n">
+        <v>700</v>
+      </c>
+      <c r="L847" t="n">
+        <v>700</v>
+      </c>
+      <c r="M847" t="n">
+        <v>700</v>
+      </c>
+      <c r="N847" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O847" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P847" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q847" t="n">
+        <v>1</v>
+      </c>
+      <c r="R847" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>9</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D848" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="E848" t="n">
+        <v>13</v>
+      </c>
+      <c r="F848" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G848" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J848" t="n">
+        <v>340</v>
+      </c>
+      <c r="K848" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L848" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M848" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N848" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O848" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P848" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q848" t="n">
+        <v>1</v>
+      </c>
+      <c r="R848" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>9</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D849" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="E849" t="n">
+        <v>13</v>
+      </c>
+      <c r="F849" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G849" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H849" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I840" t="inlineStr">
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J849" t="n">
+        <v>430</v>
+      </c>
+      <c r="K849" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L849" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M849" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N849" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O849" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P849" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q849" t="n">
+        <v>1</v>
+      </c>
+      <c r="R849" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>9</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D850" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="E850" t="n">
+        <v>13</v>
+      </c>
+      <c r="F850" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G850" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I850" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J850" t="n">
+        <v>340</v>
+      </c>
+      <c r="K850" t="n">
+        <v>800</v>
+      </c>
+      <c r="L850" t="n">
+        <v>800</v>
+      </c>
+      <c r="M850" t="n">
+        <v>800</v>
+      </c>
+      <c r="N850" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O850" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P850" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q850" t="n">
+        <v>1</v>
+      </c>
+      <c r="R850" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>9</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D851" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="E851" t="n">
+        <v>13</v>
+      </c>
+      <c r="F851" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G851" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I851" t="inlineStr">
         <is>
           <t>Super</t>
         </is>
       </c>
-      <c r="J840" t="n">
+      <c r="J851" t="n">
         <v>340</v>
       </c>
-      <c r="K840" t="n">
+      <c r="K851" t="n">
         <v>1200</v>
       </c>
-      <c r="L840" t="n">
+      <c r="L851" t="n">
         <v>1200</v>
       </c>
-      <c r="M840" t="n">
+      <c r="M851" t="n">
         <v>1200</v>
       </c>
-      <c r="N840" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O840" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P840" t="n">
+      <c r="N851" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O851" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P851" t="n">
         <v>1200</v>
       </c>
-      <c r="Q840" t="n">
-        <v>1</v>
-      </c>
-      <c r="R840" t="inlineStr">
+      <c r="Q851" t="n">
+        <v>1</v>
+      </c>
+      <c r="R851" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R851"/>
+  <dimension ref="A1:R859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44519</v>
+        <v>44943</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50388,41 +50388,41 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K695" t="n">
-        <v>25000</v>
+        <v>1100</v>
       </c>
       <c r="L695" t="n">
-        <v>26000</v>
+        <v>1100</v>
       </c>
       <c r="M695" t="n">
-        <v>25520</v>
+        <v>1100</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>1595</v>
+        <v>1100</v>
       </c>
       <c r="Q695" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R695" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44592</v>
+        <v>44943</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="K696" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L696" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="M696" t="n">
-        <v>832</v>
+        <v>900</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>832</v>
+        <v>900</v>
       </c>
       <c r="Q696" t="n">
         <v>1</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44592</v>
+        <v>44943</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50532,25 +50532,25 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="K697" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L697" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M697" t="n">
-        <v>635</v>
+        <v>700</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>635</v>
+        <v>700</v>
       </c>
       <c r="Q697" t="n">
         <v>1</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44592</v>
+        <v>44943</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50604,25 +50604,25 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K698" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L698" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M698" t="n">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q698" t="n">
         <v>1</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44568</v>
+        <v>44943</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,16 +50685,16 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K699" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L699" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M699" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="Q699" t="n">
         <v>1</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44568</v>
+        <v>44943</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50748,7 +50748,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K700" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="L700" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M700" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="Q700" t="n">
         <v>1</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44568</v>
+        <v>44943</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>106</v>
+        <v>430</v>
       </c>
       <c r="K701" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L701" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M701" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="Q701" t="n">
         <v>1</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44568</v>
+        <v>44943</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50897,20 +50897,20 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J702" t="n">
         <v>250</v>
       </c>
       <c r="K702" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L702" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M702" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="Q702" t="n">
         <v>1</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44568</v>
+        <v>44519</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50973,32 +50973,32 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>340</v>
+        <v>25</v>
       </c>
       <c r="K703" t="n">
-        <v>600</v>
+        <v>25000</v>
       </c>
       <c r="L703" t="n">
-        <v>700</v>
+        <v>26000</v>
       </c>
       <c r="M703" t="n">
-        <v>650</v>
+        <v>25520</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>650</v>
+        <v>1595</v>
       </c>
       <c r="Q703" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44568</v>
+        <v>44592</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51041,20 +51041,20 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K704" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L704" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="M704" t="n">
-        <v>450</v>
+        <v>832</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>450</v>
+        <v>832</v>
       </c>
       <c r="Q704" t="n">
         <v>1</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44587</v>
+        <v>44592</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51108,25 +51108,25 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K705" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L705" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M705" t="n">
-        <v>850</v>
+        <v>635</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>850</v>
+        <v>635</v>
       </c>
       <c r="Q705" t="n">
         <v>1</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44587</v>
+        <v>44592</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51180,25 +51180,25 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K706" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L706" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M706" t="n">
-        <v>650</v>
+        <v>505</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51207,11 +51207,11 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>650</v>
+        <v>505</v>
       </c>
       <c r="Q706" t="n">
         <v>1</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44587</v>
+        <v>44568</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51257,20 +51257,20 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K707" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L707" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M707" t="n">
-        <v>449</v>
+        <v>950</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>449</v>
+        <v>950</v>
       </c>
       <c r="Q707" t="n">
         <v>1</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44587</v>
+        <v>44568</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51324,25 +51324,25 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J708" t="n">
         <v>250</v>
       </c>
       <c r="K708" t="n">
+        <v>700</v>
+      </c>
+      <c r="L708" t="n">
         <v>800</v>
       </c>
-      <c r="L708" t="n">
-        <v>900</v>
-      </c>
       <c r="M708" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q708" t="n">
         <v>1</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44587</v>
+        <v>44568</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51396,16 +51396,16 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K709" t="n">
         <v>600</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44587</v>
+        <v>44568</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51473,20 +51473,20 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K710" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L710" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M710" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="Q710" t="n">
         <v>1</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44587</v>
+        <v>44568</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K711" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L711" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M711" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="Q711" t="n">
         <v>1</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44923</v>
+        <v>44568</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,25 +51612,25 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K712" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L712" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M712" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="Q712" t="n">
         <v>1</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44923</v>
+        <v>44587</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K713" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L713" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M713" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="Q713" t="n">
         <v>1</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44923</v>
+        <v>44587</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51756,25 +51756,25 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K714" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="L714" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="M714" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="Q714" t="n">
         <v>1</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44923</v>
+        <v>44587</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51828,25 +51828,25 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="K715" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L715" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M715" t="n">
-        <v>1200</v>
+        <v>449</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>1200</v>
+        <v>449</v>
       </c>
       <c r="Q715" t="n">
         <v>1</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44923</v>
+        <v>44587</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K716" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L716" t="n">
         <v>900</v>
       </c>
       <c r="M716" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="Q716" t="n">
         <v>1</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44923</v>
+        <v>44587</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51972,7 +51972,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -51981,16 +51981,16 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K717" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L717" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M717" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q717" t="n">
         <v>1</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44923</v>
+        <v>44587</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K718" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L718" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M718" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="Q718" t="n">
         <v>1</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44923</v>
+        <v>44587</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K719" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="L719" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="M719" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="Q719" t="n">
         <v>1</v>
@@ -52188,7 +52188,7 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
@@ -52197,16 +52197,16 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="K720" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L720" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M720" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q720" t="n">
         <v>1</v>
@@ -52260,7 +52260,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -52269,16 +52269,16 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K721" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L721" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M721" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q721" t="n">
         <v>1</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44237</v>
+        <v>44923</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52332,7 +52332,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -52341,16 +52341,16 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K722" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L722" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M722" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q722" t="n">
         <v>1</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44237</v>
+        <v>44923</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52404,7 +52404,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
@@ -52416,13 +52416,13 @@
         <v>520</v>
       </c>
       <c r="K723" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L723" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M723" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="Q723" t="n">
         <v>1</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44237</v>
+        <v>44923</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52476,7 +52476,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -52485,16 +52485,16 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K724" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L724" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M724" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q724" t="n">
         <v>1</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44237</v>
+        <v>44923</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52553,11 +52553,11 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="K725" t="n">
         <v>1000</v>
@@ -52575,7 +52575,7 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P725" t="n">
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44237</v>
+        <v>44923</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52620,25 +52620,25 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K726" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L726" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M726" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52647,11 +52647,11 @@
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q726" t="n">
         <v>1</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44237</v>
+        <v>44923</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52697,20 +52697,20 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="K727" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="L727" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="M727" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="Q727" t="n">
         <v>1</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44237</v>
+        <v>44923</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52769,20 +52769,20 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K728" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L728" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M728" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="Q728" t="n">
         <v>1</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44237</v>
+        <v>44923</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52841,20 +52841,20 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>100</v>
+        <v>430</v>
       </c>
       <c r="K729" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L729" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M729" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q729" t="n">
         <v>1</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52917,7 +52917,7 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="K730" t="n">
         <v>800</v>
@@ -52935,7 +52935,7 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P730" t="n">
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52989,7 +52989,7 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K731" t="n">
         <v>600</v>
@@ -53007,7 +53007,7 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P731" t="n">
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K732" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L732" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M732" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q732" t="n">
         <v>1</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53124,25 +53124,25 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>610</v>
+        <v>80</v>
       </c>
       <c r="K733" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L733" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M733" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q733" t="n">
         <v>1</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53205,7 +53205,7 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K734" t="n">
         <v>800</v>
@@ -53223,7 +53223,7 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P734" t="n">
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53277,7 +53277,7 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>1600</v>
+        <v>680</v>
       </c>
       <c r="K735" t="n">
         <v>600</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>1800</v>
+        <v>340</v>
       </c>
       <c r="K736" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L736" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M736" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q736" t="n">
         <v>1</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53417,20 +53417,20 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K737" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L737" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M737" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q737" t="n">
         <v>1</v>
@@ -53484,25 +53484,25 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K738" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L738" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M738" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q738" t="n">
         <v>1</v>
@@ -53556,25 +53556,25 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>430</v>
+        <v>700</v>
       </c>
       <c r="K739" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L739" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M739" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q739" t="n">
         <v>1</v>
@@ -53628,25 +53628,25 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K740" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L740" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M740" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q740" t="n">
         <v>1</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44572</v>
+        <v>44239</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53700,25 +53700,25 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K741" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L741" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M741" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53727,11 +53727,11 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q741" t="n">
         <v>1</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44572</v>
+        <v>44239</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53772,25 +53772,25 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K742" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L742" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M742" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="Q742" t="n">
         <v>1</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44572</v>
+        <v>44239</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53844,25 +53844,25 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>150</v>
+        <v>1600</v>
       </c>
       <c r="K743" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L743" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M743" t="n">
-        <v>335</v>
+        <v>650</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>335</v>
+        <v>650</v>
       </c>
       <c r="Q743" t="n">
         <v>1</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44572</v>
+        <v>44239</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53921,20 +53921,20 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>340</v>
+        <v>1800</v>
       </c>
       <c r="K744" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L744" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M744" t="n">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="Q744" t="n">
         <v>1</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44572</v>
+        <v>44239</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53993,20 +53993,20 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K745" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L745" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M745" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54015,11 +54015,11 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="Q745" t="n">
         <v>1</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44572</v>
+        <v>44239</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54069,16 +54069,16 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K746" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L746" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M746" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q746" t="n">
         <v>1</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44572</v>
+        <v>44239</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54137,20 +54137,20 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>106</v>
+        <v>430</v>
       </c>
       <c r="K747" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L747" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M747" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q747" t="n">
         <v>1</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44218</v>
+        <v>44239</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54204,16 +54204,16 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K748" t="n">
         <v>1000</v>
@@ -54231,7 +54231,7 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P748" t="n">
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44218</v>
+        <v>44572</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54281,20 +54281,20 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J749" t="n">
+        <v>340</v>
+      </c>
+      <c r="K749" t="n">
+        <v>600</v>
+      </c>
+      <c r="L749" t="n">
         <v>700</v>
       </c>
-      <c r="K749" t="n">
-        <v>900</v>
-      </c>
-      <c r="L749" t="n">
-        <v>1000</v>
-      </c>
       <c r="M749" t="n">
-        <v>957</v>
+        <v>650</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>957</v>
+        <v>650</v>
       </c>
       <c r="Q749" t="n">
         <v>1</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44218</v>
+        <v>44572</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54353,20 +54353,20 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K750" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L750" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M750" t="n">
-        <v>743</v>
+        <v>450</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54375,11 +54375,11 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>743</v>
+        <v>450</v>
       </c>
       <c r="Q750" t="n">
         <v>1</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44218</v>
+        <v>44572</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54425,20 +54425,20 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="K751" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L751" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M751" t="n">
-        <v>755</v>
+        <v>335</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>755</v>
+        <v>335</v>
       </c>
       <c r="Q751" t="n">
         <v>1</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44218</v>
+        <v>44572</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54492,25 +54492,25 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K752" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L752" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M752" t="n">
-        <v>557</v>
+        <v>1050</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>557</v>
+        <v>1050</v>
       </c>
       <c r="Q752" t="n">
         <v>1</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44218</v>
+        <v>44572</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54569,20 +54569,20 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="K753" t="n">
+        <v>800</v>
+      </c>
+      <c r="L753" t="n">
         <v>900</v>
       </c>
-      <c r="L753" t="n">
-        <v>1000</v>
-      </c>
       <c r="M753" t="n">
-        <v>957</v>
+        <v>850</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>957</v>
+        <v>850</v>
       </c>
       <c r="Q753" t="n">
         <v>1</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44218</v>
+        <v>44572</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K754" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L754" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M754" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="Q754" t="n">
         <v>1</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44218</v>
+        <v>44572</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54713,20 +54713,20 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>1200</v>
+        <v>106</v>
       </c>
       <c r="K755" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L755" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M755" t="n">
-        <v>742</v>
+        <v>500</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>742</v>
+        <v>500</v>
       </c>
       <c r="Q755" t="n">
         <v>1</v>
@@ -54780,25 +54780,25 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="K756" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L756" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M756" t="n">
-        <v>752</v>
+        <v>1000</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54807,11 +54807,11 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>752</v>
+        <v>1000</v>
       </c>
       <c r="Q756" t="n">
         <v>1</v>
@@ -54852,25 +54852,25 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J757" t="n">
+        <v>700</v>
+      </c>
+      <c r="K757" t="n">
         <v>900</v>
       </c>
-      <c r="K757" t="n">
-        <v>500</v>
-      </c>
       <c r="L757" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M757" t="n">
-        <v>544</v>
+        <v>957</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54879,11 +54879,11 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>544</v>
+        <v>957</v>
       </c>
       <c r="Q757" t="n">
         <v>1</v>
@@ -54924,25 +54924,25 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K758" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L758" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M758" t="n">
-        <v>533</v>
+        <v>743</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>533</v>
+        <v>743</v>
       </c>
       <c r="Q758" t="n">
         <v>1</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44232</v>
+        <v>44218</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55005,16 +55005,16 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="K759" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L759" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M759" t="n">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="Q759" t="n">
         <v>1</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44232</v>
+        <v>44218</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55077,16 +55077,16 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="K760" t="n">
         <v>500</v>
       </c>
       <c r="L760" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M760" t="n">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55095,11 +55095,11 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="Q760" t="n">
         <v>1</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44232</v>
+        <v>44218</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55155,10 +55155,10 @@
         <v>900</v>
       </c>
       <c r="L761" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M761" t="n">
-        <v>900</v>
+        <v>957</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55171,7 +55171,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>900</v>
+        <v>957</v>
       </c>
       <c r="Q761" t="n">
         <v>1</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44232</v>
+        <v>44218</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55221,16 +55221,16 @@
         </is>
       </c>
       <c r="J762" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K762" t="n">
         <v>900</v>
       </c>
-      <c r="K762" t="n">
-        <v>800</v>
-      </c>
       <c r="L762" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M762" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55243,7 +55243,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="Q762" t="n">
         <v>1</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44232</v>
+        <v>44218</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55293,16 +55293,16 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="K763" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L763" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M763" t="n">
-        <v>676</v>
+        <v>742</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55315,7 +55315,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>676</v>
+        <v>742</v>
       </c>
       <c r="Q763" t="n">
         <v>1</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44232</v>
+        <v>44218</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55365,16 +55365,16 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="K764" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L764" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M764" t="n">
-        <v>656</v>
+        <v>752</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55387,7 +55387,7 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>656</v>
+        <v>752</v>
       </c>
       <c r="Q764" t="n">
         <v>1</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44232</v>
+        <v>44218</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55437,16 +55437,16 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="K765" t="n">
         <v>500</v>
       </c>
       <c r="L765" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M765" t="n">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="Q765" t="n">
         <v>1</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44232</v>
+        <v>44218</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55509,16 +55509,16 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="K766" t="n">
         <v>500</v>
       </c>
       <c r="L766" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M766" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="Q766" t="n">
         <v>1</v>
@@ -55572,25 +55572,25 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="K767" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="L767" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M767" t="n">
-        <v>1000</v>
+        <v>676</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>1000</v>
+        <v>676</v>
       </c>
       <c r="Q767" t="n">
         <v>1</v>
@@ -55644,25 +55644,25 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K768" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L768" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M768" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q768" t="n">
         <v>1</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44627</v>
+        <v>44232</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55725,16 +55725,16 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>106</v>
+        <v>700</v>
       </c>
       <c r="K769" t="n">
         <v>900</v>
       </c>
       <c r="L769" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M769" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="Q769" t="n">
         <v>1</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44627</v>
+        <v>44232</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55793,20 +55793,20 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K770" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L770" t="n">
         <v>800</v>
       </c>
       <c r="M770" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q770" t="n">
         <v>1</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44627</v>
+        <v>44232</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>79</v>
+        <v>3800</v>
       </c>
       <c r="K771" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L771" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M771" t="n">
-        <v>549</v>
+        <v>676</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>549</v>
+        <v>676</v>
       </c>
       <c r="Q771" t="n">
         <v>1</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44286</v>
+        <v>44232</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55932,25 +55932,25 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>160</v>
+        <v>4500</v>
       </c>
       <c r="K772" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L772" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M772" t="n">
-        <v>800</v>
+        <v>656</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>800</v>
+        <v>656</v>
       </c>
       <c r="Q772" t="n">
         <v>1</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44286</v>
+        <v>44232</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56004,25 +56004,25 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>340</v>
+        <v>2100</v>
       </c>
       <c r="K773" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L773" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M773" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q773" t="n">
         <v>1</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44286</v>
+        <v>44232</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56076,7 +56076,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -56085,16 +56085,16 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>160</v>
+        <v>2300</v>
       </c>
       <c r="K774" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L774" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M774" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q774" t="n">
         <v>1</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44286</v>
+        <v>44232</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K775" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L775" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M775" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q775" t="n">
         <v>1</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44286</v>
+        <v>44232</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K776" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L776" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M776" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q776" t="n">
         <v>1</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44286</v>
+        <v>44627</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56297,20 +56297,20 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K777" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L777" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M777" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="Q777" t="n">
         <v>1</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44175</v>
+        <v>44627</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56364,7 +56364,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -56376,13 +56376,13 @@
         <v>250</v>
       </c>
       <c r="K778" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="L778" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="M778" t="n">
-        <v>1150</v>
+        <v>750</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>1150</v>
+        <v>750</v>
       </c>
       <c r="Q778" t="n">
         <v>1</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44175</v>
+        <v>44627</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56436,7 +56436,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -56445,16 +56445,16 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K779" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L779" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M779" t="n">
-        <v>950</v>
+        <v>549</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>950</v>
+        <v>549</v>
       </c>
       <c r="Q779" t="n">
         <v>1</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56508,25 +56508,25 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K780" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L780" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="M780" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="Q780" t="n">
         <v>1</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56580,25 +56580,25 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K781" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L781" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="M781" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="Q781" t="n">
         <v>1</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44574</v>
+        <v>44286</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56657,20 +56657,20 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J782" t="n">
         <v>160</v>
       </c>
       <c r="K782" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L782" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M782" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q782" t="n">
         <v>1</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44574</v>
+        <v>44286</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56724,25 +56724,25 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K783" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L783" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M783" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q783" t="n">
         <v>1</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44574</v>
+        <v>44286</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56796,25 +56796,25 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K784" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L784" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M784" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q784" t="n">
         <v>1</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44574</v>
+        <v>44286</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56868,25 +56868,25 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="K785" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L785" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M785" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56895,11 +56895,11 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="Q785" t="n">
         <v>1</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44574</v>
+        <v>44175</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56940,25 +56940,25 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J786" t="n">
         <v>250</v>
       </c>
       <c r="K786" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L786" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M786" t="n">
-        <v>850</v>
+        <v>1150</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>850</v>
+        <v>1150</v>
       </c>
       <c r="Q786" t="n">
         <v>1</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44574</v>
+        <v>44175</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57012,25 +57012,25 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K787" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L787" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M787" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="Q787" t="n">
         <v>1</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44574</v>
+        <v>44175</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K788" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L788" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="M788" t="n">
-        <v>450</v>
+        <v>1250</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>450</v>
+        <v>1250</v>
       </c>
       <c r="Q788" t="n">
         <v>1</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44574</v>
+        <v>44175</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57161,20 +57161,20 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K789" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="L789" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="M789" t="n">
-        <v>275</v>
+        <v>1050</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>275</v>
+        <v>1050</v>
       </c>
       <c r="Q789" t="n">
         <v>1</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44552</v>
+        <v>44574</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57237,16 +57237,16 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K790" t="n">
+        <v>800</v>
+      </c>
+      <c r="L790" t="n">
         <v>900</v>
       </c>
-      <c r="L790" t="n">
-        <v>1000</v>
-      </c>
       <c r="M790" t="n">
-        <v>949</v>
+        <v>850</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>949</v>
+        <v>850</v>
       </c>
       <c r="Q790" t="n">
         <v>1</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44552</v>
+        <v>44574</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57312,13 +57312,13 @@
         <v>250</v>
       </c>
       <c r="K791" t="n">
+        <v>600</v>
+      </c>
+      <c r="L791" t="n">
         <v>700</v>
       </c>
-      <c r="L791" t="n">
-        <v>800</v>
-      </c>
       <c r="M791" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q791" t="n">
         <v>1</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44552</v>
+        <v>44574</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57381,16 +57381,16 @@
         </is>
       </c>
       <c r="J792" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K792" t="n">
+        <v>400</v>
+      </c>
+      <c r="L792" t="n">
         <v>500</v>
       </c>
-      <c r="L792" t="n">
-        <v>600</v>
-      </c>
       <c r="M792" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q792" t="n">
         <v>1</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44552</v>
+        <v>44574</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57444,25 +57444,25 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="K793" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="L793" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M793" t="n">
-        <v>875</v>
+        <v>275</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>875</v>
+        <v>275</v>
       </c>
       <c r="Q793" t="n">
         <v>1</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44552</v>
+        <v>44574</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K794" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L794" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M794" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q794" t="n">
         <v>1</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44552</v>
+        <v>44574</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K795" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L795" t="n">
         <v>700</v>
       </c>
       <c r="M795" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57619,7 +57619,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q795" t="n">
         <v>1</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44265</v>
+        <v>44574</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57660,25 +57660,25 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K796" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L796" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M796" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q796" t="n">
         <v>1</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44265</v>
+        <v>44574</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57732,25 +57732,25 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K797" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L797" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M797" t="n">
-        <v>700</v>
+        <v>275</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57763,7 +57763,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>700</v>
+        <v>275</v>
       </c>
       <c r="Q797" t="n">
         <v>1</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44265</v>
+        <v>44552</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57804,7 +57804,7 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
@@ -57813,16 +57813,16 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K798" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L798" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M798" t="n">
-        <v>800</v>
+        <v>949</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>800</v>
+        <v>949</v>
       </c>
       <c r="Q798" t="n">
         <v>1</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44265</v>
+        <v>44552</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57876,7 +57876,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
@@ -57885,16 +57885,16 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K799" t="n">
         <v>700</v>
       </c>
       <c r="L799" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M799" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="Q799" t="n">
         <v>1</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44215</v>
+        <v>44552</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="K800" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L800" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M800" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q800" t="n">
         <v>1</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44215</v>
+        <v>44552</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58020,25 +58020,25 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>1500</v>
+        <v>106</v>
       </c>
       <c r="K801" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L801" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M801" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58047,11 +58047,11 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="Q801" t="n">
         <v>1</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44215</v>
+        <v>44552</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58092,25 +58092,25 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K802" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L802" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M802" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="Q802" t="n">
         <v>1</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44215</v>
+        <v>44552</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K803" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="L803" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M803" t="n">
-        <v>1000</v>
+        <v>675</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>1000</v>
+        <v>675</v>
       </c>
       <c r="Q803" t="n">
         <v>1</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44215</v>
+        <v>44265</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58236,16 +58236,16 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>2100</v>
+        <v>250</v>
       </c>
       <c r="K804" t="n">
         <v>800</v>
@@ -58263,7 +58263,7 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P804" t="n">
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44215</v>
+        <v>44265</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58308,25 +58308,25 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>1500</v>
+        <v>340</v>
       </c>
       <c r="K805" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L805" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M805" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q805" t="n">
         <v>1</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44623</v>
+        <v>44265</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58380,7 +58380,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -58389,16 +58389,16 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K806" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L806" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M806" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="Q806" t="n">
         <v>1</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44623</v>
+        <v>44265</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58452,7 +58452,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -58461,16 +58461,16 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K807" t="n">
         <v>700</v>
       </c>
       <c r="L807" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M807" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="Q807" t="n">
         <v>1</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44623</v>
+        <v>44215</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>79</v>
+        <v>900</v>
       </c>
       <c r="K808" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L808" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M808" t="n">
-        <v>549</v>
+        <v>1000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>549</v>
+        <v>1000</v>
       </c>
       <c r="Q808" t="n">
         <v>1</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44623</v>
+        <v>44215</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58596,25 +58596,25 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K809" t="n">
         <v>800</v>
       </c>
       <c r="L809" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M809" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="Q809" t="n">
         <v>1</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44623</v>
+        <v>44215</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58668,25 +58668,25 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>430</v>
+        <v>1200</v>
       </c>
       <c r="K810" t="n">
         <v>600</v>
       </c>
       <c r="L810" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M810" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q810" t="n">
         <v>1</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44623</v>
+        <v>44215</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="K811" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L811" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M811" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="Q811" t="n">
         <v>1</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44277</v>
+        <v>44215</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58821,7 +58821,7 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>160</v>
+        <v>2100</v>
       </c>
       <c r="K812" t="n">
         <v>800</v>
@@ -58839,7 +58839,7 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P812" t="n">
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44585</v>
+        <v>44215</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="K813" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L813" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M813" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="Q813" t="n">
         <v>1</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44585</v>
+        <v>44623</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58956,25 +58956,25 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K814" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L814" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M814" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="Q814" t="n">
         <v>1</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44585</v>
+        <v>44623</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59028,25 +59028,25 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K815" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L815" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M815" t="n">
-        <v>449</v>
+        <v>750</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>449</v>
+        <v>750</v>
       </c>
       <c r="Q815" t="n">
         <v>1</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44585</v>
+        <v>44623</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59100,25 +59100,25 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="K816" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L816" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M816" t="n">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="Q816" t="n">
         <v>1</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44168</v>
+        <v>44623</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>1600</v>
+        <v>250</v>
       </c>
       <c r="K817" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L817" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M817" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="Q817" t="n">
         <v>1</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44168</v>
+        <v>44623</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>2000</v>
+        <v>430</v>
       </c>
       <c r="K818" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L818" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M818" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="Q818" t="n">
         <v>1</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44628</v>
+        <v>44623</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59316,25 +59316,25 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J819" t="n">
         <v>160</v>
       </c>
       <c r="K819" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="L819" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M819" t="n">
-        <v>1150</v>
+        <v>450</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>1150</v>
+        <v>450</v>
       </c>
       <c r="Q819" t="n">
         <v>1</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44628</v>
+        <v>44277</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K820" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L820" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M820" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="Q820" t="n">
         <v>1</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44628</v>
+        <v>44585</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59460,25 +59460,25 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K821" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L821" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M821" t="n">
-        <v>749</v>
+        <v>850</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>749</v>
+        <v>850</v>
       </c>
       <c r="Q821" t="n">
         <v>1</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44628</v>
+        <v>44585</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K822" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="L822" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="M822" t="n">
-        <v>1150</v>
+        <v>650</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>1150</v>
+        <v>650</v>
       </c>
       <c r="Q822" t="n">
         <v>1</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44628</v>
+        <v>44585</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K823" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L823" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M823" t="n">
-        <v>950</v>
+        <v>449</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>950</v>
+        <v>449</v>
       </c>
       <c r="Q823" t="n">
         <v>1</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44628</v>
+        <v>44585</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59681,20 +59681,20 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="K824" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L824" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M824" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q824" t="n">
         <v>1</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44547</v>
+        <v>44168</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59748,25 +59748,25 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="K825" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="L825" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="M825" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Q825" t="n">
         <v>1</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44547</v>
+        <v>44168</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59820,25 +59820,25 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="K826" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L826" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="M826" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="Q826" t="n">
         <v>1</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44547</v>
+        <v>44628</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K827" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L827" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M827" t="n">
-        <v>850</v>
+        <v>1150</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>850</v>
+        <v>1150</v>
       </c>
       <c r="Q827" t="n">
         <v>1</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44547</v>
+        <v>44628</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59964,25 +59964,25 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K828" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L828" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M828" t="n">
-        <v>1247</v>
+        <v>950</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>1247</v>
+        <v>950</v>
       </c>
       <c r="Q828" t="n">
         <v>1</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44547</v>
+        <v>44628</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60036,25 +60036,25 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K829" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L829" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="M829" t="n">
-        <v>1050</v>
+        <v>749</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>1050</v>
+        <v>749</v>
       </c>
       <c r="Q829" t="n">
         <v>1</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44547</v>
+        <v>44628</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J830" t="n">
         <v>160</v>
       </c>
       <c r="K830" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L830" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M830" t="n">
-        <v>850</v>
+        <v>1150</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>850</v>
+        <v>1150</v>
       </c>
       <c r="Q830" t="n">
         <v>1</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44600</v>
+        <v>44628</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60180,25 +60180,25 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K831" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L831" t="n">
         <v>1000</v>
       </c>
       <c r="M831" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="Q831" t="n">
         <v>1</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44600</v>
+        <v>44628</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60252,25 +60252,25 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K832" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L832" t="n">
         <v>800</v>
       </c>
       <c r="M832" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="Q832" t="n">
         <v>1</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44600</v>
+        <v>44547</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60324,7 +60324,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K833" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="L833" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="M833" t="n">
-        <v>800</v>
+        <v>1350</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>800</v>
+        <v>1350</v>
       </c>
       <c r="Q833" t="n">
         <v>1</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44600</v>
+        <v>44547</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60396,7 +60396,7 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K834" t="n">
-        <v>700</v>
